--- a/QualitativeComparisonMatrix.xlsx
+++ b/QualitativeComparisonMatrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nextcloud\Personal\Documents\ProjectsOngoing\ERA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nextcloud\Personal\Documents\ProjectsOngoing\ERA\GitHubJulian\era-models-mindmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5010430-173A-43B9-8C72-FB5F250FA286}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABC7E3FF-A54D-4FEA-A325-3430BBB6847A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{AE6F6194-DBCE-4544-9335-3715AC75A8BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General specs" sheetId="1" r:id="rId1"/>
@@ -18,28 +18,20 @@
     <sheet name="Properties" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Concepts!$A$1:$V$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Concepts!$A$1:$Y$36</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Properties!$A$1:$X$23</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="763">
   <si>
     <t>Prorail IMSpoor XML</t>
   </si>
@@ -2196,6 +2188,164 @@
   </si>
   <si>
     <t>https://otl.prorail.nl/otl/vigerend/End-Of-Authority</t>
+  </si>
+  <si>
+    <t>Nodepunt</t>
+  </si>
+  <si>
+    <t>https://otl.prorail.nl/otl/vigerend/Nodepunt</t>
+  </si>
+  <si>
+    <t>Node-Point</t>
+  </si>
+  <si>
+    <t>Een nodepunt is een logische of technische locatie binnen een node, bijvoorbeeld voor: topologische afbakening van de node zelf (Node-Poort) of het Node-Centrum, of een relevant technisch punt in de node.</t>
+  </si>
+  <si>
+    <t>Interne-Node-Link</t>
+  </si>
+  <si>
+    <t>https://otl.prorail.nl/otl/vigerend/Interne-Node-Link</t>
+  </si>
+  <si>
+    <t>Een verbinding tussen twee bij dezelfde node jbehorende nodepunten, die een functionele bruikbare toepassing heeft. M.a.w. alleen verbindingen die werkelijk bestaan vastleggen. Verbindingen zijn fysiek gezien altijd bidirectioneel, niet dubbel vastleggen.</t>
+  </si>
+  <si>
+    <t>Begin en Eind moet gekoppeld met nodepunten binnen hetzelfde node van type Micro-Node.</t>
+  </si>
+  <si>
+    <t>Internal-Node-Link</t>
+  </si>
+  <si>
+    <t>Micro-Topo-Object</t>
+  </si>
+  <si>
+    <t>https://otl.prorail.nl/otl/vigerend/Micro-Topo-Object</t>
+  </si>
+  <si>
+    <t>Een infra-object dat speciaal geselecteerd is als elementaire drager van de kale topologie.</t>
+  </si>
+  <si>
+    <t>2.1.1.3</t>
+  </si>
+  <si>
+    <t>2.1.1.3.1</t>
+  </si>
+  <si>
+    <t>https://otl.prorail.nl/otl/vigerend/Micro-Topo-Object-Baan</t>
+  </si>
+  <si>
+    <t>Micro-Topo-Object-Baan</t>
+  </si>
+  <si>
+    <t>Spoortakbegrenzer
+Node-Fulfiller</t>
+  </si>
+  <si>
+    <t>Baan specificatie van Micro-Topo-Object. In de volksmond is dit een spoortakbegrenzer.</t>
+  </si>
+  <si>
+    <t>2.1.2.1.1</t>
+  </si>
+  <si>
+    <t>Track_Functional-View
+RailConnection</t>
+  </si>
+  <si>
+    <t>Een spoortak functioneleview is in de context van baan voor het gebruik in de logistieke keten, waarbij vanuit van een node als punt wordt gekeken. Spoortakbelegging vindt op de spoortak functioneleview plaats, omdat er dat ook belegd kan worden op de nodelinks (beentjes).
+De functionele spoortak (RailConnection) beschrijft het spoor vanuit een functionele benadering in een knopen en takken. Een knoop is:      Een plek waar een trein van richting verandert; een tongbeweging bij een gewoon wissel en een kruisstuk bij een (half-)Engels wissel of kruising;      Een plek waar een trein niet verder kan rijden; een spoorbeëindigingsconstructie.     Deze knoopobjecten zijn de begrenzers van de functionele spoortak en dit betekent dat de functionele spoortak, in tegenstelling tot de fysieke spoortak inclusief wissel-/kruisingbenen is.     Van de functionele spoortak hoeft geen geometrie aangeleverd te worden. In plaats daarvan worden de verwijzingen gevraagd naar de objecten waaruit de functionele spoortak is opgebouwd; de fysieke spoortak en/of de wissel-/kruisingbenen en/of de spoorbeëindigingsconstructie. Omdat de functionele spoortak wanneer deze wordt begrensd door een stootjuk een ander grenspunt heeft dan de fysieke spoortak (die doorloopt achter het stootjuk als het spoor hier ook doorloopt), is enkel een verwijzing naar de fysieke spoortak onvoldoende. In zo’n geval moeten de measures aangegeven worden van het begin (functionalBegin) en het eind (functionalEnd) van de functionele spoortak waarbij het begin een measure van 0,000 is en het eind een measure die de lengte van de spoortak, de locatie van het stootjuk, weergeeft.</t>
+  </si>
+  <si>
+    <t>2.1.2.1.2</t>
+  </si>
+  <si>
+    <t>Spoortak-Fysiekeview</t>
+  </si>
+  <si>
+    <t>https://otl.prorail.nl/otl/vigerend/Spoortak-Fysiekeview</t>
+  </si>
+  <si>
+    <t>Track_Physical-View</t>
+  </si>
+  <si>
+    <t>Een spoortak fysiekeview is in de context van baan de vervuller van de mirco-link.
+De fysieke spoortak (Track) is het object dat het spoor beschrijft, dat niet een wissel of een kruising is. Bij de fysieke spoortak gaat het dus om het spoor exclusief wissel-/kruisingbenen. Binnen de interne opbouw van een wissel of kruising zitten geen spoortakken. Omdat de fysieke spoortak al het spoor is dat niet een wissel of kruising is, stopt deze bij een wissel of kruising en de nieuwe spoortak begint aan de andere zijde van deze objecten. Ook loopt de fysieke spoortak gewoon door achter een stootjuk, omdat dit fysiek spoor is. Bij ineengeschoven wissels (links in het plaatje) bevindt zich geen spoor tussen de wissels en daarom is hier ook geen fysieke spoortak.
+Voor de begrenzing tussen wissel/kruising en fysieke spoortak gelden de locaties waar de wissellengte LT begint of eindigt. Deze lengte is de totale lengte van een wissel of kruising (OVS00056-6.1-V006 en BID00021-1-V001).
+De spoortak zoals hier beschreven betreft enkel treinspoor. De categorie “trein” zoals gehanteerd binnen de Basisregistratie Grootschalige Topografie (BGT)(BGT Gegevenscatalogus 1.1.1, hoofdstuk 9.6) komt hiermee overeen. Overige sporen, zoals gebruikt voor tram of sneltram worden opgenomen als spoor ten behoeve van de BGT. Deze worden beschreven in de Geo-objecten catalogus BGT.
+De administratieve richting van een spoortak loopt vanuit het naamgevende knooppunt naar het andere knooppunt. Kijkend vanuit het naamgevende knooppunt, wordt bijv. bepaald of een sein of bord ‘mee’ of ‘tegen’ staat:
+    ‘mee’: in de richting van de spoortak rijdend, kijk je naar de voorkant van het sein/bord;
+    ‘tegen’: in de richting van de spoortak rijdend, kijk je naar de achterkant van het sein/bord.
+    Objecten als borden en seinen hebben in één richting van een spoortak betekenis, objecten als bijv. WIDO[1]’s en lassen hebben in beide richtingen betekenis.”
+    Geografische inwinning:
+    De spoortak wordt ingewonnen als 3D-lijn die het midden tussen de beide spoorstaven beschrijft, de as van het spoor.
+    De Z-coördinaat beschrijft de bovenkant van de spoorstaaf, en niet maaiveld!
+    Op de locatie van een stootjuk moet op de fysieke spoortak een vertex geplaatst worden!</t>
+  </si>
+  <si>
+    <t>2.1.2.2</t>
+  </si>
+  <si>
+    <t>Kunstwerk</t>
+  </si>
+  <si>
+    <t>https://otl.prorail.nl/otl/vigerend/Kunstwerk</t>
+  </si>
+  <si>
+    <t>Een Kunstwerk is een bouwconstructie in weg, water of Rail.</t>
+  </si>
+  <si>
+    <t>2.1.2.2.1.</t>
+  </si>
+  <si>
+    <t>https://otl.prorail.nl/otl/vigerend/Tunnel</t>
+  </si>
+  <si>
+    <t>Een Tunnel is een kunstmatig aangelegde, kokervormige gang onder iets door.</t>
+  </si>
+  <si>
+    <t>Additional Content</t>
+  </si>
+  <si>
+    <t>SmartRail short</t>
+  </si>
+  <si>
+    <t>SmartRail  Description</t>
+  </si>
+  <si>
+    <t>SmartRail FQN</t>
+  </si>
+  <si>
+    <t>http://ontology.tno.nl/smart-rail#Node</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A node is a network connection point or a point where the network can be joined (source: RNE glossary). In railway terms this often refers to train stations. Relationships: • A node has an ID, name, Country code and coordinates • Type of nodes are Station, Terminal, Marshalling Yard, Depot and Warehouse </t>
+  </si>
+  <si>
+    <t>Railway line</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://ontology.tno.nl/smart-rail#Line</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A (Railway) Line is one or more adjacent running tracks forming a route between two points (source: RNE glossary). Relationships: • A line has only two nodes. • A line consists of one or more adjacent running tracks • A line may be part of an infrastructure corridor. </t>
+  </si>
+  <si>
+    <t>Resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://ontology.tno.nl/smart-rail#Resource</t>
+  </si>
+  <si>
+    <t>Line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objects that are used in railway, such as, for example, the moveable resources used during transport, i.e., the vehicles and loading units used to move good items to their destination. Or also railway infrastructure elements, such stations, sidings and marshalling yards . Or logistics infrastructure elements like depots, warehouses etc. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://ontology.tno.nl/smart-rail#Track</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A Track is a pair of rails over which rail borne vehicles can run. Relationships: • A track has various parameters relevant for scheduling the train services. </t>
   </si>
 </sst>
 </file>
@@ -2790,10 +2940,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D2DCEE-B461-48E7-AC58-598A4B1932D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -2868,17 +3018,17 @@
         <v>109</v>
       </c>
       <c r="B11">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="C11" s="10">
-        <v>41196</v>
+        <v>44244</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{FC785317-A5BB-4CFC-8AD7-60D33A33610C}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{896C3081-26B3-4030-AC36-969101CD704E}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{A0D1844F-9200-419F-904B-951FE6128156}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
@@ -2886,12 +3036,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E120CC3-8D2E-411D-8281-0E3A5A3E62AD}">
-  <dimension ref="A1:V60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AH72"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L43" sqref="L43"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AI78" sqref="AI78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -2912,13 +3062,18 @@
     <col min="16" max="16" width="53.85546875" customWidth="1"/>
     <col min="17" max="17" width="10.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.140625" customWidth="1"/>
-    <col min="20" max="20" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="63" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="53.85546875" customWidth="1"/>
+    <col min="19" max="20" width="3.140625" customWidth="1"/>
+    <col min="21" max="21" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="63" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="63" customWidth="1"/>
+    <col min="25" max="25" width="53.85546875" customWidth="1"/>
+    <col min="30" max="30" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="48.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>110</v>
       </c>
@@ -2964,17 +3119,44 @@
       <c r="R1" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>58</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>59</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
+        <v>561</v>
+      </c>
+      <c r="X1" t="s">
+        <v>748</v>
+      </c>
+      <c r="Y1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>749</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>751</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>561</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>748</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -3011,9 +3193,9 @@
       <c r="P2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="V2" s="3"/>
-    </row>
-    <row r="3" spans="1:22" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y2" s="3"/>
+    </row>
+    <row r="3" spans="1:34" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E3" s="1"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -3034,9 +3216,9 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="3"/>
-      <c r="V3" s="3"/>
-    </row>
-    <row r="4" spans="1:22" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y3" s="3"/>
+    </row>
+    <row r="4" spans="1:34" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E4" s="1"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -3059,9 +3241,9 @@
       <c r="P4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="V4" s="3"/>
-    </row>
-    <row r="5" spans="1:22" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y4" s="3"/>
+    </row>
+    <row r="5" spans="1:34" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E5" s="1"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -3082,9 +3264,9 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="3"/>
-      <c r="V5" s="3"/>
-    </row>
-    <row r="6" spans="1:22" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y5" s="3"/>
+    </row>
+    <row r="6" spans="1:34" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E6" s="1"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -3105,9 +3287,9 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="3"/>
-      <c r="V6" s="3"/>
-    </row>
-    <row r="7" spans="1:22" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y6" s="3"/>
+    </row>
+    <row r="7" spans="1:34" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E7" s="1"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -3132,9 +3314,9 @@
       <c r="P7" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="V7" s="3"/>
-    </row>
-    <row r="8" spans="1:22" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y7" s="3"/>
+    </row>
+    <row r="8" spans="1:34" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E8" s="1"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -3159,9 +3341,9 @@
       <c r="P8" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="V8" s="3"/>
-    </row>
-    <row r="9" spans="1:22" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y8" s="3"/>
+    </row>
+    <row r="9" spans="1:34" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E9" s="1"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -3184,9 +3366,9 @@
       </c>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
-      <c r="V9" s="3"/>
-    </row>
-    <row r="10" spans="1:22" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y9" s="3"/>
+    </row>
+    <row r="10" spans="1:34" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10" s="1"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -3211,9 +3393,9 @@
       <c r="P10" t="s">
         <v>584</v>
       </c>
-      <c r="V10" s="3"/>
-    </row>
-    <row r="11" spans="1:22" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y10" s="3"/>
+    </row>
+    <row r="11" spans="1:34" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E11" s="1"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -3221,26 +3403,26 @@
         <v>2</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>585</v>
+        <v>727</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="23"/>
       <c r="L11" t="s">
-        <v>586</v>
+        <v>724</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>587</v>
+        <v>725</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>589</v>
+        <v>724</v>
       </c>
       <c r="O11" s="3"/>
       <c r="P11" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" ht="241.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>726</v>
+      </c>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:34" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E12" s="1"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -3248,26 +3430,26 @@
         <v>2</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="23"/>
       <c r="L12" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="O12" s="3"/>
       <c r="P12" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="V12" s="3"/>
-    </row>
-    <row r="13" spans="1:22" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>588</v>
+      </c>
+      <c r="Y12" s="3"/>
+    </row>
+    <row r="13" spans="1:34" ht="241.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E13" s="1"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -3275,25 +3457,26 @@
         <v>2</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>664</v>
-      </c>
-      <c r="J13" s="24"/>
+        <v>593</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="23"/>
       <c r="L13" t="s">
-        <v>665</v>
+        <v>594</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>666</v>
+        <v>595</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>667</v>
+        <v>596</v>
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="V13" s="3"/>
-    </row>
-    <row r="14" spans="1:22" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>597</v>
+      </c>
+      <c r="Y13" s="3"/>
+    </row>
+    <row r="14" spans="1:34" ht="61.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E14" s="1"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -3301,23 +3484,25 @@
         <v>2</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="J14" s="24"/>
       <c r="L14" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="N14" s="3"/>
+        <v>666</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>667</v>
+      </c>
       <c r="O14" s="3"/>
       <c r="P14" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="V14" s="3"/>
-    </row>
-    <row r="15" spans="1:22" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>668</v>
+      </c>
+      <c r="Y14" s="3"/>
+    </row>
+    <row r="15" spans="1:34" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E15" s="1"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -3325,1057 +3510,1355 @@
         <v>2</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>673</v>
-      </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="21" t="s">
-        <v>603</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="J15" s="24"/>
       <c r="L15" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="Y15" s="3"/>
+    </row>
+    <row r="16" spans="1:34" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="1"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="4">
+        <v>2</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="21" t="s">
+        <v>603</v>
+      </c>
+      <c r="L16" t="s">
+        <v>674</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="V15" s="3"/>
-    </row>
-    <row r="16" spans="1:22" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
-        <v>1</v>
-      </c>
-      <c r="B16" s="5">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="1:25" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="1"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="4">
+        <v>2</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="L17" t="s">
+        <v>730</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="Y17" s="3"/>
+    </row>
+    <row r="18" spans="1:25" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>1</v>
+      </c>
+      <c r="B18" s="5">
         <v>1.1000000000000001</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="P16" s="3"/>
-      <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="1:22" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
-        <v>1</v>
-      </c>
-      <c r="B17" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="18"/>
-      <c r="P17" s="3"/>
-      <c r="V17" s="3"/>
-    </row>
-    <row r="18" spans="1:22" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
-        <v>1</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="P18" s="3"/>
+      <c r="Y18" s="3"/>
+    </row>
+    <row r="19" spans="1:25" ht="76.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>1</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="18"/>
+      <c r="P19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="1:25" ht="76.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>1</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="P18" s="3"/>
-      <c r="V18" s="3"/>
-    </row>
-    <row r="19" spans="1:22" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H19" s="4">
+      <c r="P20" s="3"/>
+      <c r="Y20" s="3"/>
+    </row>
+    <row r="21" spans="1:25" ht="409.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="7"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="4">
         <v>2</v>
       </c>
-      <c r="I19" s="5">
-        <v>3</v>
-      </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="23"/>
-      <c r="L19" t="s">
-        <v>45</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="1:22" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H20" s="4">
+      <c r="I21" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="L21" t="s">
+        <v>626</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="Y21" s="3"/>
+    </row>
+    <row r="22" spans="1:25" ht="409.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="7"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="4">
         <v>2</v>
       </c>
-      <c r="I20" s="5">
-        <v>3.1</v>
-      </c>
-      <c r="J20" s="7"/>
-      <c r="K20" s="23"/>
-      <c r="L20" t="s">
-        <v>47</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-    </row>
-    <row r="21" spans="1:22" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q21" s="4">
-        <v>4</v>
-      </c>
-      <c r="R21" s="5">
-        <v>1</v>
-      </c>
-      <c r="S21" s="7"/>
-      <c r="T21" t="s">
-        <v>63</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q22" s="4">
-        <v>4</v>
-      </c>
-      <c r="R22" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="S22" s="7"/>
-      <c r="T22" t="s">
-        <v>66</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I22" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="L22" t="s">
+        <v>737</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="Y22" s="3"/>
+    </row>
+    <row r="23" spans="1:25" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="7"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="4">
         <v>2</v>
       </c>
-      <c r="I23" s="5">
-        <v>3.2</v>
-      </c>
-      <c r="J23" s="7"/>
-      <c r="K23" s="23"/>
+      <c r="I23" s="5" t="s">
+        <v>741</v>
+      </c>
       <c r="L23" t="s">
-        <v>48</v>
+        <v>742</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="Q23" s="4">
-        <v>4</v>
-      </c>
-      <c r="R23" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="S23" s="7"/>
-      <c r="T23" t="s">
-        <v>69</v>
-      </c>
-      <c r="U23" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
-        <v>1</v>
-      </c>
-      <c r="B24" s="5">
-        <v>2</v>
-      </c>
+        <v>743</v>
+      </c>
+      <c r="N23" s="3"/>
+      <c r="P23" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="Y23" s="3"/>
+    </row>
+    <row r="24" spans="1:25" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="7"/>
-      <c r="D24" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>76</v>
-      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="4">
         <v>2</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="J24" s="7"/>
-      <c r="K24" s="23"/>
+        <v>745</v>
+      </c>
       <c r="L24" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
+        <v>746</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="P24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q24" s="4">
-        <v>4</v>
-      </c>
-      <c r="R24" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="S24" s="7"/>
-      <c r="T24" t="s">
-        <v>57</v>
-      </c>
-      <c r="U24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="V24" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="7"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+        <v>747</v>
+      </c>
+      <c r="Y24" s="3"/>
+    </row>
+    <row r="25" spans="1:25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H25" s="4">
         <v>2</v>
       </c>
       <c r="I25" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="23"/>
       <c r="L25" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
-      <c r="P25" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="S25" s="7"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="3"/>
-    </row>
-    <row r="26" spans="1:22" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="7"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+    </row>
+    <row r="26" spans="1:25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H26" s="4">
         <v>2</v>
       </c>
       <c r="I26" s="5">
-        <v>4.0999999999999996</v>
+        <v>3.1</v>
       </c>
       <c r="J26" s="7"/>
       <c r="K26" s="23"/>
       <c r="L26" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
-      <c r="P26" s="3"/>
-      <c r="S26" s="7"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="3"/>
-    </row>
-    <row r="27" spans="1:22" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="7"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="4">
-        <v>2</v>
-      </c>
-      <c r="I27" s="5">
-        <v>4.2</v>
-      </c>
-      <c r="J27" s="7"/>
-      <c r="K27" s="23"/>
-      <c r="L27" t="s">
-        <v>94</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
+    </row>
+    <row r="27" spans="1:25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q27" s="4">
         <v>4</v>
       </c>
-      <c r="R27" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="S27" s="8"/>
-      <c r="T27" t="s">
-        <v>83</v>
-      </c>
-      <c r="U27" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="V27" s="3"/>
-    </row>
-    <row r="28" spans="1:22" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6">
-        <v>1</v>
-      </c>
-      <c r="B28" s="5">
-        <v>3</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" t="s">
-        <v>73</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H28" s="4">
-        <v>2</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="J28" s="7"/>
-      <c r="K28" s="23"/>
-      <c r="L28" t="s">
-        <v>96</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" t="s">
-        <v>98</v>
-      </c>
+      <c r="R27" s="5">
+        <v>1</v>
+      </c>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" t="s">
+        <v>63</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+    </row>
+    <row r="28" spans="1:25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q28" s="4">
         <v>4</v>
       </c>
-      <c r="R28" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="S28" s="8"/>
-      <c r="T28" t="s">
-        <v>87</v>
-      </c>
-      <c r="U28" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" ht="181.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6">
-        <v>1</v>
-      </c>
-      <c r="B29" s="5">
+      <c r="R28" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" t="s">
+        <v>66</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+    </row>
+    <row r="29" spans="1:25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H29" s="4">
+        <v>2</v>
+      </c>
+      <c r="I29" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="J29" s="7"/>
+      <c r="K29" s="23"/>
+      <c r="L29" t="s">
+        <v>48</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="Q29" s="4">
         <v>4</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R29" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" t="s">
+        <v>69</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+    </row>
+    <row r="30" spans="1:25" ht="76.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>1</v>
       </c>
       <c r="B30" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F30" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6">
-        <v>1</v>
-      </c>
-      <c r="B31" s="5">
-        <v>6</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H30" s="4">
+        <v>2</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="J30" s="7"/>
+      <c r="K30" s="23"/>
+      <c r="L30" t="s">
+        <v>51</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>4</v>
+      </c>
+      <c r="R30" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" t="s">
+        <v>57</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C31" s="7"/>
-      <c r="D31" t="s">
-        <v>103</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6">
-        <v>1</v>
-      </c>
-      <c r="B32" s="5">
-        <v>7</v>
-      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="4">
+        <v>2</v>
+      </c>
+      <c r="I31" s="5">
+        <v>4</v>
+      </c>
+      <c r="J31" s="7"/>
+      <c r="K31" s="23"/>
+      <c r="L31" t="s">
+        <v>88</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="3"/>
+    </row>
+    <row r="32" spans="1:25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C32" s="7"/>
-      <c r="D32" t="s">
-        <v>106</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6">
-        <v>1</v>
-      </c>
-      <c r="B33" s="5">
-        <v>8</v>
-      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="4">
+        <v>2</v>
+      </c>
+      <c r="I32" s="5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J32" s="7"/>
+      <c r="K32" s="23"/>
+      <c r="L32" t="s">
+        <v>91</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="3"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="3"/>
+    </row>
+    <row r="33" spans="1:25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C33" s="7"/>
-      <c r="D33" t="s">
-        <v>206</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E33" s="1"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="4">
+        <v>2</v>
+      </c>
+      <c r="I33" s="5">
+        <v>4.2</v>
+      </c>
+      <c r="J33" s="7"/>
+      <c r="K33" s="23"/>
+      <c r="L33" t="s">
+        <v>94</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="Q33" s="4">
+        <v>4</v>
+      </c>
+      <c r="R33" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" t="s">
+        <v>83</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="3"/>
+    </row>
+    <row r="34" spans="1:25" ht="121.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>1</v>
       </c>
       <c r="B34" s="5">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" t="s">
-        <v>213</v>
+        <v>73</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>214</v>
+        <v>74</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H34" s="4">
+        <v>2</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="J34" s="7"/>
+      <c r="K34" s="23"/>
+      <c r="L34" t="s">
+        <v>96</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>4</v>
+      </c>
+      <c r="R34" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" t="s">
+        <v>87</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+    </row>
+    <row r="35" spans="1:25" ht="181.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>1</v>
       </c>
       <c r="B35" s="5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="6">
+        <v>1</v>
+      </c>
+      <c r="B36" s="5">
+        <v>5</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="6">
+        <v>1</v>
+      </c>
+      <c r="B37" s="5">
+        <v>6</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="6">
+        <v>1</v>
+      </c>
+      <c r="B38" s="5">
+        <v>7</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" t="s">
+        <v>106</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="6">
+        <v>1</v>
+      </c>
+      <c r="B39" s="5">
+        <v>8</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" t="s">
+        <v>206</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="6">
+        <v>1</v>
+      </c>
+      <c r="B40" s="5">
+        <v>9</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" t="s">
+        <v>213</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="6">
+        <v>1</v>
+      </c>
+      <c r="B41" s="5">
+        <v>10</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" t="s">
         <v>263</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F41" s="3" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H36" s="4">
-        <v>2</v>
-      </c>
-      <c r="I36" s="5">
-        <v>5</v>
-      </c>
-      <c r="J36" s="20"/>
-      <c r="K36" s="25"/>
-      <c r="L36" t="s">
-        <v>559</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="N36" t="s">
-        <v>562</v>
-      </c>
-      <c r="P36" s="3" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H37" s="4">
-        <v>2</v>
-      </c>
-      <c r="I37" s="5">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="J37" s="20"/>
-      <c r="K37" s="25"/>
-      <c r="L37" t="s">
-        <v>564</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H38" s="4">
-        <v>2</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="J38" s="20"/>
-      <c r="K38" s="25"/>
-      <c r="L38" t="s">
-        <v>567</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H39" s="4">
-        <v>2</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>569</v>
-      </c>
-      <c r="J39" s="20"/>
-      <c r="K39" s="25"/>
-      <c r="L39" t="s">
-        <v>570</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H40" s="4">
-        <v>2</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>572</v>
-      </c>
-      <c r="J40" s="20"/>
-      <c r="K40" s="25"/>
-      <c r="L40" t="s">
-        <v>573</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H41" s="4">
-        <v>2</v>
-      </c>
-      <c r="I41" s="5">
-        <v>6</v>
-      </c>
-      <c r="J41" s="7"/>
-      <c r="K41" s="26" t="s">
-        <v>659</v>
-      </c>
-      <c r="L41" t="s">
-        <v>610</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="O41" s="11" t="s">
-        <v>661</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H42" s="4">
         <v>2</v>
       </c>
       <c r="I42" s="5">
-        <v>6.1</v>
-      </c>
-      <c r="J42" s="7"/>
-      <c r="K42" s="21" t="s">
-        <v>603</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J42" s="20"/>
+      <c r="K42" s="25"/>
       <c r="L42" t="s">
-        <v>605</v>
+        <v>559</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>606</v>
+        <v>560</v>
       </c>
       <c r="N42" t="s">
-        <v>611</v>
-      </c>
-      <c r="O42" t="s">
-        <v>609</v>
+        <v>562</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H43" s="4">
         <v>2</v>
       </c>
       <c r="I43" s="5">
-        <v>6.2</v>
-      </c>
-      <c r="J43" s="7"/>
-      <c r="K43" s="21" t="s">
-        <v>603</v>
-      </c>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J43" s="20"/>
+      <c r="K43" s="25"/>
       <c r="L43" t="s">
-        <v>612</v>
+        <v>564</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="N43" t="s">
-        <v>614</v>
-      </c>
-      <c r="O43" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H44" s="4">
         <v>2</v>
       </c>
-      <c r="I44" s="5">
-        <v>6.3</v>
-      </c>
-      <c r="J44" s="7"/>
-      <c r="K44" s="21" t="s">
-        <v>603</v>
-      </c>
+      <c r="I44" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="J44" s="20"/>
+      <c r="K44" s="25"/>
       <c r="L44" t="s">
-        <v>652</v>
+        <v>567</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="N44" t="s">
-        <v>657</v>
-      </c>
-      <c r="O44" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H45" s="4">
         <v>2</v>
       </c>
-      <c r="I45" s="5">
-        <v>6.4</v>
-      </c>
-      <c r="J45" s="7"/>
-      <c r="K45" s="21" t="s">
-        <v>603</v>
-      </c>
+      <c r="I45" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="J45" s="20"/>
+      <c r="K45" s="25"/>
       <c r="L45" t="s">
-        <v>608</v>
+        <v>570</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="O45" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H46" s="4">
         <v>2</v>
       </c>
-      <c r="I46" s="5">
-        <v>7</v>
-      </c>
-      <c r="J46" s="7"/>
+      <c r="I46" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="J46" s="20"/>
+      <c r="K46" s="25"/>
       <c r="L46" t="s">
-        <v>618</v>
+        <v>573</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="151.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" ht="61.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H47" s="4">
         <v>2</v>
       </c>
       <c r="I47" s="5">
-        <v>7.1</v>
-      </c>
-      <c r="J47" s="8"/>
-      <c r="K47" s="21" t="s">
-        <v>603</v>
+        <v>6</v>
+      </c>
+      <c r="J47" s="7"/>
+      <c r="K47" s="26" t="s">
+        <v>659</v>
       </c>
       <c r="L47" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="O47" t="s">
-        <v>609</v>
+        <v>660</v>
+      </c>
+      <c r="O47" s="11" t="s">
+        <v>661</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" ht="121.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H48" s="4">
         <v>2</v>
       </c>
       <c r="I48" s="5">
-        <v>8</v>
-      </c>
-      <c r="J48" s="8"/>
+        <v>6.1</v>
+      </c>
+      <c r="J48" s="7"/>
       <c r="K48" s="21" t="s">
         <v>603</v>
       </c>
       <c r="L48" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>629</v>
+        <v>606</v>
+      </c>
+      <c r="N48" t="s">
+        <v>611</v>
       </c>
       <c r="O48" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="49" spans="8:16" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P48" s="3" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="49" spans="8:16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H49" s="4">
         <v>2</v>
       </c>
       <c r="I49" s="5">
-        <v>9</v>
-      </c>
-      <c r="J49" s="8"/>
-    </row>
-    <row r="50" spans="8:16" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6.2</v>
+      </c>
+      <c r="J49" s="7"/>
+      <c r="K49" s="21" t="s">
+        <v>603</v>
+      </c>
+      <c r="L49" t="s">
+        <v>612</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="N49" t="s">
+        <v>614</v>
+      </c>
+      <c r="O49" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="50" spans="8:16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H50" s="4">
         <v>2</v>
       </c>
       <c r="I50" s="5">
-        <v>9.1</v>
-      </c>
-      <c r="J50" s="8"/>
-    </row>
-    <row r="51" spans="8:16" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6.3</v>
+      </c>
+      <c r="J50" s="7"/>
+      <c r="K50" s="21" t="s">
+        <v>603</v>
+      </c>
+      <c r="L50" t="s">
+        <v>652</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="N50" t="s">
+        <v>657</v>
+      </c>
+      <c r="O50" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="51" spans="8:16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H51" s="4">
         <v>2</v>
       </c>
       <c r="I51" s="5">
-        <v>10</v>
-      </c>
-      <c r="J51" s="8"/>
-    </row>
-    <row r="52" spans="8:16" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6.4</v>
+      </c>
+      <c r="J51" s="7"/>
+      <c r="K51" s="21" t="s">
+        <v>603</v>
+      </c>
+      <c r="L51" t="s">
+        <v>608</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="O51" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="52" spans="8:16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H52" s="4">
         <v>2</v>
       </c>
       <c r="I52" s="5">
-        <v>10.1</v>
-      </c>
-      <c r="J52" s="8"/>
-    </row>
-    <row r="53" spans="8:16" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="J52" s="7"/>
+      <c r="L52" t="s">
+        <v>618</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="53" spans="8:16" ht="151.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H53" s="4">
         <v>2</v>
       </c>
       <c r="I53" s="5">
-        <v>11</v>
+        <v>7.1</v>
       </c>
       <c r="J53" s="8"/>
+      <c r="K53" s="21" t="s">
+        <v>603</v>
+      </c>
       <c r="L53" t="s">
-        <v>630</v>
+        <v>601</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="N53" t="s">
-        <v>635</v>
+        <v>615</v>
+      </c>
+      <c r="O53" t="s">
+        <v>609</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="54" spans="8:16" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="54" spans="8:16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H54" s="4">
         <v>2</v>
       </c>
       <c r="I54" s="5">
-        <v>11.1</v>
+        <v>8</v>
       </c>
       <c r="J54" s="8"/>
+      <c r="K54" s="21" t="s">
+        <v>603</v>
+      </c>
       <c r="L54" t="s">
-        <v>633</v>
+        <v>616</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="N54" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="55" spans="8:16" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+      <c r="O54" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="55" spans="8:16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H55" s="4">
         <v>2</v>
       </c>
-      <c r="I55" s="5" t="s">
-        <v>637</v>
+      <c r="I55" s="5">
+        <v>9</v>
       </c>
       <c r="J55" s="8"/>
-      <c r="L55" t="s">
-        <v>638</v>
-      </c>
-      <c r="M55" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="P55" s="3" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="56" spans="8:16" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="8:16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H56" s="4">
         <v>2</v>
       </c>
-      <c r="I56" s="5" t="s">
-        <v>641</v>
+      <c r="I56" s="5">
+        <v>9.1</v>
       </c>
       <c r="J56" s="8"/>
-      <c r="L56" t="s">
-        <v>642</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="P56" s="3" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="57" spans="8:16" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="8:16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H57" s="4">
         <v>2</v>
       </c>
-      <c r="I57" s="5" t="s">
-        <v>645</v>
+      <c r="I57" s="5">
+        <v>10</v>
       </c>
       <c r="J57" s="8"/>
-      <c r="K57" s="21" t="s">
-        <v>603</v>
-      </c>
-      <c r="L57" t="s">
-        <v>646</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="O57" t="s">
-        <v>609</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="58" spans="8:16" ht="106.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="8:16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H58" s="4">
         <v>2</v>
       </c>
       <c r="I58" s="5">
-        <v>12</v>
+        <v>10.1</v>
       </c>
       <c r="J58" s="8"/>
-      <c r="K58" s="21" t="s">
-        <v>603</v>
-      </c>
-      <c r="L58" t="s">
-        <v>662</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="O58" t="s">
-        <v>609</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="59" spans="8:16" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="8:16" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H59" s="4">
         <v>2</v>
       </c>
       <c r="I59" s="5">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J59" s="8"/>
-      <c r="K59" s="21" t="s">
-        <v>603</v>
-      </c>
       <c r="L59" t="s">
-        <v>698</v>
+        <v>630</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="O59" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="60" spans="8:16" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>631</v>
+      </c>
+      <c r="N59" t="s">
+        <v>635</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="60" spans="8:16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H60" s="4">
         <v>2</v>
       </c>
       <c r="I60" s="5">
+        <v>11.1</v>
+      </c>
+      <c r="J60" s="8"/>
+      <c r="L60" t="s">
+        <v>633</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="N60" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="61" spans="8:16" ht="61.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H61" s="4">
+        <v>2</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="J61" s="8"/>
+      <c r="L61" t="s">
+        <v>638</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="P61" s="3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="62" spans="8:16" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H62" s="4">
+        <v>2</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="J62" s="8"/>
+      <c r="L62" t="s">
+        <v>642</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="63" spans="8:16" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H63" s="4">
+        <v>2</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="J63" s="8"/>
+      <c r="K63" s="21" t="s">
+        <v>603</v>
+      </c>
+      <c r="L63" t="s">
+        <v>646</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="O63" t="s">
+        <v>609</v>
+      </c>
+      <c r="P63" s="3" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="64" spans="8:16" ht="106.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H64" s="4">
+        <v>2</v>
+      </c>
+      <c r="I64" s="5">
+        <v>12</v>
+      </c>
+      <c r="J64" s="8"/>
+      <c r="K64" s="21" t="s">
+        <v>603</v>
+      </c>
+      <c r="L64" t="s">
+        <v>662</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="O64" t="s">
+        <v>609</v>
+      </c>
+      <c r="P64" s="3" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="65" spans="8:34" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H65" s="4">
+        <v>2</v>
+      </c>
+      <c r="I65" s="5">
+        <v>13</v>
+      </c>
+      <c r="J65" s="8"/>
+      <c r="K65" s="21" t="s">
+        <v>603</v>
+      </c>
+      <c r="L65" t="s">
+        <v>698</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="O65" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="66" spans="8:34" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H66" s="4">
+        <v>2</v>
+      </c>
+      <c r="I66" s="5">
         <v>14</v>
       </c>
-      <c r="J60" s="8"/>
-      <c r="K60" s="21" t="s">
+      <c r="J66" s="8"/>
+      <c r="K66" s="21" t="s">
         <v>603</v>
       </c>
-      <c r="L60" t="s">
+      <c r="L66" t="s">
         <v>680</v>
       </c>
-      <c r="M60" s="1" t="s">
+      <c r="M66" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="O60" t="s">
+      <c r="O66" t="s">
         <v>609</v>
       </c>
-      <c r="P60" s="3" t="s">
+      <c r="P66" s="3" t="s">
         <v>703</v>
       </c>
     </row>
+    <row r="67" spans="8:34" ht="61.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H67" s="4">
+        <v>2</v>
+      </c>
+      <c r="I67" s="5">
+        <v>15</v>
+      </c>
+      <c r="L67" t="s">
+        <v>715</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="N67" t="s">
+        <v>717</v>
+      </c>
+      <c r="P67" s="3" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="68" spans="8:34" ht="76.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H68" s="4">
+        <v>2</v>
+      </c>
+      <c r="I68" s="5">
+        <v>16</v>
+      </c>
+      <c r="L68" t="s">
+        <v>719</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="N68" t="s">
+        <v>723</v>
+      </c>
+      <c r="O68" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="P68" s="3" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="69" spans="8:34" ht="106.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z69">
+        <v>9</v>
+      </c>
+      <c r="AA69">
+        <v>1</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE69" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="AH69" s="3" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="70" spans="8:34" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z70">
+        <v>9</v>
+      </c>
+      <c r="AA70">
+        <v>2</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>759</v>
+      </c>
+      <c r="AE70" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="AF70" t="s">
+        <v>754</v>
+      </c>
+      <c r="AH70" s="3" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="71" spans="8:34" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z71">
+        <v>9</v>
+      </c>
+      <c r="AA71">
+        <v>3</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>757</v>
+      </c>
+      <c r="AE71" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="AH71" s="3" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="72" spans="8:34" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z72">
+        <v>9</v>
+      </c>
+      <c r="AA72">
+        <v>4</v>
+      </c>
+      <c r="AD72" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE72" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="AH72" s="3" t="s">
+        <v>762</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:V30" xr:uid="{EE20DAA4-EC45-4EFF-9516-D96235A65A5E}"/>
+  <autoFilter ref="A1:Y36" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1" xr:uid="{1F59C26E-F9EA-4BE9-B561-175B06EBA607}"/>
-    <hyperlink ref="E2" r:id="rId2" location="SpatialThing" xr:uid="{F96C7524-090A-45B7-9CB5-5A1475CEC436}"/>
-    <hyperlink ref="E16" r:id="rId3" location="OperationalPoint" xr:uid="{4CE80732-09C6-4CEB-BBA6-FF310A10F3E3}"/>
-    <hyperlink ref="E17" r:id="rId4" location="Point" xr:uid="{6997DE04-B7E0-4B0F-87E3-30A6C102F726}"/>
-    <hyperlink ref="E18" r:id="rId5" location="NodePort" xr:uid="{02919468-3077-422F-B959-C262460DEAC3}"/>
-    <hyperlink ref="M3" r:id="rId6" xr:uid="{FF82CC2A-4302-41E5-9ED3-FF1A4B23D085}"/>
-    <hyperlink ref="M19" r:id="rId7" xr:uid="{1C51EC5A-9AB2-488A-BFDF-EB2C0CD011A5}"/>
-    <hyperlink ref="M20" r:id="rId8" xr:uid="{2E0F8021-F54C-44CE-BBF9-C615A2CFF80B}"/>
-    <hyperlink ref="M24" r:id="rId9" xr:uid="{F84D0390-441D-42EC-8417-CBB9DE456298}"/>
-    <hyperlink ref="E24" r:id="rId10" location="MicroLink" xr:uid="{39130364-A576-4945-B276-414119F48245}"/>
-    <hyperlink ref="U24" r:id="rId11" location="TrackNetworkEdge" xr:uid="{0DC83655-AD42-454A-96DE-3317106E5FF9}"/>
-    <hyperlink ref="U22" r:id="rId12" location="NetworkTopologyElement" xr:uid="{BD5A7C37-9EA7-4C46-A586-17B3A440BDA0}"/>
-    <hyperlink ref="U21" r:id="rId13" location="TargetSystem" xr:uid="{70397D28-7716-4E06-B1EC-966731BB2CCD}"/>
-    <hyperlink ref="U23" r:id="rId14" location="NetworkTopologyEdge" xr:uid="{B28A6147-97DA-424B-9149-339E8649AF37}"/>
-    <hyperlink ref="M23" r:id="rId15" xr:uid="{FD7674D6-6E60-4B92-A339-8CEFEF74119F}"/>
-    <hyperlink ref="E28" r:id="rId16" location="MicroNode" xr:uid="{DE360543-0C27-4287-AAE5-D1D59739D318}"/>
-    <hyperlink ref="E29" r:id="rId17" location="InternalNodeLink" xr:uid="{85ED241A-60BC-49BC-91FA-BF859D6639BB}"/>
-    <hyperlink ref="U27" r:id="rId18" location="NetworkTopologyNode" xr:uid="{8AD6C350-FDAD-4D6C-BBE6-5D04A5E7F7E1}"/>
-    <hyperlink ref="U28" r:id="rId19" location="TrackNetworkNode" xr:uid="{5FA36F9A-12B4-4CA3-9FC9-635E7DFC2417}"/>
-    <hyperlink ref="M25" r:id="rId20" xr:uid="{B8CF2CB8-BFC1-4633-96CB-7DEAB0D8E985}"/>
-    <hyperlink ref="M27" r:id="rId21" xr:uid="{91B0121D-9CB7-47B2-87E3-B3F904551427}"/>
-    <hyperlink ref="M28" r:id="rId22" xr:uid="{5B97973B-A47A-489E-AE62-C7B2A37890A6}"/>
-    <hyperlink ref="M26" r:id="rId23" xr:uid="{B500624C-BAF8-4723-AA47-9FE734AF1448}"/>
-    <hyperlink ref="E30" r:id="rId24" location="Track" xr:uid="{A2AEFA43-B4DD-424F-B709-901B8E7FA276}"/>
-    <hyperlink ref="E31" r:id="rId25" location="Tunnel" xr:uid="{1DCC8F60-1112-4A64-B00E-8C7389FAEEC4}"/>
-    <hyperlink ref="E32" r:id="rId26" location="VehicleType" xr:uid="{55883CC0-8A58-4BEB-897D-767534EF6E03}"/>
-    <hyperlink ref="E33" r:id="rId27" location="Manufacturer" xr:uid="{6E3BD5BE-BA1C-437C-9681-69ECF642AA92}"/>
-    <hyperlink ref="E34" r:id="rId28" location="Vehicle" xr:uid="{6EFD90A3-BC66-4320-90DC-CB616CF22FDA}"/>
-    <hyperlink ref="E35" r:id="rId29" location="VehicleKeeper" xr:uid="{8AE09FA6-A852-4EB1-A7A7-CABFA289DE4C}"/>
-    <hyperlink ref="M36" r:id="rId30" xr:uid="{62B4C4A6-C599-443F-B34F-A7672C128626}"/>
-    <hyperlink ref="M37" r:id="rId31" xr:uid="{9987E1C3-62B7-4EF0-8A4E-C8A15D93D5C1}"/>
-    <hyperlink ref="M38" r:id="rId32" xr:uid="{809D26A1-D268-4508-BA82-A457722E260A}"/>
-    <hyperlink ref="M39" r:id="rId33" xr:uid="{1179FFDA-6C40-4491-A9C3-0961700D7EA0}"/>
-    <hyperlink ref="M40" r:id="rId34" xr:uid="{448630DC-A4BA-46F1-A822-70BD700620A9}"/>
-    <hyperlink ref="M8" r:id="rId35" xr:uid="{4027D4A1-88D0-4903-AE99-6DC556E02EDA}"/>
-    <hyperlink ref="M9" r:id="rId36" xr:uid="{77D82B57-0539-4543-8A08-4D7A4D1672D8}"/>
-    <hyperlink ref="M10" r:id="rId37" xr:uid="{5D6D1C49-DED5-4F25-90B7-A4636CCADDDA}"/>
-    <hyperlink ref="M11" r:id="rId38" xr:uid="{61D7DC94-7E6D-4551-966F-C95357CB992D}"/>
-    <hyperlink ref="M12" r:id="rId39" xr:uid="{EC745EC4-DD45-494C-AD6D-F30D7499B1D6}"/>
-    <hyperlink ref="M42" r:id="rId40" xr:uid="{2F8C1D12-423E-46B2-94EC-B79A191B553E}"/>
-    <hyperlink ref="M43" r:id="rId41" xr:uid="{5A5BDC81-5856-4B9C-8FE4-B2A3CB26D428}"/>
-    <hyperlink ref="M47" r:id="rId42" xr:uid="{02836A4D-B0EB-4995-BDC9-55B3517BFB72}"/>
-    <hyperlink ref="M46" r:id="rId43" xr:uid="{CE351421-54E5-45EC-9CE2-E40A4BC3CC88}"/>
-    <hyperlink ref="M48" r:id="rId44" xr:uid="{D73C8BA2-6ABA-43A5-A793-36CD0009B2ED}"/>
-    <hyperlink ref="M53" r:id="rId45" xr:uid="{8185F09C-0C8D-4533-9D79-A00773229513}"/>
-    <hyperlink ref="M54" r:id="rId46" xr:uid="{E9107389-CDEB-4242-B8D3-5C107A356DE9}"/>
-    <hyperlink ref="M55" r:id="rId47" xr:uid="{6A00303B-226C-447C-B0DE-3386367CC1CA}"/>
-    <hyperlink ref="M56" r:id="rId48" xr:uid="{5C2C8586-4473-41B8-83FA-F54A612AB8A2}"/>
-    <hyperlink ref="M57" r:id="rId49" xr:uid="{EAF36DEB-7779-413A-BFC8-C5A87D58CE13}"/>
-    <hyperlink ref="M44" r:id="rId50" xr:uid="{4B567BAE-989F-470C-A394-F9AB0B5AC34D}"/>
-    <hyperlink ref="M41" r:id="rId51" xr:uid="{46329697-4D40-4429-B2EB-CBE0AC389C02}"/>
-    <hyperlink ref="O41" r:id="rId52" location="string" xr:uid="{02378B9B-852B-4687-97F0-0923BB44CC1A}"/>
-    <hyperlink ref="M13" r:id="rId53" xr:uid="{7E4296FD-05CF-491D-A949-A93C713F5352}"/>
-    <hyperlink ref="M14" r:id="rId54" xr:uid="{1C04D7CC-7CD2-405B-891F-B95A56EEABFD}"/>
-    <hyperlink ref="M15" r:id="rId55" xr:uid="{80768659-7E0F-492D-A518-59CEB2F1A1EB}"/>
-    <hyperlink ref="M45" r:id="rId56" xr:uid="{DF0B3B74-24B3-4CB9-9AAF-11DB68EBF34F}"/>
-    <hyperlink ref="M58" r:id="rId57" xr:uid="{E0916ECA-BC60-4B22-BF25-DE5DFF84AC6E}"/>
-    <hyperlink ref="M59" r:id="rId58" xr:uid="{B70A3FC1-2268-435A-91D8-484084422F58}"/>
-    <hyperlink ref="M60" r:id="rId59" xr:uid="{0BB6B8B4-368D-4A16-B49A-3092E3146354}"/>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId2" location="SpatialThing" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="E18" r:id="rId3" location="OperationalPoint" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="E19" r:id="rId4" location="Point" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="E20" r:id="rId5" location="NodePort" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="M3" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="M25" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="M26" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="M30" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="E30" r:id="rId10" location="MicroLink" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="V30" r:id="rId11" location="TrackNetworkEdge" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="V28" r:id="rId12" location="NetworkTopologyElement" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="V27" r:id="rId13" location="TargetSystem" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="V29" r:id="rId14" location="NetworkTopologyEdge" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="M29" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="E34" r:id="rId16" location="MicroNode" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="E35" r:id="rId17" location="InternalNodeLink" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="V33" r:id="rId18" location="NetworkTopologyNode" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="V34" r:id="rId19" location="TrackNetworkNode" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="M31" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="M33" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="M34" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="M32" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="E36" r:id="rId24" location="Track" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="E37" r:id="rId25" location="Tunnel" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="E38" r:id="rId26" location="VehicleType" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="E39" r:id="rId27" location="Manufacturer" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="E40" r:id="rId28" location="Vehicle" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="E41" r:id="rId29" location="VehicleKeeper" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="M42" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="M43" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="M44" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="M45" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="M46" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="M8" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="M9" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="M10" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="M12" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="M13" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="M48" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="M49" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="M53" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="M52" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="M54" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="M59" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="M60" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="M61" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="M62" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="M63" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="M50" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="M47" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="O47" r:id="rId52" location="string" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="M14" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="M15" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="M16" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="M51" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="M64" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="M65" r:id="rId58" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="M66" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="M67" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="M68" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="M11" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
+    <hyperlink ref="M17" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
+    <hyperlink ref="M21" r:id="rId64" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
+    <hyperlink ref="M22" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
+    <hyperlink ref="M23" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
+    <hyperlink ref="M24" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
+    <hyperlink ref="AE69" r:id="rId68" location="Node" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
+    <hyperlink ref="AE70" r:id="rId69" location="Line" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
+    <hyperlink ref="AE71" r:id="rId70" location="Resource" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
+    <hyperlink ref="AE72" r:id="rId71" location="Track" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId60"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId72"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D2D5E2-E708-441D-A422-A32B6ED4C411}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X162"/>
   <sheetViews>
     <sheetView topLeftCell="T1" workbookViewId="0">
@@ -8712,340 +9195,340 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" location="authorizedCountry" xr:uid="{18777FE4-84DD-413B-B715-52B3A03B69B2}"/>
-    <hyperlink ref="J2" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{9C88E2E9-F149-47ED-9587-ED01F8D868D0}"/>
-    <hyperlink ref="G3" r:id="rId2" location="axleBearingConditionMonitoring" xr:uid="{E39936FF-9D6E-4FE8-BF30-54A1E450E29C}"/>
-    <hyperlink ref="J3" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{C242D537-593F-4BEB-BD74-BE9688AC1F7A}"/>
-    <hyperlink ref="J4" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{E973C7F7-7F16-4FF5-A4C7-608A69A24487}"/>
-    <hyperlink ref="G4" r:id="rId3" location="axleSpacing" xr:uid="{7E1B9D96-8F97-45ED-BA86-83F9A3589939}"/>
-    <hyperlink ref="G5" r:id="rId4" location="belongsToNode" xr:uid="{C5CC0FEB-F5D5-4F0A-85C1-2623CD87894D}"/>
-    <hyperlink ref="G6" r:id="rId5" location="brakeWeightPercentage" xr:uid="{9B742BAE-510A-43DE-9453-FFECD54FF8B8}"/>
-    <hyperlink ref="J6" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{1D7783B0-F4C9-4211-B7AB-BEF953874209}"/>
-    <hyperlink ref="G7" r:id="rId6" location="category" xr:uid="{04EFE943-F0E8-49F8-86D3-C8A518F04569}"/>
-    <hyperlink ref="G8" r:id="rId7" location="contactLineSystem" xr:uid="{E7E04B24-663C-4E62-A515-94F3B90A04E9}"/>
-    <hyperlink ref="J8" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{B4261A66-02CA-4D19-8FA3-EE28CD377E1B}"/>
-    <hyperlink ref="G9" r:id="rId8" location="contactStripMaterial" xr:uid="{1A6BCB88-892F-45E0-AD4A-8AFDA5DF046C}"/>
-    <hyperlink ref="J5" location="Concepts!D10" display="http://era.europa.eu/ns#NodePort" xr:uid="{01C513FE-988E-4A24-AD55-D79CC4226149}"/>
-    <hyperlink ref="J7" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{32D3303F-0B2E-4629-8403-FC58E6DDBCBB}"/>
-    <hyperlink ref="J9" location="Properties!A1" display="Properties!A1" xr:uid="{7BD7A197-EDE1-44F5-BBB4-36D4CB51FA89}"/>
-    <hyperlink ref="K5" location="Concepts!D20" display="http://era.europa.eu/ns#MicroNode" xr:uid="{8EF81A28-54AC-46C5-ABFF-B81D031CEB50}"/>
-    <hyperlink ref="G10" r:id="rId9" location="dataGSMRNetwork" xr:uid="{53B63D67-2BA3-4627-8C5B-4BA65DE58DB1}"/>
-    <hyperlink ref="J10" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{57D89877-9258-4C63-9DA3-460B80A36CCB}"/>
-    <hyperlink ref="G11" r:id="rId10" location="dataRadioCompatible" xr:uid="{AC5CF09F-C35F-49B2-B9F0-32C703E25A19}"/>
-    <hyperlink ref="J11" location="Properties!A1" display="Properties!A1" xr:uid="{B3AA82B2-3851-485B-B490-A94891F2232A}"/>
-    <hyperlink ref="G12" r:id="rId11" location="emergencyBrake" xr:uid="{DB3D1886-A32F-4750-876D-E43316DC7035}"/>
-    <hyperlink ref="J12" location="Properties!A1" display="Properties!A1" xr:uid="{65A91BC1-EC72-4272-B9BF-15BC49157FDF}"/>
-    <hyperlink ref="G14" r:id="rId12" location="endLocation" xr:uid="{94EECCA0-5E45-41AE-88FE-1294C194B9BA}"/>
-    <hyperlink ref="J16" r:id="rId13" location="InternalNodeLink" display="http://era.europa.eu/ns#InternalNodeLink" xr:uid="{217B3536-416B-4017-8A35-26C55374AA1C}"/>
-    <hyperlink ref="G16" r:id="rId14" location="endPort" xr:uid="{EF7A9DAB-5169-42E2-B214-09E3213C9AE7}"/>
-    <hyperlink ref="J14" location="Concepts!D23" display="http://era.europa.eu/ns#Tunnel" xr:uid="{5C4E49BB-7B32-4369-991D-DA82F7127779}"/>
-    <hyperlink ref="K16" location="Properties!D10" display="http://era.europa.eu/ns#NodePort" xr:uid="{11F896B1-4969-49D9-8958-9FBAE176EC81}"/>
-    <hyperlink ref="G17" r:id="rId15" location="energySupplySystem" xr:uid="{A1A0EC48-E656-4CBC-A294-58AC6DEA4442}"/>
-    <hyperlink ref="J17" location="Properties!A1" display="Properties!A1" xr:uid="{DF6C62C1-5A7F-415E-B43F-41C486EB9547}"/>
-    <hyperlink ref="G18" r:id="rId16" location="etcsSystemCompatibility" xr:uid="{1C3D4D03-5992-42C7-849A-A0516E9488DC}"/>
-    <hyperlink ref="J18" location="Properties!A1" display="Properties!A1" xr:uid="{FD04845E-9327-4762-91C3-A95BFCE66A92}"/>
-    <hyperlink ref="G19" r:id="rId17" location="fireSafetyCategory" xr:uid="{B9B97A13-0C92-4526-B748-26ED164A28ED}"/>
-    <hyperlink ref="J19" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{C96ECC97-0341-4EB0-BF8C-6F49C6A4E282}"/>
-    <hyperlink ref="G20" r:id="rId18" location="frenchTrainDetectionSystemLimitation" xr:uid="{1520FACE-4EBF-477D-A044-B478D71C260D}"/>
-    <hyperlink ref="J20" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{DCAED967-EAB9-43F8-807C-67A3B22D96BD}"/>
-    <hyperlink ref="G21" r:id="rId19" location="gaugingProfile" xr:uid="{A74339A7-E5D5-4D36-9979-B92C25C0FF3C}"/>
-    <hyperlink ref="J21" location="Properties!A1" display="Properties!A1" xr:uid="{3C5D04A2-21AC-43FE-99A4-E4009D26A94D}"/>
-    <hyperlink ref="G22" r:id="rId20" location="gsmrNetworkCoverage" xr:uid="{EC3D1A34-8A76-45A6-B24A-9486CA7A1FCC}"/>
-    <hyperlink ref="J22" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{DCB2E922-6566-4631-A6F9-31399D110438}"/>
-    <hyperlink ref="G23" r:id="rId21" location="hasAbstraction" xr:uid="{23118A54-32CF-4090-BB60-C31E4D91FDA4}"/>
-    <hyperlink ref="I23" r:id="rId22" location="hasImplementation" xr:uid="{CAC846C8-9047-4EEC-8020-A1F855435FF2}"/>
-    <hyperlink ref="J23" location="Concepts!A1" display="Concepts!A1" xr:uid="{ACA2D97F-7577-4E38-898E-04241758E0DD}"/>
-    <hyperlink ref="K23" location="Concepts!A1" display="Concepts!A1" xr:uid="{5AB384B1-ABDE-4330-80D1-5C01E0BBB2C9}"/>
-    <hyperlink ref="G24" r:id="rId23" location="hasTrack" xr:uid="{781C7F51-B6CC-4CF7-87C3-784B241AFE72}"/>
-    <hyperlink ref="J24" location="Concepts!D23" display="http://era.europa.eu/ns#Tunnel" xr:uid="{7205045D-5077-4BC3-997D-C49999A4847E}"/>
-    <hyperlink ref="K24" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{409D66CF-B50D-4C40-B7CE-ADDFEC6631FB}"/>
-    <hyperlink ref="G25" r:id="rId24" location="inCountry" xr:uid="{AA357289-A7BA-4BC2-807B-11BF3CFEE778}"/>
-    <hyperlink ref="G26" r:id="rId25" location="legacyRadioSystem" xr:uid="{92C6484E-28C3-46E6-9048-6933BDF22057}"/>
-    <hyperlink ref="J26" location="Properties!A1" display="Properties!A1" xr:uid="{F47E7ABB-1BD3-46BC-BAEA-9E60686CF8B9}"/>
-    <hyperlink ref="G27" r:id="rId26" location="lineNationalId" xr:uid="{A7DF7CF3-A13C-4431-99D1-C57DE5A1F215}"/>
-    <hyperlink ref="J27" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{DF7D3A53-0855-40DD-BD07-AEE81F014960}"/>
-    <hyperlink ref="G28" r:id="rId27" location="loadCapability" xr:uid="{4CDC0031-33F0-459A-9D25-0BC80B0CD11C}"/>
-    <hyperlink ref="J28" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{C8D96414-8D0E-41C1-94C4-50ADD6F2CDE2}"/>
-    <hyperlink ref="G13" r:id="rId28" location="location" xr:uid="{5E06B2A4-96D9-484C-97FC-A222F910EC15}"/>
-    <hyperlink ref="K13" r:id="rId29" location="SpatialThing" xr:uid="{A2C3C9E5-79AC-40B9-829F-9F6A225C4938}"/>
-    <hyperlink ref="G29" r:id="rId30" location="manufacturer" xr:uid="{597B2E09-36DD-4812-AB61-F56CE5B66FFF}"/>
-    <hyperlink ref="K29" location="Concepts!D25" display="http://era.europa.eu/ns#Manufacturer" xr:uid="{45086A11-D721-41B8-AB3A-FFB5EC4DC543}"/>
-    <hyperlink ref="J29" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{1BB935A6-CB72-482B-9196-8D410839E3F5}"/>
-    <hyperlink ref="G30" r:id="rId31" location="manufacturingCountry" xr:uid="{6D30B969-81ED-481B-9E36-FC98FB36B160}"/>
-    <hyperlink ref="J30" location="Properties!A1" display="Properties!A1" xr:uid="{F3FA0185-4D06-4E3B-B5C9-7BBD60562F14}"/>
-    <hyperlink ref="G31" r:id="rId32" location="maximumSpeedAndCantDeficiency" xr:uid="{53C1E8EC-DF4F-4907-863C-8B718270D6DB}"/>
-    <hyperlink ref="J31" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{D831B5AB-9D00-43E8-9E06-E12FCA219E78}"/>
-    <hyperlink ref="G32" r:id="rId33" location="opType" xr:uid="{F45F420E-4FEA-4602-B39A-8EC6985649E1}"/>
-    <hyperlink ref="J32" location="Concepts!D8" display="http://era.europa.eu/ns#OperationalPoint" xr:uid="{6575984A-7B93-4D2F-93EA-BA6C864AD207}"/>
-    <hyperlink ref="G33" r:id="rId34" location="operationalRestriction" xr:uid="{CA3ABAEE-4962-4760-A624-F071E609209A}"/>
-    <hyperlink ref="J33" location="Concepts!D26" display="http://era.europa.eu/ns#Vehicle" xr:uid="{E1E898FD-3F19-4FF4-9B60-36F5E24F9C9B}"/>
-    <hyperlink ref="G34" r:id="rId35" location="passesThroughTunnel" xr:uid="{54B4D550-BE0C-4B34-891E-5C1A8D5B2DF4}"/>
-    <hyperlink ref="J34" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{CD3F9544-69CF-4639-B3F0-CD07657E52E3}"/>
-    <hyperlink ref="K34" location="Concepts!D23" display="http://era.europa.eu/ns#Tunnel" xr:uid="{BBED4456-65C0-42D1-96A7-1A4CCE547138}"/>
-    <hyperlink ref="G35" r:id="rId36" location="platformHeight" xr:uid="{ADE8BDDB-6C9C-49A5-B7C3-B613D8DC32D6}"/>
-    <hyperlink ref="J35" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{CC3440B2-5A0D-4E5C-BEEC-7D49BA78D269}"/>
-    <hyperlink ref="G36" r:id="rId37" location="protectionLegacySystem" xr:uid="{D89BF64A-DE07-4E06-8A2A-A9E5DA2D6F61}"/>
-    <hyperlink ref="J36" location="Properties!A1" display="Properties!A1" xr:uid="{471577F5-EE23-408F-A930-AFAF8B14E29B}"/>
-    <hyperlink ref="G37" r:id="rId38" location="quieterRoutesExemptedCountry" xr:uid="{03D90C5C-1864-405F-8176-C11757865051}"/>
-    <hyperlink ref="J37" location="Concepts!D26" display="http://era.europa.eu/ns#Vehicle" xr:uid="{2EE02EED-0B53-43B4-A1D4-8EF417B05941}"/>
-    <hyperlink ref="G38" r:id="rId39" location="railInclination" xr:uid="{FD677A7D-5870-4247-BBC8-3259EA1DD391}"/>
-    <hyperlink ref="J38" location="Properties!A1" display="Properties!A1" xr:uid="{C0181828-4D8F-49C9-8D70-011F00F1BC55}"/>
-    <hyperlink ref="G39" r:id="rId40" location="rollingStockFireCategory" xr:uid="{A22FD671-9EE0-4761-AC16-9DA80A5CE762}"/>
-    <hyperlink ref="J39" location="Concepts!D23" display="http://era.europa.eu/ns#Tunnel" xr:uid="{FE82BC87-1B5D-4026-905A-C6E206A8E2CA}"/>
-    <hyperlink ref="G40" r:id="rId41" location="snowIceHailConditions" xr:uid="{B9F42741-5127-4D08-A61C-44FEC5B4B6D5}"/>
-    <hyperlink ref="J40" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{B0900613-0BD6-47A7-A8FB-068ED88A4948}"/>
-    <hyperlink ref="G15" r:id="rId42" location="startLocation" xr:uid="{0F30EB4B-1091-4AF3-9E69-69C42E395F22}"/>
-    <hyperlink ref="J15" location="Concepts!D23" display="http://era.europa.eu/ns#Tunnel" xr:uid="{3C72D49A-0D21-4F9A-BEB7-8159200F2C5D}"/>
-    <hyperlink ref="G41" r:id="rId43" location="startPort" xr:uid="{6231A977-685D-473E-A4A2-1127B1D39D90}"/>
-    <hyperlink ref="J41" r:id="rId44" location="InternalNodeLink" display="http://era.europa.eu/ns#InternalNodeLink" xr:uid="{42F2395E-6445-45B7-8449-93D7E04DF0AE}"/>
-    <hyperlink ref="K41" location="Properties!D10" display="http://era.europa.eu/ns#NodePort" xr:uid="{7DAE5A5D-36B6-4307-8C84-6720BFBA8E90}"/>
-    <hyperlink ref="G42" r:id="rId45" location="thermalCapacityTSIReference" xr:uid="{7D5A7394-B2A5-4199-A301-F2AF71639BD8}"/>
-    <hyperlink ref="J42" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{99430CE7-DA3B-4EA0-B117-393CC5672E2D}"/>
-    <hyperlink ref="G43" r:id="rId46" location="trainDetectionSystem" xr:uid="{F1136A63-9963-4950-8F2F-2B35944BC31B}"/>
-    <hyperlink ref="J43" location="Properties!A1" display="Properties!A1" xr:uid="{E2EED702-6AE9-4C0A-B95B-1D6F04A7D2CB}"/>
-    <hyperlink ref="G44" r:id="rId47" location="pantographHead" xr:uid="{33F35B96-FA8E-47CC-B3BE-3D3611CC4831}"/>
-    <hyperlink ref="J44" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{3AD27085-E374-4B12-B9AB-19E1CA977F71}"/>
-    <hyperlink ref="G45" r:id="rId48" location="category" xr:uid="{A6F0D1B3-06DE-43A4-B3DE-3CD7427E1132}"/>
-    <hyperlink ref="J45" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{FCD1C81F-4E32-476C-B844-19F7549171BF}"/>
-    <hyperlink ref="G46" r:id="rId49" location="vehicleKeeper" xr:uid="{2B9DEA4D-D97E-49BD-8069-1996111FF6FD}"/>
-    <hyperlink ref="J46" location="Concepts!D26" display="http://era.europa.eu/ns#Vehicle" xr:uid="{9F2A4942-8E91-4B9F-8FD1-FA87DFCAA870}"/>
-    <hyperlink ref="K46" location="Concepts!D27" display="http://era.europa.eu/ns#VehicleKeeper" xr:uid="{7B3AC034-91D3-4E9D-A989-A137C1E1D078}"/>
-    <hyperlink ref="G47" r:id="rId50" location="subCategory" xr:uid="{9AEA8344-DD20-4424-BA90-13BB1427F6DF}"/>
-    <hyperlink ref="J47" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{0F85113D-33DD-4365-B257-333D5777AF89}"/>
-    <hyperlink ref="J48" location="Concepts!D26" display="http://era.europa.eu/ns#Vehicle" xr:uid="{989A53B9-0A7C-48A5-9CB1-C1EAA89E59EC}"/>
-    <hyperlink ref="K48" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{821CDDAA-DD50-4482-B05B-70F22D388C31}"/>
-    <hyperlink ref="G49" r:id="rId51" location="voiceGSMRNetwork" xr:uid="{BB3FB4FE-3EC4-485A-9E11-277A3316F9D0}"/>
-    <hyperlink ref="G48" r:id="rId52" location="vehicleType" xr:uid="{FE56A1C0-A3CC-4564-B50A-08D34E03AB09}"/>
-    <hyperlink ref="J49" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{514496BB-964C-461B-A7FE-CDF1CAEACE78}"/>
-    <hyperlink ref="G50" r:id="rId53" location="voiceRadioCompatible" xr:uid="{CB95A73D-E949-462C-B6ED-71BBF6B48F10}"/>
-    <hyperlink ref="J50" location="Properties!A1" display="Properties!A1" xr:uid="{A4170775-3AF2-4C50-883F-790B6E1E30A4}"/>
-    <hyperlink ref="G51" r:id="rId54" location="wheelSetGaugeChangeoverFacility" xr:uid="{65FA7D60-3AB6-46EC-9CAB-4358308C2271}"/>
-    <hyperlink ref="J51" location="Properties!A1" display="Properties!A1" xr:uid="{3C42CA4C-866D-4E12-B968-EF1364578373}"/>
-    <hyperlink ref="G52" r:id="rId55" location="additionalBrakingInformationDocument" xr:uid="{0875D49A-2530-4436-B847-424B90F600D8}"/>
-    <hyperlink ref="J52" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{60B8392D-B698-4FAD-8D8A-CA5E653C3485}"/>
-    <hyperlink ref="G53" r:id="rId56" location="alternativeName" xr:uid="{D967318A-6775-4F4F-A51A-A58256030304}"/>
-    <hyperlink ref="J53" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{1B19B51A-FE9F-4224-8D26-6E212347708E}"/>
-    <hyperlink ref="G54" r:id="rId57" location="automaticDroppingDeviceRequired" xr:uid="{5D11FF00-9614-495B-A401-34DBE4990DDE}"/>
-    <hyperlink ref="J54" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{6806F2E8-F930-40FC-BC5E-0BE8C1011966}"/>
-    <hyperlink ref="G55" r:id="rId58" location="bidirectional" xr:uid="{AC38A54B-E9D5-4EF9-8A65-748FBF37D094}"/>
-    <hyperlink ref="J55" r:id="rId59" location="InternalNodeLink" display="http://era.europa.eu/ns#InternalNodeLink" xr:uid="{F862B1F4-48B0-41BF-9FBC-EFE16B9A1417}"/>
-    <hyperlink ref="G56" r:id="rId60" location="cantDeficiency" xr:uid="{5AE3177C-248E-4D88-8EA0-C62999191D31}"/>
-    <hyperlink ref="J56" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{04E83939-2FEF-44C1-AB51-31241D9FF320}"/>
-    <hyperlink ref="G57" r:id="rId61" location="compositeBrakeBlockRetrofitted" xr:uid="{E3857570-C975-4832-B5CD-CA8A5D260225}"/>
-    <hyperlink ref="J57" location="Concepts!D26" display="http://era.europa.eu/ns#Vehicle" xr:uid="{2D750154-C590-41E7-871C-D844689B6AF2}"/>
-    <hyperlink ref="G58" r:id="rId62" location="conditionalEddyCurrentBraking" xr:uid="{627E8CF2-A814-438B-93B4-9FE75B2324E5}"/>
-    <hyperlink ref="J58" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{E05AE9E0-0EEF-4AC4-99FA-AD8C6EAA046B}"/>
-    <hyperlink ref="G59" r:id="rId63" location="conditionalEmergencyOnlyEddyCurrentBraking" xr:uid="{239D5321-A27A-4560-A57E-FA75BE4E54E9}"/>
-    <hyperlink ref="J59" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{D08D5E16-8B3B-4C5B-B49A-4543051BAC09}"/>
-    <hyperlink ref="G60" r:id="rId64" location="conditionalEmergencyOnlyMagneticBraking" xr:uid="{C8329959-9F2A-4FBA-B4A8-9227FF1DD93D}"/>
-    <hyperlink ref="J60" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{B3EDE97C-A4CA-4CB1-AB43-449E323F0575}"/>
-    <hyperlink ref="G61" r:id="rId65" location="conditionalMagneticBraking" xr:uid="{EBFA6395-9C24-4024-93C8-4A5E8736D22B}"/>
-    <hyperlink ref="J61" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{17062F94-0473-4D37-B474-CCEDA0AF8167}"/>
-    <hyperlink ref="G62" r:id="rId66" location="conditionalRegenerativeBrake" xr:uid="{BB610087-664A-4C78-808D-1F3EE30D5D5B}"/>
-    <hyperlink ref="J62" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{30B8129C-A786-49E7-9374-1C10780515B9}"/>
-    <hyperlink ref="G63" r:id="rId67" location="currentLimitationRequired" xr:uid="{E23160A5-243B-48D4-AB3B-92D53282DF00}"/>
-    <hyperlink ref="J63" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{64F83288-3722-4A83-93A6-4F82886D9C89}"/>
-    <hyperlink ref="G64" r:id="rId68" location="designMassWorkingOrder" xr:uid="{1DEECDE6-6DE6-43D4-9E63-F9B7DD0B1E6D}"/>
-    <hyperlink ref="J64" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{B42C3928-B5BE-4849-AFCF-DB3CB8916BDD}"/>
-    <hyperlink ref="G65" r:id="rId69" location="designMassExceptionalPayload" xr:uid="{E734F087-EFF4-4A98-ACF9-23AD2042E1ED}"/>
-    <hyperlink ref="J65" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{DAA9B9C3-BA86-40CB-AC27-E3DB1D2C8251}"/>
-    <hyperlink ref="G66" r:id="rId70" location="designMassNormalPayload" xr:uid="{E76EA6C8-4458-47B6-8F12-09BEC6D59558}"/>
-    <hyperlink ref="J66" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{DFCA937F-02C3-47E6-AE13-FE3E7282E122}"/>
-    <hyperlink ref="G67" r:id="rId71" location="trainDetectionSystemSpecificCheck" xr:uid="{424A3972-BE23-40A6-BF62-C942AEE36DF6}"/>
-    <hyperlink ref="J67" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{7C121534-F990-4B12-BA8E-BFE02DA40233}"/>
-    <hyperlink ref="G68" r:id="rId72" location="eddyCurrentBrakePrevention" xr:uid="{204A6557-6A53-4143-85DA-C069B9A35F1A}"/>
-    <hyperlink ref="J68" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{3AB126FB-C38B-4ED6-8091-102506E93F38}"/>
-    <hyperlink ref="G69" r:id="rId73" location="eddyCurrentBraking" xr:uid="{61933DF2-8C81-4B68-8237-EFE4E7D0D92A}"/>
-    <hyperlink ref="J69" location="Properties!A1" display="Properties!A1" xr:uid="{57B850DA-6851-4271-9086-38ACA6A2FDDF}"/>
-    <hyperlink ref="G70" r:id="rId74" location="eddyCurrentBrakingConditionsDocument" xr:uid="{3D938227-7E3D-4C95-881F-4F5AE2F55578}"/>
-    <hyperlink ref="J70" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{F9CFBBE4-687E-4D42-8DB9-46B8B251CDDE}"/>
-    <hyperlink ref="G71" r:id="rId75" location="emergencyOnlyEddyCurrentBraking" xr:uid="{A3412918-FC24-4907-9962-FC0389E38F7C}"/>
-    <hyperlink ref="J71" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{6165DDBE-F04F-4054-8511-67110479C820}"/>
-    <hyperlink ref="G72" r:id="rId76" location="emergencyOnlyMagneticBraking" xr:uid="{2AF92C36-D217-4218-A84D-11FD5D7C6464}"/>
-    <hyperlink ref="J72" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{44807AFD-6882-4AB6-9F7A-E3912F7387DE}"/>
-    <hyperlink ref="G73" r:id="rId77" location="energySupplySystemTSICompliant" xr:uid="{9DBDB9D6-4AA5-49BE-93C6-CCB0EEAD2FA1}"/>
-    <hyperlink ref="J73" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{FC3A238C-3215-48AB-AF25-3A4639B0D58F}"/>
-    <hyperlink ref="G74" r:id="rId78" location="gaugingCheckLocation" xr:uid="{58FB6D9F-772A-4005-8358-2E68AE1DD49A}"/>
-    <hyperlink ref="J74" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{9355A869-4E21-40E1-9005-BF0820AB5DDB}"/>
-    <hyperlink ref="G75" r:id="rId79" location="gaugingTransversalDocument" xr:uid="{D0F5669C-DDC1-4F47-A009-D148D11E6E7F}"/>
-    <hyperlink ref="J75" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{C91F8ADE-D026-43CA-BA21-2D3140576A72}"/>
-    <hyperlink ref="G76" r:id="rId80" location="gradientProfile" xr:uid="{E185391A-12F8-4D0E-969B-E84857910D35}"/>
-    <hyperlink ref="J76" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{62B66765-5438-4736-9B6B-30F6AF7D2E2A}"/>
-    <hyperlink ref="G77" r:id="rId81" location="hasAdditionalBrakingInformation" xr:uid="{CF2692AB-FA09-4562-AD44-944D21418B29}"/>
-    <hyperlink ref="J77" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{F449B04C-5C83-4865-903B-B72ED3D7C47A}"/>
-    <hyperlink ref="G78" r:id="rId82" location="hasAutomaticDroppingDevice" xr:uid="{FA338943-DE3D-4181-B16B-6194B56F8DCE}"/>
-    <hyperlink ref="J78" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{48B6DAD4-249E-4F98-8629-2340A6CACB42}"/>
-    <hyperlink ref="G79" r:id="rId83" location="hasHotAxleBoxDetector" xr:uid="{DD953E7A-5FE8-43DD-AC35-F7A81E6BBC37}"/>
-    <hyperlink ref="J79" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{B0F332F7-C6F8-423A-A9EA-B4C96113B48A}"/>
-    <hyperlink ref="G80" r:id="rId84" location="hasCurrentLimitation" xr:uid="{2F8F18F6-6D44-4BA3-9BC2-8EB596C3B15D}"/>
-    <hyperlink ref="J80" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{967874E3-D353-4CB0-847B-E3E6D770581E}"/>
-    <hyperlink ref="G81" r:id="rId85" location="hasRegenerativeBrake" xr:uid="{59420F7D-6334-44BE-A6B3-C2AE4971D263}"/>
-    <hyperlink ref="J81" location="Properties!A1" display="Properties!A1" xr:uid="{CDD3FA7D-E8D7-4A31-8D2F-B16B6995F857}"/>
-    <hyperlink ref="G82" r:id="rId86" location="hasSevereWeatherConditions" xr:uid="{0D788976-432A-4EFD-9065-3827E5309B36}"/>
-    <hyperlink ref="J82" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{129144CA-66D6-42C8-903E-CD97577FE45D}"/>
-    <hyperlink ref="G83" r:id="rId87" location="hasTrainIntegrityConfirmation" xr:uid="{E728A8E9-A1F7-43C2-B0A3-7F5912BCFE00}"/>
-    <hyperlink ref="J83" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{56A66F84-B09A-4194-9ACB-1E16B22D816A}"/>
-    <hyperlink ref="G84" r:id="rId88" location="highSpeedLoadModelCompliance" xr:uid="{F417AEB0-E7F4-4325-A0CC-CD655495F7E4}"/>
-    <hyperlink ref="J84" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{12DB5A34-6FB3-47ED-822F-6EB8BA252381}"/>
-    <hyperlink ref="J85" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{A0F1607B-7F54-4EA3-8930-EF76203E39A5}"/>
-    <hyperlink ref="G85" r:id="rId89" location="hotAxleBoxDetectorDirection" xr:uid="{F981A753-4620-468E-9EDB-64ED9A1D77C1}"/>
-    <hyperlink ref="G86" r:id="rId90" location="hotAxleBoxDetectorGeneration" xr:uid="{9F791525-112B-4D03-8D48-AD464370441E}"/>
-    <hyperlink ref="J86" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{84EC5E10-36D0-4F17-9DC7-165E74AFB3ED}"/>
-    <hyperlink ref="G87" r:id="rId91" location="hotAxleBoxDetectorIdentification" xr:uid="{70CD0F2F-A65B-45EE-BD11-EA5717813334}"/>
-    <hyperlink ref="J87" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{90E26D1C-2166-483E-A5AF-DCF2A27CABB8}"/>
-    <hyperlink ref="G88" r:id="rId92" location="hotAxleBoxDetectorLocation" xr:uid="{2DCB9C2B-1340-4B74-A5EA-FAAE85A15147}"/>
-    <hyperlink ref="J88" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{91CB49A9-BBAB-4253-BDBC-395E73D21C53}"/>
-    <hyperlink ref="G89" r:id="rId93" location="hotAxleBoxDetectorTSICompliant" xr:uid="{FF800EE6-64FE-4177-BF39-036A70AC6E1D}"/>
-    <hyperlink ref="J89" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{0DB2590F-9344-4FA9-945F-BB8CE4CF8564}"/>
-    <hyperlink ref="G90" r:id="rId94" location="isQuiteRoute" xr:uid="{836103A5-64FB-4AEA-AD2D-0B5A0836E988}"/>
-    <hyperlink ref="J90" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{A7D5D1A3-61AC-4FF0-90B9-46E9723E5A23}"/>
-    <hyperlink ref="G91" r:id="rId95" location="magneticBrakePrevention" xr:uid="{9DE76A09-5841-4097-982A-D41AE56E8897}"/>
-    <hyperlink ref="J91" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{66F69736-1011-41E2-BA30-CD699399BDBC}"/>
-    <hyperlink ref="G92" r:id="rId96" location="magneticBraking" xr:uid="{F3438718-CBEE-4E9A-81FD-FA2D1D06B259}"/>
-    <hyperlink ref="J92" location="Properties!A1" display="Properties!A1" xr:uid="{53C2662E-39B8-469E-B545-317F987765FC}"/>
-    <hyperlink ref="G93" r:id="rId97" location="magneticBrakingConditionsDocument" xr:uid="{78EB3675-AF62-4101-BD37-D731DB1D8525}"/>
-    <hyperlink ref="J93" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{71B403A4-6390-4166-9FE9-98B37889BD4C}"/>
-    <hyperlink ref="G94" r:id="rId98" location="maximumBrakingDistance" xr:uid="{A93A1A6E-9DBA-4B3F-8E72-97653852FEB8}"/>
-    <hyperlink ref="J94" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{F583F7FA-95F0-4B71-9798-30C9484BE719}"/>
-    <hyperlink ref="G95" r:id="rId99" location="maximumContactWireHeight" xr:uid="{68C87522-E8FE-4EAA-B62C-42E4043C715F}"/>
-    <hyperlink ref="J95" location="Properties!A1" display="Properties!A1" xr:uid="{930CCE51-B395-44A2-80A0-E48018C5C167}"/>
-    <hyperlink ref="G96" r:id="rId100" location="maximumDesignSpeed" xr:uid="{0E6A8BC9-AF4D-43DE-A50F-4323AEC92435}"/>
-    <hyperlink ref="J96" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{22135230-9E4C-4FD3-9E94-50D95DBD548B}"/>
-    <hyperlink ref="G97" r:id="rId101" location="maximumDesignSpeed" xr:uid="{17052D61-53DC-4004-9F9D-8F8B8E963DBC}"/>
-    <hyperlink ref="J97" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{C0CB3A19-A88E-4826-AD54-71FDF45C0F04}"/>
-    <hyperlink ref="G98" r:id="rId102" location="maxCurrentStandstillPantograph" xr:uid="{C29C52F6-10B3-467F-8F59-1BF57B3507AD}"/>
-    <hyperlink ref="J98" location="Properties!A1" display="Properties!A1" xr:uid="{0DB1A366-3CE3-442A-BD69-4E82055661DC}"/>
-    <hyperlink ref="G99" r:id="rId103" location="maximumTemperature" xr:uid="{E38E7A1D-2877-4B04-854C-8DE6970B1CE0}"/>
-    <hyperlink ref="J99" location="Properties!A1" display="Properties!A1" xr:uid="{B0029964-80B7-4B89-9137-10DE2783DDCC}"/>
-    <hyperlink ref="G100" r:id="rId104" location="maximumTrainDeceleration" xr:uid="{11FC471B-5DBB-4C79-A36F-D94EB57A10E1}"/>
-    <hyperlink ref="J100" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{C759B5C8-B733-465A-9ACC-106CCE346563}"/>
-    <hyperlink ref="G101" r:id="rId105" location="minimumConcaveVerticalRadius" xr:uid="{C6F4DD8D-9250-4444-B028-AA87F20E1BBA}"/>
-    <hyperlink ref="J101" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{C28E0EC9-88DF-48E4-8CCB-EBE7D168A5D5}"/>
-    <hyperlink ref="G102" r:id="rId106" location="minimumContactWireHeight" xr:uid="{4A8FB627-71E6-4788-BEC1-4A00ACAF8D33}"/>
-    <hyperlink ref="J102" location="Properties!A1" display="Properties!A1" xr:uid="{ACF19CC5-7B1A-490A-B280-A9BB0020FBCF}"/>
-    <hyperlink ref="G103" r:id="rId107" location="minimumConvexVerticalRadius" xr:uid="{8BAE749F-F846-4ACD-BF2F-F904131594D0}"/>
-    <hyperlink ref="J103" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{87F7B84E-356C-4A39-A007-062C8662AF9D}"/>
-    <hyperlink ref="G104" r:id="rId108" location="minimumHorizontalRadius" xr:uid="{068703F9-D5FF-4A77-B6F9-58554334E67E}"/>
-    <hyperlink ref="J104" location="Properties!A1" display="Properties!A1" xr:uid="{A23C4AEE-0812-42E2-9EA4-0000A18C10C4}"/>
-    <hyperlink ref="G105" r:id="rId109" location="minimumTemperature" xr:uid="{5110B412-C195-43DD-895D-56C3C2214D7E}"/>
-    <hyperlink ref="J105" location="Properties!A1" display="Properties!A1" xr:uid="{A4A5F935-561E-4C78-A6BD-726A2F8E5968}"/>
-    <hyperlink ref="G106" r:id="rId110" location="minimumVerticalRadius" xr:uid="{97A8FAE9-6649-4BB3-966F-3DE643649086}"/>
-    <hyperlink ref="J106" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{DEAC5FC9-22EF-4602-92BA-AC7C361559E1}"/>
-    <hyperlink ref="G107" r:id="rId111" location="minimumWheelDiameter" xr:uid="{A81C96A0-7374-45C5-A676-B7BDD5560C92}"/>
-    <hyperlink ref="J107" location="Properties!A1" display="Properties!A1" xr:uid="{5C8EE965-C3B8-488A-87FC-BB9CA58B305F}"/>
-    <hyperlink ref="G108" r:id="rId112" location="nationalLoadCapability" xr:uid="{6B85B80B-4DFA-459D-ABB5-E765EB6FC826}"/>
-    <hyperlink ref="J108" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{1AF02592-BD61-4AD1-B9C4-6F9A47A3EB91}"/>
-    <hyperlink ref="G109" r:id="rId113" location="nationalRollingStockFireCategory" xr:uid="{0CED86EF-572E-45D5-8E74-31CE3D022FCB}"/>
-    <hyperlink ref="J109" location="Concepts!D23" display="http://era.europa.eu/ns#Tunnel" xr:uid="{DC8BBCB2-A3C2-4361-892A-A7E0DB2413CB}"/>
-    <hyperlink ref="G110" r:id="rId114" location="numberOfPantographsInContactWithOCL" xr:uid="{DE9DD95A-DF06-4F02-832D-96071107B14E}"/>
-    <hyperlink ref="J110" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{1CDAC72E-722C-4B1C-A9A1-2A7873BCF16D}"/>
-    <hyperlink ref="G111" r:id="rId115" location="oclType" xr:uid="{FA1FA9AA-7084-4960-8F16-49C772AAF4AC}"/>
-    <hyperlink ref="J111" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{E6D84A99-DB70-4B83-A9EF-C7263AA26AC4}"/>
-    <hyperlink ref="G112" r:id="rId116" location="parkingBrakeMaximumGradient" xr:uid="{8E515518-062A-43FD-8B8B-F94529BA6F94}"/>
-    <hyperlink ref="J112" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{D3C022D7-DD8B-4AC4-B2A8-422EAE73A288}"/>
-    <hyperlink ref="G113" r:id="rId117" location="permissiblePayload" xr:uid="{2C06A47A-3EFC-4955-9DDF-44E990FBA459}"/>
-    <hyperlink ref="J113" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{6FF90356-E5A0-4F48-B20E-C6FD6E9DB78A}"/>
-    <hyperlink ref="G114" r:id="rId118" location="permittedContactForce" xr:uid="{E2B43718-CFB8-498F-A5A5-2DEFDD7E030D}"/>
-    <hyperlink ref="J114" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{C7833590-AF2C-4A40-94BD-5462F9ED2290}"/>
-    <hyperlink ref="G115" r:id="rId119" location="preventRegenerativeBrakeUse" xr:uid="{19D8AB13-A80A-4711-ABAC-7D8984CAF7BA}"/>
-    <hyperlink ref="J115" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{0E0037CC-60EF-4385-9542-1333C85C8CD7}"/>
-    <hyperlink ref="G116" r:id="rId120" location="raisedPantographsDistanceAndSpeed" xr:uid="{65F11373-C5A8-4E74-94FF-872516F9514C}"/>
-    <hyperlink ref="J116" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{2D3EADBF-DB39-4A6C-976C-4AE14ECACFB3}"/>
-    <hyperlink ref="G117" r:id="rId121" location="shortestDistanceBetweenPantographsInContactWithOCL" xr:uid="{F7A0E211-1C39-4FCF-A682-1638FD6C890C}"/>
-    <hyperlink ref="J117" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{980A9F2F-7CF1-42FB-A329-8A48428F8A61}"/>
-    <hyperlink ref="G118" r:id="rId122" location="staticAxleLoadWorkingOrder" xr:uid="{3473B32E-B0D6-42C5-AA6A-4A22857E27A9}"/>
-    <hyperlink ref="J118" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{4964CB6D-73A2-4BC0-89E9-EA78CCB76CF9}"/>
-    <hyperlink ref="G119" r:id="rId123" location="staticAxleLoadExceptionalPayload" xr:uid="{4EF55660-DD95-49D1-8E2E-2B07BA550882}"/>
-    <hyperlink ref="J119" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{4FA6D9BF-6582-46AB-B652-D8CDB9561898}"/>
-    <hyperlink ref="G120" r:id="rId124" location="staticAxleLoadNormalPayload" xr:uid="{454E2F7F-0653-420F-BF0B-47EBF508F34D}"/>
-    <hyperlink ref="J120" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{567B3578-D2EF-4446-B262-20F7FA6EDE07}"/>
-    <hyperlink ref="G121" r:id="rId125" location="compatibilityProcedureDocument" xr:uid="{EDCE258F-665D-4170-9CDA-9040FA844B95}"/>
-    <hyperlink ref="J121" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{129817E4-0AC9-4926-B7FA-C3BE6B78B85F}"/>
-    <hyperlink ref="G122" r:id="rId126" location="structureCheckLocation" xr:uid="{7D610E35-BE62-419A-BDB5-48F559EC666F}"/>
-    <hyperlink ref="J122" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{DF391F53-4A88-47AB-98CA-18C64B114F13}"/>
-    <hyperlink ref="G123" r:id="rId127" location="tafTAPCode" xr:uid="{5AC615F2-8135-4159-8296-18CAA0C79F5B}"/>
-    <hyperlink ref="J123" location="Concepts!D8" display="http://era.europa.eu/ns#OperationalPoint" xr:uid="{72251ACD-18F6-4633-B602-2D27DE7A1F64}"/>
-    <hyperlink ref="G124" r:id="rId128" location="thermalCapacityDistance" xr:uid="{427EC3C9-037F-4257-A8B2-3982F08B6741}"/>
-    <hyperlink ref="J124" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{2CAE8E37-5E85-4CF5-832C-CC4EBF90B7BC}"/>
-    <hyperlink ref="G125" r:id="rId129" location="thermalCapacityGradient" xr:uid="{1AFDCFD7-ADC9-46BF-836A-38F961848C04}"/>
-    <hyperlink ref="J125" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{CFD7ACDB-046C-43E3-A1A3-5B1BFC1D481F}"/>
-    <hyperlink ref="G126" r:id="rId130" location="thermalCapacitySpeed" xr:uid="{E338DA95-E6B6-4BF8-8301-ACD407F0C210}"/>
-    <hyperlink ref="J126" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{1C353D27-C18A-4FEB-86E5-DB9F7F892193}"/>
-    <hyperlink ref="G127" r:id="rId131" location="thermalCapacityTime" xr:uid="{9793FA45-E921-454B-8710-7E39411AAA2A}"/>
-    <hyperlink ref="J127" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{0F691335-DC7E-49A9-B634-8B6BEE7907DE}"/>
-    <hyperlink ref="G128" r:id="rId132" location="trackLength" xr:uid="{739BCB9B-079A-4BF2-9ED0-903245F0307B}"/>
-    <hyperlink ref="J128" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{406A791F-E6C7-4097-B49C-8887C68CC8FE}"/>
-    <hyperlink ref="G129" r:id="rId133" location="trainIntegrityOnBoardRequired" xr:uid="{33889088-8DB3-43CA-991F-794CF2D5D132}"/>
-    <hyperlink ref="J129" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{5929287E-9914-4F64-95C9-30C42ADF9168}"/>
-    <hyperlink ref="G130" r:id="rId134" location="tsiCompliant" xr:uid="{AEA6F97B-6FB5-4021-B8EA-A90FC0643C99}"/>
-    <hyperlink ref="G131" r:id="rId135" location="tunnelLength" xr:uid="{1E78E785-BCB3-4599-A7C8-C6F2BD30B07A}"/>
-    <hyperlink ref="J131" location="Concepts!D23" display="http://era.europa.eu/ns#Tunnel" xr:uid="{8BEE32D4-29AF-4E90-9A7C-3D03785D2FB7}"/>
-    <hyperlink ref="G132" r:id="rId136" location="typeVersionNumber" xr:uid="{3892DDC6-3D39-4492-9855-2D77BC78EACB}"/>
-    <hyperlink ref="J132" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{03A4DB3F-F83F-41BB-8D8C-C02E0672F08E}"/>
-    <hyperlink ref="G133" r:id="rId137" location="umax2" xr:uid="{49AFCC94-2722-48F3-B19C-FAF278C1B75D}"/>
-    <hyperlink ref="J133" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{A3FB4D00-F0B9-4D3B-992B-144BD2853437}"/>
-    <hyperlink ref="G134" r:id="rId138" location="uopid" xr:uid="{79B656C4-324F-453C-AF71-06B607D29E34}"/>
-    <hyperlink ref="J134" location="Concepts!D8" display="http://era.europa.eu/ns#OperationalPoint" xr:uid="{7DAE73FC-106E-4E3A-9665-89DE03E30106}"/>
-    <hyperlink ref="G135" r:id="rId139" location="usesGroup555" xr:uid="{80568BBF-FA13-43FE-989B-C573B9DB0DB6}"/>
-    <hyperlink ref="J135" location="Properties!A1" display="Properties!A1" xr:uid="{6DEDC871-75F4-4F2B-BB5F-B53E2DDEB002}"/>
-    <hyperlink ref="G136" r:id="rId140" location="vehicleContactForce" xr:uid="{CAB7F822-657C-455E-A630-FF5485EDA157}"/>
-    <hyperlink ref="J136" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{98B03AAF-5BF1-436F-A55E-7CAB0FC3C821}"/>
-    <hyperlink ref="G137" r:id="rId141" location="vehicleLength" xr:uid="{4666BEC0-5F92-4CF7-870D-FFEAC936F6EC}"/>
-    <hyperlink ref="J137" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{C0B251F5-0C5B-4DD4-9A55-F69511AB31F1}"/>
-    <hyperlink ref="G138" r:id="rId142" location="vehicleNumber" xr:uid="{28A3F56C-E224-4245-97B2-77C338FB3B5C}"/>
-    <hyperlink ref="J138" location="Concepts!D26" display="http://era.europa.eu/ns#Vehicle" xr:uid="{D73A073D-5727-49B5-8EA6-B8B497C9AE43}"/>
-    <hyperlink ref="G139" r:id="rId143" location="vehiclePantographHead" xr:uid="{BD5E34E3-D1AB-40B1-B833-27131872DD9D}"/>
-    <hyperlink ref="J139" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{B6D6F908-22DD-4091-B079-855A949EAA8F}"/>
-    <hyperlink ref="G140" r:id="rId144" location="vehicleSeries" xr:uid="{B2D09855-C64D-4722-9A41-574AE0966EEF}"/>
-    <hyperlink ref="J140" location="Concepts!D26" display="http://era.europa.eu/ns#Vehicle" xr:uid="{0A266676-6A5B-4EF6-96E0-0E844BDF874D}"/>
-    <hyperlink ref="G141" r:id="rId145" location="wheelSetGauge" xr:uid="{B70D62D1-D283-4CA7-89B8-766586E887D2}"/>
-    <hyperlink ref="J141" location="Properties!A1" display="Properties!A1" xr:uid="{46509E19-7C93-4D1D-BD41-98833F319E7B}"/>
-    <hyperlink ref="S142" r:id="rId146" xr:uid="{4A636EF5-5619-44C4-B74C-93C44832199B}"/>
-    <hyperlink ref="S143" r:id="rId147" xr:uid="{93680DFC-5F97-461C-B252-F9D39D7B1CD0}"/>
-    <hyperlink ref="W143" location="Concepts!L42" display="ERTMS-Baseline" xr:uid="{ADC456E6-5BCF-4521-922F-219183CB95F1}"/>
-    <hyperlink ref="S144" r:id="rId148" xr:uid="{D127996F-FE2B-4E17-A061-FD291A837D79}"/>
-    <hyperlink ref="W144" location="Concepts!L43" display="ERTMS-Baseline-Versie" xr:uid="{8A3F1D3A-306A-47E4-AF78-C78BCECE973D}"/>
-    <hyperlink ref="S145" r:id="rId149" xr:uid="{A2B19641-8872-4116-95EC-C9C189B8E2E9}"/>
-    <hyperlink ref="S146" r:id="rId150" xr:uid="{D2F7DD9D-2F41-439F-8029-0AC594CE8A0B}"/>
-    <hyperlink ref="S147" r:id="rId151" xr:uid="{C41A3B21-C94F-4070-BC3B-B46152666421}"/>
-    <hyperlink ref="S148" r:id="rId152" xr:uid="{913FCD61-5B7F-4457-ADFE-FF115F38E2BD}"/>
-    <hyperlink ref="S149" r:id="rId153" xr:uid="{BD9016EE-2BD0-43D4-8DA5-0F87002260FD}"/>
-    <hyperlink ref="S150" r:id="rId154" xr:uid="{25F320B8-B850-428B-ACE6-E0C5B8DF1C28}"/>
-    <hyperlink ref="V150" location="Concepts!L52" display="ERTMS-Gebied" xr:uid="{EAD7CB5D-94BA-4737-9875-033FAD275585}"/>
-    <hyperlink ref="S151" r:id="rId155" xr:uid="{F55A6DC4-2A49-46B7-B4D3-F5250D440830}"/>
-    <hyperlink ref="V151" location="Concepts!L52" display="ERTMS-Gebied" xr:uid="{ECA05133-F87C-4EAF-B96C-652A2DF30779}"/>
-    <hyperlink ref="S152" r:id="rId156" xr:uid="{200030AB-DD11-446F-BE00-BE523E963FFB}"/>
-    <hyperlink ref="W152" location="Concepts!L41" display="ERTMS-Level" xr:uid="{B71ACBED-C10B-4E05-B8CB-2CF853664C6E}"/>
-    <hyperlink ref="W150" location="Concepts!L41" display="ERTMS-Level" xr:uid="{1D228212-CF76-494D-8CE4-6180310A74D4}"/>
-    <hyperlink ref="V152" location="Concepts!A1" display="Concepts!A1" xr:uid="{4E29D305-EB0B-485F-BF69-599E78C86122}"/>
-    <hyperlink ref="V147" location="Concepts!L42" display="Referentiepunt-Op-Spoortak-Met-Richting" xr:uid="{6D80F979-CBD9-40D1-AE80-C36FC81F876C}"/>
-    <hyperlink ref="V148" location="Concepts!L42" display="Referentiepunt-Op-Spoortak-Met-Richting" xr:uid="{F831403D-4E94-4D7E-8E7F-AB1AD04C7A4F}"/>
-    <hyperlink ref="V149" location="Concepts!L42" display="Referentiepunt-Op-Spoortak-Met-Richting" xr:uid="{EFC1D0E6-E05A-416C-9E12-66EBF29CCE96}"/>
-    <hyperlink ref="S153" r:id="rId157" xr:uid="{7CF0C0DC-BC34-44E8-A29E-C0AF870B75C9}"/>
-    <hyperlink ref="S154" r:id="rId158" xr:uid="{9A50AE53-2DEC-49D9-8455-DA5500720899}"/>
-    <hyperlink ref="S155" r:id="rId159" xr:uid="{064B64C5-2973-43C5-8E0C-491FA2C35D2F}"/>
-    <hyperlink ref="S156" r:id="rId160" xr:uid="{C94C68C7-9BCF-4D63-9668-6F06F70FFE4D}"/>
-    <hyperlink ref="S157" r:id="rId161" xr:uid="{57671606-51C0-4D3C-804B-84966DEC2BF2}"/>
-    <hyperlink ref="W157" location="Concepts!L41" display="ERTMS-Level" xr:uid="{7F8F9CEA-7FEA-4321-A5A7-5CAC876D563D}"/>
-    <hyperlink ref="V143" location="Concepts!L45" display="ERTMS-Versie" xr:uid="{17A7B507-D6E7-4A78-BFDE-2266EDEFC9A9}"/>
-    <hyperlink ref="V144" location="Concepts!L45" display="ERTMS-Versie" xr:uid="{9CBB229D-423E-463C-BD7F-8A3AB9A0B344}"/>
-    <hyperlink ref="W151" location="Concepts!L45" display="ERTMS-Versie" xr:uid="{B122FA10-3EB4-4A46-9AC5-2EB5740037AE}"/>
-    <hyperlink ref="V155" location="Concepts!L45" display="ERTMS-Versie" xr:uid="{004B553A-FB20-4C48-AFCF-7D10D7114F73}"/>
-    <hyperlink ref="V146" location="Concepts!L47" display="ERTMS-Dangerpoint" xr:uid="{9B758FC1-73CC-4C8C-9E0C-C98D8E759D1B}"/>
-    <hyperlink ref="V142" location="Concepts!L47" display="ERTMS-Dangerpoint" xr:uid="{27B9794C-5D03-4E5F-BEC0-E5A67AE00A50}"/>
-    <hyperlink ref="W145" location="Concepts!L47" display="ERTMS-Dangerpoint" xr:uid="{647503C0-9E63-4D1F-89E9-3617BE5EB24F}"/>
-    <hyperlink ref="S158" r:id="rId162" xr:uid="{365A3C02-F84F-4182-85CE-B40141117C1D}"/>
-    <hyperlink ref="V154" location="Concepts!L60" display="ERTMS-Overlap" xr:uid="{96D6B860-A8CA-48DC-984A-BE223F46FB75}"/>
-    <hyperlink ref="V153" location="Concepts!L60" display="ERTMS-Overlap" xr:uid="{93810278-4B13-462B-8CC1-C096788958CF}"/>
-    <hyperlink ref="V156" location="Concepts!L60" display="ERTMS-Overlap" xr:uid="{E8F9A2E6-6AFD-4741-BB19-D927670DB64F}"/>
-    <hyperlink ref="S159" r:id="rId163" xr:uid="{F37CA5DA-3334-4A5B-A7CC-0E50682CD86A}"/>
-    <hyperlink ref="V159" location="Concepts!L60" display="ERTMS-Overlap" xr:uid="{3A2CEECC-4BF7-464E-9BCB-904552932E18}"/>
-    <hyperlink ref="S160" r:id="rId164" xr:uid="{EE8A8FAC-FF8C-4916-B49C-28E0871BB618}"/>
-    <hyperlink ref="V160" location="Concepts!L60" display="ERTMS-Overlap" xr:uid="{05AB9E75-97DF-4C90-B4EF-6B5586EDF4AF}"/>
-    <hyperlink ref="S161" r:id="rId165" xr:uid="{703E1974-7E07-4AAB-B876-4400C750A696}"/>
-    <hyperlink ref="V161" location="Concepts!L60" display="ERTMS-Overlap" xr:uid="{188A8B46-C41A-4202-B50A-8298BCAA8F70}"/>
-    <hyperlink ref="S162" r:id="rId166" xr:uid="{ED383D73-DDED-4A33-B12E-F536B8A8E6D2}"/>
-    <hyperlink ref="V162" location="Concepts!L60" display="ERTMS-Overlap" xr:uid="{1DB77298-6D13-48C6-A961-BBD1B3A2BECE}"/>
+    <hyperlink ref="G2" r:id="rId1" location="authorizedCountry" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="J2" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="G3" r:id="rId2" location="axleBearingConditionMonitoring" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="J3" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="J4" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="G4" r:id="rId3" location="axleSpacing" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="G5" r:id="rId4" location="belongsToNode" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="G6" r:id="rId5" location="brakeWeightPercentage" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="J6" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="G7" r:id="rId6" location="category" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="G8" r:id="rId7" location="contactLineSystem" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="J8" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="G9" r:id="rId8" location="contactStripMaterial" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="J5" location="Concepts!D10" display="http://era.europa.eu/ns#NodePort" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="J7" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="J9" location="Properties!A1" display="Properties!A1" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="K5" location="Concepts!D20" display="http://era.europa.eu/ns#MicroNode" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="G10" r:id="rId9" location="dataGSMRNetwork" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="J10" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="G11" r:id="rId10" location="dataRadioCompatible" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="J11" location="Properties!A1" display="Properties!A1" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink ref="G12" r:id="rId11" location="emergencyBrake" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
+    <hyperlink ref="J12" location="Properties!A1" display="Properties!A1" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
+    <hyperlink ref="G14" r:id="rId12" location="endLocation" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
+    <hyperlink ref="J16" r:id="rId13" location="InternalNodeLink" display="http://era.europa.eu/ns#InternalNodeLink" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
+    <hyperlink ref="G16" r:id="rId14" location="endPort" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
+    <hyperlink ref="J14" location="Concepts!D23" display="http://era.europa.eu/ns#Tunnel" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
+    <hyperlink ref="K16" location="Properties!D10" display="http://era.europa.eu/ns#NodePort" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
+    <hyperlink ref="G17" r:id="rId15" location="energySupplySystem" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
+    <hyperlink ref="J17" location="Properties!A1" display="Properties!A1" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
+    <hyperlink ref="G18" r:id="rId16" location="etcsSystemCompatibility" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
+    <hyperlink ref="J18" location="Properties!A1" display="Properties!A1" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
+    <hyperlink ref="G19" r:id="rId17" location="fireSafetyCategory" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
+    <hyperlink ref="J19" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
+    <hyperlink ref="G20" r:id="rId18" location="frenchTrainDetectionSystemLimitation" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
+    <hyperlink ref="J20" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
+    <hyperlink ref="G21" r:id="rId19" location="gaugingProfile" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
+    <hyperlink ref="J21" location="Properties!A1" display="Properties!A1" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
+    <hyperlink ref="G22" r:id="rId20" location="gsmrNetworkCoverage" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
+    <hyperlink ref="J22" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
+    <hyperlink ref="G23" r:id="rId21" location="hasAbstraction" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
+    <hyperlink ref="I23" r:id="rId22" location="hasImplementation" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
+    <hyperlink ref="J23" location="Concepts!A1" display="Concepts!A1" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
+    <hyperlink ref="K23" location="Concepts!A1" display="Concepts!A1" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
+    <hyperlink ref="G24" r:id="rId23" location="hasTrack" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
+    <hyperlink ref="J24" location="Concepts!D23" display="http://era.europa.eu/ns#Tunnel" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
+    <hyperlink ref="K24" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
+    <hyperlink ref="G25" r:id="rId24" location="inCountry" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
+    <hyperlink ref="G26" r:id="rId25" location="legacyRadioSystem" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
+    <hyperlink ref="J26" location="Properties!A1" display="Properties!A1" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
+    <hyperlink ref="G27" r:id="rId26" location="lineNationalId" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
+    <hyperlink ref="J27" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{00000000-0004-0000-0200-000033000000}"/>
+    <hyperlink ref="G28" r:id="rId27" location="loadCapability" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
+    <hyperlink ref="J28" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
+    <hyperlink ref="G13" r:id="rId28" location="location" xr:uid="{00000000-0004-0000-0200-000036000000}"/>
+    <hyperlink ref="K13" r:id="rId29" location="SpatialThing" xr:uid="{00000000-0004-0000-0200-000037000000}"/>
+    <hyperlink ref="G29" r:id="rId30" location="manufacturer" xr:uid="{00000000-0004-0000-0200-000038000000}"/>
+    <hyperlink ref="K29" location="Concepts!D25" display="http://era.europa.eu/ns#Manufacturer" xr:uid="{00000000-0004-0000-0200-000039000000}"/>
+    <hyperlink ref="J29" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
+    <hyperlink ref="G30" r:id="rId31" location="manufacturingCountry" xr:uid="{00000000-0004-0000-0200-00003B000000}"/>
+    <hyperlink ref="J30" location="Properties!A1" display="Properties!A1" xr:uid="{00000000-0004-0000-0200-00003C000000}"/>
+    <hyperlink ref="G31" r:id="rId32" location="maximumSpeedAndCantDeficiency" xr:uid="{00000000-0004-0000-0200-00003D000000}"/>
+    <hyperlink ref="J31" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{00000000-0004-0000-0200-00003E000000}"/>
+    <hyperlink ref="G32" r:id="rId33" location="opType" xr:uid="{00000000-0004-0000-0200-00003F000000}"/>
+    <hyperlink ref="J32" location="Concepts!D8" display="http://era.europa.eu/ns#OperationalPoint" xr:uid="{00000000-0004-0000-0200-000040000000}"/>
+    <hyperlink ref="G33" r:id="rId34" location="operationalRestriction" xr:uid="{00000000-0004-0000-0200-000041000000}"/>
+    <hyperlink ref="J33" location="Concepts!D26" display="http://era.europa.eu/ns#Vehicle" xr:uid="{00000000-0004-0000-0200-000042000000}"/>
+    <hyperlink ref="G34" r:id="rId35" location="passesThroughTunnel" xr:uid="{00000000-0004-0000-0200-000043000000}"/>
+    <hyperlink ref="J34" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{00000000-0004-0000-0200-000044000000}"/>
+    <hyperlink ref="K34" location="Concepts!D23" display="http://era.europa.eu/ns#Tunnel" xr:uid="{00000000-0004-0000-0200-000045000000}"/>
+    <hyperlink ref="G35" r:id="rId36" location="platformHeight" xr:uid="{00000000-0004-0000-0200-000046000000}"/>
+    <hyperlink ref="J35" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{00000000-0004-0000-0200-000047000000}"/>
+    <hyperlink ref="G36" r:id="rId37" location="protectionLegacySystem" xr:uid="{00000000-0004-0000-0200-000048000000}"/>
+    <hyperlink ref="J36" location="Properties!A1" display="Properties!A1" xr:uid="{00000000-0004-0000-0200-000049000000}"/>
+    <hyperlink ref="G37" r:id="rId38" location="quieterRoutesExemptedCountry" xr:uid="{00000000-0004-0000-0200-00004A000000}"/>
+    <hyperlink ref="J37" location="Concepts!D26" display="http://era.europa.eu/ns#Vehicle" xr:uid="{00000000-0004-0000-0200-00004B000000}"/>
+    <hyperlink ref="G38" r:id="rId39" location="railInclination" xr:uid="{00000000-0004-0000-0200-00004C000000}"/>
+    <hyperlink ref="J38" location="Properties!A1" display="Properties!A1" xr:uid="{00000000-0004-0000-0200-00004D000000}"/>
+    <hyperlink ref="G39" r:id="rId40" location="rollingStockFireCategory" xr:uid="{00000000-0004-0000-0200-00004E000000}"/>
+    <hyperlink ref="J39" location="Concepts!D23" display="http://era.europa.eu/ns#Tunnel" xr:uid="{00000000-0004-0000-0200-00004F000000}"/>
+    <hyperlink ref="G40" r:id="rId41" location="snowIceHailConditions" xr:uid="{00000000-0004-0000-0200-000050000000}"/>
+    <hyperlink ref="J40" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{00000000-0004-0000-0200-000051000000}"/>
+    <hyperlink ref="G15" r:id="rId42" location="startLocation" xr:uid="{00000000-0004-0000-0200-000052000000}"/>
+    <hyperlink ref="J15" location="Concepts!D23" display="http://era.europa.eu/ns#Tunnel" xr:uid="{00000000-0004-0000-0200-000053000000}"/>
+    <hyperlink ref="G41" r:id="rId43" location="startPort" xr:uid="{00000000-0004-0000-0200-000054000000}"/>
+    <hyperlink ref="J41" r:id="rId44" location="InternalNodeLink" display="http://era.europa.eu/ns#InternalNodeLink" xr:uid="{00000000-0004-0000-0200-000055000000}"/>
+    <hyperlink ref="K41" location="Properties!D10" display="http://era.europa.eu/ns#NodePort" xr:uid="{00000000-0004-0000-0200-000056000000}"/>
+    <hyperlink ref="G42" r:id="rId45" location="thermalCapacityTSIReference" xr:uid="{00000000-0004-0000-0200-000057000000}"/>
+    <hyperlink ref="J42" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{00000000-0004-0000-0200-000058000000}"/>
+    <hyperlink ref="G43" r:id="rId46" location="trainDetectionSystem" xr:uid="{00000000-0004-0000-0200-000059000000}"/>
+    <hyperlink ref="J43" location="Properties!A1" display="Properties!A1" xr:uid="{00000000-0004-0000-0200-00005A000000}"/>
+    <hyperlink ref="G44" r:id="rId47" location="pantographHead" xr:uid="{00000000-0004-0000-0200-00005B000000}"/>
+    <hyperlink ref="J44" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{00000000-0004-0000-0200-00005C000000}"/>
+    <hyperlink ref="G45" r:id="rId48" location="category" xr:uid="{00000000-0004-0000-0200-00005D000000}"/>
+    <hyperlink ref="J45" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{00000000-0004-0000-0200-00005E000000}"/>
+    <hyperlink ref="G46" r:id="rId49" location="vehicleKeeper" xr:uid="{00000000-0004-0000-0200-00005F000000}"/>
+    <hyperlink ref="J46" location="Concepts!D26" display="http://era.europa.eu/ns#Vehicle" xr:uid="{00000000-0004-0000-0200-000060000000}"/>
+    <hyperlink ref="K46" location="Concepts!D27" display="http://era.europa.eu/ns#VehicleKeeper" xr:uid="{00000000-0004-0000-0200-000061000000}"/>
+    <hyperlink ref="G47" r:id="rId50" location="subCategory" xr:uid="{00000000-0004-0000-0200-000062000000}"/>
+    <hyperlink ref="J47" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{00000000-0004-0000-0200-000063000000}"/>
+    <hyperlink ref="J48" location="Concepts!D26" display="http://era.europa.eu/ns#Vehicle" xr:uid="{00000000-0004-0000-0200-000064000000}"/>
+    <hyperlink ref="K48" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{00000000-0004-0000-0200-000065000000}"/>
+    <hyperlink ref="G49" r:id="rId51" location="voiceGSMRNetwork" xr:uid="{00000000-0004-0000-0200-000066000000}"/>
+    <hyperlink ref="G48" r:id="rId52" location="vehicleType" xr:uid="{00000000-0004-0000-0200-000067000000}"/>
+    <hyperlink ref="J49" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{00000000-0004-0000-0200-000068000000}"/>
+    <hyperlink ref="G50" r:id="rId53" location="voiceRadioCompatible" xr:uid="{00000000-0004-0000-0200-000069000000}"/>
+    <hyperlink ref="J50" location="Properties!A1" display="Properties!A1" xr:uid="{00000000-0004-0000-0200-00006A000000}"/>
+    <hyperlink ref="G51" r:id="rId54" location="wheelSetGaugeChangeoverFacility" xr:uid="{00000000-0004-0000-0200-00006B000000}"/>
+    <hyperlink ref="J51" location="Properties!A1" display="Properties!A1" xr:uid="{00000000-0004-0000-0200-00006C000000}"/>
+    <hyperlink ref="G52" r:id="rId55" location="additionalBrakingInformationDocument" xr:uid="{00000000-0004-0000-0200-00006D000000}"/>
+    <hyperlink ref="J52" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{00000000-0004-0000-0200-00006E000000}"/>
+    <hyperlink ref="G53" r:id="rId56" location="alternativeName" xr:uid="{00000000-0004-0000-0200-00006F000000}"/>
+    <hyperlink ref="J53" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{00000000-0004-0000-0200-000070000000}"/>
+    <hyperlink ref="G54" r:id="rId57" location="automaticDroppingDeviceRequired" xr:uid="{00000000-0004-0000-0200-000071000000}"/>
+    <hyperlink ref="J54" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{00000000-0004-0000-0200-000072000000}"/>
+    <hyperlink ref="G55" r:id="rId58" location="bidirectional" xr:uid="{00000000-0004-0000-0200-000073000000}"/>
+    <hyperlink ref="J55" r:id="rId59" location="InternalNodeLink" display="http://era.europa.eu/ns#InternalNodeLink" xr:uid="{00000000-0004-0000-0200-000074000000}"/>
+    <hyperlink ref="G56" r:id="rId60" location="cantDeficiency" xr:uid="{00000000-0004-0000-0200-000075000000}"/>
+    <hyperlink ref="J56" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{00000000-0004-0000-0200-000076000000}"/>
+    <hyperlink ref="G57" r:id="rId61" location="compositeBrakeBlockRetrofitted" xr:uid="{00000000-0004-0000-0200-000077000000}"/>
+    <hyperlink ref="J57" location="Concepts!D26" display="http://era.europa.eu/ns#Vehicle" xr:uid="{00000000-0004-0000-0200-000078000000}"/>
+    <hyperlink ref="G58" r:id="rId62" location="conditionalEddyCurrentBraking" xr:uid="{00000000-0004-0000-0200-000079000000}"/>
+    <hyperlink ref="J58" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{00000000-0004-0000-0200-00007A000000}"/>
+    <hyperlink ref="G59" r:id="rId63" location="conditionalEmergencyOnlyEddyCurrentBraking" xr:uid="{00000000-0004-0000-0200-00007B000000}"/>
+    <hyperlink ref="J59" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{00000000-0004-0000-0200-00007C000000}"/>
+    <hyperlink ref="G60" r:id="rId64" location="conditionalEmergencyOnlyMagneticBraking" xr:uid="{00000000-0004-0000-0200-00007D000000}"/>
+    <hyperlink ref="J60" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{00000000-0004-0000-0200-00007E000000}"/>
+    <hyperlink ref="G61" r:id="rId65" location="conditionalMagneticBraking" xr:uid="{00000000-0004-0000-0200-00007F000000}"/>
+    <hyperlink ref="J61" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{00000000-0004-0000-0200-000080000000}"/>
+    <hyperlink ref="G62" r:id="rId66" location="conditionalRegenerativeBrake" xr:uid="{00000000-0004-0000-0200-000081000000}"/>
+    <hyperlink ref="J62" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{00000000-0004-0000-0200-000082000000}"/>
+    <hyperlink ref="G63" r:id="rId67" location="currentLimitationRequired" xr:uid="{00000000-0004-0000-0200-000083000000}"/>
+    <hyperlink ref="J63" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{00000000-0004-0000-0200-000084000000}"/>
+    <hyperlink ref="G64" r:id="rId68" location="designMassWorkingOrder" xr:uid="{00000000-0004-0000-0200-000085000000}"/>
+    <hyperlink ref="J64" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{00000000-0004-0000-0200-000086000000}"/>
+    <hyperlink ref="G65" r:id="rId69" location="designMassExceptionalPayload" xr:uid="{00000000-0004-0000-0200-000087000000}"/>
+    <hyperlink ref="J65" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{00000000-0004-0000-0200-000088000000}"/>
+    <hyperlink ref="G66" r:id="rId70" location="designMassNormalPayload" xr:uid="{00000000-0004-0000-0200-000089000000}"/>
+    <hyperlink ref="J66" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{00000000-0004-0000-0200-00008A000000}"/>
+    <hyperlink ref="G67" r:id="rId71" location="trainDetectionSystemSpecificCheck" xr:uid="{00000000-0004-0000-0200-00008B000000}"/>
+    <hyperlink ref="J67" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{00000000-0004-0000-0200-00008C000000}"/>
+    <hyperlink ref="G68" r:id="rId72" location="eddyCurrentBrakePrevention" xr:uid="{00000000-0004-0000-0200-00008D000000}"/>
+    <hyperlink ref="J68" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{00000000-0004-0000-0200-00008E000000}"/>
+    <hyperlink ref="G69" r:id="rId73" location="eddyCurrentBraking" xr:uid="{00000000-0004-0000-0200-00008F000000}"/>
+    <hyperlink ref="J69" location="Properties!A1" display="Properties!A1" xr:uid="{00000000-0004-0000-0200-000090000000}"/>
+    <hyperlink ref="G70" r:id="rId74" location="eddyCurrentBrakingConditionsDocument" xr:uid="{00000000-0004-0000-0200-000091000000}"/>
+    <hyperlink ref="J70" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{00000000-0004-0000-0200-000092000000}"/>
+    <hyperlink ref="G71" r:id="rId75" location="emergencyOnlyEddyCurrentBraking" xr:uid="{00000000-0004-0000-0200-000093000000}"/>
+    <hyperlink ref="J71" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{00000000-0004-0000-0200-000094000000}"/>
+    <hyperlink ref="G72" r:id="rId76" location="emergencyOnlyMagneticBraking" xr:uid="{00000000-0004-0000-0200-000095000000}"/>
+    <hyperlink ref="J72" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{00000000-0004-0000-0200-000096000000}"/>
+    <hyperlink ref="G73" r:id="rId77" location="energySupplySystemTSICompliant" xr:uid="{00000000-0004-0000-0200-000097000000}"/>
+    <hyperlink ref="J73" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{00000000-0004-0000-0200-000098000000}"/>
+    <hyperlink ref="G74" r:id="rId78" location="gaugingCheckLocation" xr:uid="{00000000-0004-0000-0200-000099000000}"/>
+    <hyperlink ref="J74" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{00000000-0004-0000-0200-00009A000000}"/>
+    <hyperlink ref="G75" r:id="rId79" location="gaugingTransversalDocument" xr:uid="{00000000-0004-0000-0200-00009B000000}"/>
+    <hyperlink ref="J75" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{00000000-0004-0000-0200-00009C000000}"/>
+    <hyperlink ref="G76" r:id="rId80" location="gradientProfile" xr:uid="{00000000-0004-0000-0200-00009D000000}"/>
+    <hyperlink ref="J76" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{00000000-0004-0000-0200-00009E000000}"/>
+    <hyperlink ref="G77" r:id="rId81" location="hasAdditionalBrakingInformation" xr:uid="{00000000-0004-0000-0200-00009F000000}"/>
+    <hyperlink ref="J77" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{00000000-0004-0000-0200-0000A0000000}"/>
+    <hyperlink ref="G78" r:id="rId82" location="hasAutomaticDroppingDevice" xr:uid="{00000000-0004-0000-0200-0000A1000000}"/>
+    <hyperlink ref="J78" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{00000000-0004-0000-0200-0000A2000000}"/>
+    <hyperlink ref="G79" r:id="rId83" location="hasHotAxleBoxDetector" xr:uid="{00000000-0004-0000-0200-0000A3000000}"/>
+    <hyperlink ref="J79" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{00000000-0004-0000-0200-0000A4000000}"/>
+    <hyperlink ref="G80" r:id="rId84" location="hasCurrentLimitation" xr:uid="{00000000-0004-0000-0200-0000A5000000}"/>
+    <hyperlink ref="J80" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{00000000-0004-0000-0200-0000A6000000}"/>
+    <hyperlink ref="G81" r:id="rId85" location="hasRegenerativeBrake" xr:uid="{00000000-0004-0000-0200-0000A7000000}"/>
+    <hyperlink ref="J81" location="Properties!A1" display="Properties!A1" xr:uid="{00000000-0004-0000-0200-0000A8000000}"/>
+    <hyperlink ref="G82" r:id="rId86" location="hasSevereWeatherConditions" xr:uid="{00000000-0004-0000-0200-0000A9000000}"/>
+    <hyperlink ref="J82" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{00000000-0004-0000-0200-0000AA000000}"/>
+    <hyperlink ref="G83" r:id="rId87" location="hasTrainIntegrityConfirmation" xr:uid="{00000000-0004-0000-0200-0000AB000000}"/>
+    <hyperlink ref="J83" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{00000000-0004-0000-0200-0000AC000000}"/>
+    <hyperlink ref="G84" r:id="rId88" location="highSpeedLoadModelCompliance" xr:uid="{00000000-0004-0000-0200-0000AD000000}"/>
+    <hyperlink ref="J84" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{00000000-0004-0000-0200-0000AE000000}"/>
+    <hyperlink ref="J85" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{00000000-0004-0000-0200-0000AF000000}"/>
+    <hyperlink ref="G85" r:id="rId89" location="hotAxleBoxDetectorDirection" xr:uid="{00000000-0004-0000-0200-0000B0000000}"/>
+    <hyperlink ref="G86" r:id="rId90" location="hotAxleBoxDetectorGeneration" xr:uid="{00000000-0004-0000-0200-0000B1000000}"/>
+    <hyperlink ref="J86" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{00000000-0004-0000-0200-0000B2000000}"/>
+    <hyperlink ref="G87" r:id="rId91" location="hotAxleBoxDetectorIdentification" xr:uid="{00000000-0004-0000-0200-0000B3000000}"/>
+    <hyperlink ref="J87" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{00000000-0004-0000-0200-0000B4000000}"/>
+    <hyperlink ref="G88" r:id="rId92" location="hotAxleBoxDetectorLocation" xr:uid="{00000000-0004-0000-0200-0000B5000000}"/>
+    <hyperlink ref="J88" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{00000000-0004-0000-0200-0000B6000000}"/>
+    <hyperlink ref="G89" r:id="rId93" location="hotAxleBoxDetectorTSICompliant" xr:uid="{00000000-0004-0000-0200-0000B7000000}"/>
+    <hyperlink ref="J89" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{00000000-0004-0000-0200-0000B8000000}"/>
+    <hyperlink ref="G90" r:id="rId94" location="isQuiteRoute" xr:uid="{00000000-0004-0000-0200-0000B9000000}"/>
+    <hyperlink ref="J90" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{00000000-0004-0000-0200-0000BA000000}"/>
+    <hyperlink ref="G91" r:id="rId95" location="magneticBrakePrevention" xr:uid="{00000000-0004-0000-0200-0000BB000000}"/>
+    <hyperlink ref="J91" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{00000000-0004-0000-0200-0000BC000000}"/>
+    <hyperlink ref="G92" r:id="rId96" location="magneticBraking" xr:uid="{00000000-0004-0000-0200-0000BD000000}"/>
+    <hyperlink ref="J92" location="Properties!A1" display="Properties!A1" xr:uid="{00000000-0004-0000-0200-0000BE000000}"/>
+    <hyperlink ref="G93" r:id="rId97" location="magneticBrakingConditionsDocument" xr:uid="{00000000-0004-0000-0200-0000BF000000}"/>
+    <hyperlink ref="J93" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{00000000-0004-0000-0200-0000C0000000}"/>
+    <hyperlink ref="G94" r:id="rId98" location="maximumBrakingDistance" xr:uid="{00000000-0004-0000-0200-0000C1000000}"/>
+    <hyperlink ref="J94" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{00000000-0004-0000-0200-0000C2000000}"/>
+    <hyperlink ref="G95" r:id="rId99" location="maximumContactWireHeight" xr:uid="{00000000-0004-0000-0200-0000C3000000}"/>
+    <hyperlink ref="J95" location="Properties!A1" display="Properties!A1" xr:uid="{00000000-0004-0000-0200-0000C4000000}"/>
+    <hyperlink ref="G96" r:id="rId100" location="maximumDesignSpeed" xr:uid="{00000000-0004-0000-0200-0000C5000000}"/>
+    <hyperlink ref="J96" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{00000000-0004-0000-0200-0000C6000000}"/>
+    <hyperlink ref="G97" r:id="rId101" location="maximumDesignSpeed" xr:uid="{00000000-0004-0000-0200-0000C7000000}"/>
+    <hyperlink ref="J97" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{00000000-0004-0000-0200-0000C8000000}"/>
+    <hyperlink ref="G98" r:id="rId102" location="maxCurrentStandstillPantograph" xr:uid="{00000000-0004-0000-0200-0000C9000000}"/>
+    <hyperlink ref="J98" location="Properties!A1" display="Properties!A1" xr:uid="{00000000-0004-0000-0200-0000CA000000}"/>
+    <hyperlink ref="G99" r:id="rId103" location="maximumTemperature" xr:uid="{00000000-0004-0000-0200-0000CB000000}"/>
+    <hyperlink ref="J99" location="Properties!A1" display="Properties!A1" xr:uid="{00000000-0004-0000-0200-0000CC000000}"/>
+    <hyperlink ref="G100" r:id="rId104" location="maximumTrainDeceleration" xr:uid="{00000000-0004-0000-0200-0000CD000000}"/>
+    <hyperlink ref="J100" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{00000000-0004-0000-0200-0000CE000000}"/>
+    <hyperlink ref="G101" r:id="rId105" location="minimumConcaveVerticalRadius" xr:uid="{00000000-0004-0000-0200-0000CF000000}"/>
+    <hyperlink ref="J101" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{00000000-0004-0000-0200-0000D0000000}"/>
+    <hyperlink ref="G102" r:id="rId106" location="minimumContactWireHeight" xr:uid="{00000000-0004-0000-0200-0000D1000000}"/>
+    <hyperlink ref="J102" location="Properties!A1" display="Properties!A1" xr:uid="{00000000-0004-0000-0200-0000D2000000}"/>
+    <hyperlink ref="G103" r:id="rId107" location="minimumConvexVerticalRadius" xr:uid="{00000000-0004-0000-0200-0000D3000000}"/>
+    <hyperlink ref="J103" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{00000000-0004-0000-0200-0000D4000000}"/>
+    <hyperlink ref="G104" r:id="rId108" location="minimumHorizontalRadius" xr:uid="{00000000-0004-0000-0200-0000D5000000}"/>
+    <hyperlink ref="J104" location="Properties!A1" display="Properties!A1" xr:uid="{00000000-0004-0000-0200-0000D6000000}"/>
+    <hyperlink ref="G105" r:id="rId109" location="minimumTemperature" xr:uid="{00000000-0004-0000-0200-0000D7000000}"/>
+    <hyperlink ref="J105" location="Properties!A1" display="Properties!A1" xr:uid="{00000000-0004-0000-0200-0000D8000000}"/>
+    <hyperlink ref="G106" r:id="rId110" location="minimumVerticalRadius" xr:uid="{00000000-0004-0000-0200-0000D9000000}"/>
+    <hyperlink ref="J106" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{00000000-0004-0000-0200-0000DA000000}"/>
+    <hyperlink ref="G107" r:id="rId111" location="minimumWheelDiameter" xr:uid="{00000000-0004-0000-0200-0000DB000000}"/>
+    <hyperlink ref="J107" location="Properties!A1" display="Properties!A1" xr:uid="{00000000-0004-0000-0200-0000DC000000}"/>
+    <hyperlink ref="G108" r:id="rId112" location="nationalLoadCapability" xr:uid="{00000000-0004-0000-0200-0000DD000000}"/>
+    <hyperlink ref="J108" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{00000000-0004-0000-0200-0000DE000000}"/>
+    <hyperlink ref="G109" r:id="rId113" location="nationalRollingStockFireCategory" xr:uid="{00000000-0004-0000-0200-0000DF000000}"/>
+    <hyperlink ref="J109" location="Concepts!D23" display="http://era.europa.eu/ns#Tunnel" xr:uid="{00000000-0004-0000-0200-0000E0000000}"/>
+    <hyperlink ref="G110" r:id="rId114" location="numberOfPantographsInContactWithOCL" xr:uid="{00000000-0004-0000-0200-0000E1000000}"/>
+    <hyperlink ref="J110" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{00000000-0004-0000-0200-0000E2000000}"/>
+    <hyperlink ref="G111" r:id="rId115" location="oclType" xr:uid="{00000000-0004-0000-0200-0000E3000000}"/>
+    <hyperlink ref="J111" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{00000000-0004-0000-0200-0000E4000000}"/>
+    <hyperlink ref="G112" r:id="rId116" location="parkingBrakeMaximumGradient" xr:uid="{00000000-0004-0000-0200-0000E5000000}"/>
+    <hyperlink ref="J112" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{00000000-0004-0000-0200-0000E6000000}"/>
+    <hyperlink ref="G113" r:id="rId117" location="permissiblePayload" xr:uid="{00000000-0004-0000-0200-0000E7000000}"/>
+    <hyperlink ref="J113" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{00000000-0004-0000-0200-0000E8000000}"/>
+    <hyperlink ref="G114" r:id="rId118" location="permittedContactForce" xr:uid="{00000000-0004-0000-0200-0000E9000000}"/>
+    <hyperlink ref="J114" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{00000000-0004-0000-0200-0000EA000000}"/>
+    <hyperlink ref="G115" r:id="rId119" location="preventRegenerativeBrakeUse" xr:uid="{00000000-0004-0000-0200-0000EB000000}"/>
+    <hyperlink ref="J115" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{00000000-0004-0000-0200-0000EC000000}"/>
+    <hyperlink ref="G116" r:id="rId120" location="raisedPantographsDistanceAndSpeed" xr:uid="{00000000-0004-0000-0200-0000ED000000}"/>
+    <hyperlink ref="J116" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{00000000-0004-0000-0200-0000EE000000}"/>
+    <hyperlink ref="G117" r:id="rId121" location="shortestDistanceBetweenPantographsInContactWithOCL" xr:uid="{00000000-0004-0000-0200-0000EF000000}"/>
+    <hyperlink ref="J117" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{00000000-0004-0000-0200-0000F0000000}"/>
+    <hyperlink ref="G118" r:id="rId122" location="staticAxleLoadWorkingOrder" xr:uid="{00000000-0004-0000-0200-0000F1000000}"/>
+    <hyperlink ref="J118" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{00000000-0004-0000-0200-0000F2000000}"/>
+    <hyperlink ref="G119" r:id="rId123" location="staticAxleLoadExceptionalPayload" xr:uid="{00000000-0004-0000-0200-0000F3000000}"/>
+    <hyperlink ref="J119" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{00000000-0004-0000-0200-0000F4000000}"/>
+    <hyperlink ref="G120" r:id="rId124" location="staticAxleLoadNormalPayload" xr:uid="{00000000-0004-0000-0200-0000F5000000}"/>
+    <hyperlink ref="J120" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{00000000-0004-0000-0200-0000F6000000}"/>
+    <hyperlink ref="G121" r:id="rId125" location="compatibilityProcedureDocument" xr:uid="{00000000-0004-0000-0200-0000F7000000}"/>
+    <hyperlink ref="J121" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{00000000-0004-0000-0200-0000F8000000}"/>
+    <hyperlink ref="G122" r:id="rId126" location="structureCheckLocation" xr:uid="{00000000-0004-0000-0200-0000F9000000}"/>
+    <hyperlink ref="J122" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{00000000-0004-0000-0200-0000FA000000}"/>
+    <hyperlink ref="G123" r:id="rId127" location="tafTAPCode" xr:uid="{00000000-0004-0000-0200-0000FB000000}"/>
+    <hyperlink ref="J123" location="Concepts!D8" display="http://era.europa.eu/ns#OperationalPoint" xr:uid="{00000000-0004-0000-0200-0000FC000000}"/>
+    <hyperlink ref="G124" r:id="rId128" location="thermalCapacityDistance" xr:uid="{00000000-0004-0000-0200-0000FD000000}"/>
+    <hyperlink ref="J124" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{00000000-0004-0000-0200-0000FE000000}"/>
+    <hyperlink ref="G125" r:id="rId129" location="thermalCapacityGradient" xr:uid="{00000000-0004-0000-0200-0000FF000000}"/>
+    <hyperlink ref="J125" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{00000000-0004-0000-0200-000000010000}"/>
+    <hyperlink ref="G126" r:id="rId130" location="thermalCapacitySpeed" xr:uid="{00000000-0004-0000-0200-000001010000}"/>
+    <hyperlink ref="J126" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{00000000-0004-0000-0200-000002010000}"/>
+    <hyperlink ref="G127" r:id="rId131" location="thermalCapacityTime" xr:uid="{00000000-0004-0000-0200-000003010000}"/>
+    <hyperlink ref="J127" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{00000000-0004-0000-0200-000004010000}"/>
+    <hyperlink ref="G128" r:id="rId132" location="trackLength" xr:uid="{00000000-0004-0000-0200-000005010000}"/>
+    <hyperlink ref="J128" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{00000000-0004-0000-0200-000006010000}"/>
+    <hyperlink ref="G129" r:id="rId133" location="trainIntegrityOnBoardRequired" xr:uid="{00000000-0004-0000-0200-000007010000}"/>
+    <hyperlink ref="J129" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{00000000-0004-0000-0200-000008010000}"/>
+    <hyperlink ref="G130" r:id="rId134" location="tsiCompliant" xr:uid="{00000000-0004-0000-0200-000009010000}"/>
+    <hyperlink ref="G131" r:id="rId135" location="tunnelLength" xr:uid="{00000000-0004-0000-0200-00000A010000}"/>
+    <hyperlink ref="J131" location="Concepts!D23" display="http://era.europa.eu/ns#Tunnel" xr:uid="{00000000-0004-0000-0200-00000B010000}"/>
+    <hyperlink ref="G132" r:id="rId136" location="typeVersionNumber" xr:uid="{00000000-0004-0000-0200-00000C010000}"/>
+    <hyperlink ref="J132" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{00000000-0004-0000-0200-00000D010000}"/>
+    <hyperlink ref="G133" r:id="rId137" location="umax2" xr:uid="{00000000-0004-0000-0200-00000E010000}"/>
+    <hyperlink ref="J133" location="Concepts!D22" display="http://era.europa.eu/ns#Track" xr:uid="{00000000-0004-0000-0200-00000F010000}"/>
+    <hyperlink ref="G134" r:id="rId138" location="uopid" xr:uid="{00000000-0004-0000-0200-000010010000}"/>
+    <hyperlink ref="J134" location="Concepts!D8" display="http://era.europa.eu/ns#OperationalPoint" xr:uid="{00000000-0004-0000-0200-000011010000}"/>
+    <hyperlink ref="G135" r:id="rId139" location="usesGroup555" xr:uid="{00000000-0004-0000-0200-000012010000}"/>
+    <hyperlink ref="J135" location="Properties!A1" display="Properties!A1" xr:uid="{00000000-0004-0000-0200-000013010000}"/>
+    <hyperlink ref="G136" r:id="rId140" location="vehicleContactForce" xr:uid="{00000000-0004-0000-0200-000014010000}"/>
+    <hyperlink ref="J136" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{00000000-0004-0000-0200-000015010000}"/>
+    <hyperlink ref="G137" r:id="rId141" location="vehicleLength" xr:uid="{00000000-0004-0000-0200-000016010000}"/>
+    <hyperlink ref="J137" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{00000000-0004-0000-0200-000017010000}"/>
+    <hyperlink ref="G138" r:id="rId142" location="vehicleNumber" xr:uid="{00000000-0004-0000-0200-000018010000}"/>
+    <hyperlink ref="J138" location="Concepts!D26" display="http://era.europa.eu/ns#Vehicle" xr:uid="{00000000-0004-0000-0200-000019010000}"/>
+    <hyperlink ref="G139" r:id="rId143" location="vehiclePantographHead" xr:uid="{00000000-0004-0000-0200-00001A010000}"/>
+    <hyperlink ref="J139" location="Concepts!D24" display="http://era.europa.eu/ns#VehicleType" xr:uid="{00000000-0004-0000-0200-00001B010000}"/>
+    <hyperlink ref="G140" r:id="rId144" location="vehicleSeries" xr:uid="{00000000-0004-0000-0200-00001C010000}"/>
+    <hyperlink ref="J140" location="Concepts!D26" display="http://era.europa.eu/ns#Vehicle" xr:uid="{00000000-0004-0000-0200-00001D010000}"/>
+    <hyperlink ref="G141" r:id="rId145" location="wheelSetGauge" xr:uid="{00000000-0004-0000-0200-00001E010000}"/>
+    <hyperlink ref="J141" location="Properties!A1" display="Properties!A1" xr:uid="{00000000-0004-0000-0200-00001F010000}"/>
+    <hyperlink ref="S142" r:id="rId146" xr:uid="{00000000-0004-0000-0200-000020010000}"/>
+    <hyperlink ref="S143" r:id="rId147" xr:uid="{00000000-0004-0000-0200-000021010000}"/>
+    <hyperlink ref="W143" location="Concepts!L42" display="ERTMS-Baseline" xr:uid="{00000000-0004-0000-0200-000022010000}"/>
+    <hyperlink ref="S144" r:id="rId148" xr:uid="{00000000-0004-0000-0200-000023010000}"/>
+    <hyperlink ref="W144" location="Concepts!L43" display="ERTMS-Baseline-Versie" xr:uid="{00000000-0004-0000-0200-000024010000}"/>
+    <hyperlink ref="S145" r:id="rId149" xr:uid="{00000000-0004-0000-0200-000025010000}"/>
+    <hyperlink ref="S146" r:id="rId150" xr:uid="{00000000-0004-0000-0200-000026010000}"/>
+    <hyperlink ref="S147" r:id="rId151" xr:uid="{00000000-0004-0000-0200-000027010000}"/>
+    <hyperlink ref="S148" r:id="rId152" xr:uid="{00000000-0004-0000-0200-000028010000}"/>
+    <hyperlink ref="S149" r:id="rId153" xr:uid="{00000000-0004-0000-0200-000029010000}"/>
+    <hyperlink ref="S150" r:id="rId154" xr:uid="{00000000-0004-0000-0200-00002A010000}"/>
+    <hyperlink ref="V150" location="Concepts!L52" display="ERTMS-Gebied" xr:uid="{00000000-0004-0000-0200-00002B010000}"/>
+    <hyperlink ref="S151" r:id="rId155" xr:uid="{00000000-0004-0000-0200-00002C010000}"/>
+    <hyperlink ref="V151" location="Concepts!L52" display="ERTMS-Gebied" xr:uid="{00000000-0004-0000-0200-00002D010000}"/>
+    <hyperlink ref="S152" r:id="rId156" xr:uid="{00000000-0004-0000-0200-00002E010000}"/>
+    <hyperlink ref="W152" location="Concepts!L41" display="ERTMS-Level" xr:uid="{00000000-0004-0000-0200-00002F010000}"/>
+    <hyperlink ref="W150" location="Concepts!L41" display="ERTMS-Level" xr:uid="{00000000-0004-0000-0200-000030010000}"/>
+    <hyperlink ref="V152" location="Concepts!A1" display="Concepts!A1" xr:uid="{00000000-0004-0000-0200-000031010000}"/>
+    <hyperlink ref="V147" location="Concepts!L42" display="Referentiepunt-Op-Spoortak-Met-Richting" xr:uid="{00000000-0004-0000-0200-000032010000}"/>
+    <hyperlink ref="V148" location="Concepts!L42" display="Referentiepunt-Op-Spoortak-Met-Richting" xr:uid="{00000000-0004-0000-0200-000033010000}"/>
+    <hyperlink ref="V149" location="Concepts!L42" display="Referentiepunt-Op-Spoortak-Met-Richting" xr:uid="{00000000-0004-0000-0200-000034010000}"/>
+    <hyperlink ref="S153" r:id="rId157" xr:uid="{00000000-0004-0000-0200-000035010000}"/>
+    <hyperlink ref="S154" r:id="rId158" xr:uid="{00000000-0004-0000-0200-000036010000}"/>
+    <hyperlink ref="S155" r:id="rId159" xr:uid="{00000000-0004-0000-0200-000037010000}"/>
+    <hyperlink ref="S156" r:id="rId160" xr:uid="{00000000-0004-0000-0200-000038010000}"/>
+    <hyperlink ref="S157" r:id="rId161" xr:uid="{00000000-0004-0000-0200-000039010000}"/>
+    <hyperlink ref="W157" location="Concepts!L41" display="ERTMS-Level" xr:uid="{00000000-0004-0000-0200-00003A010000}"/>
+    <hyperlink ref="V143" location="Concepts!L45" display="ERTMS-Versie" xr:uid="{00000000-0004-0000-0200-00003B010000}"/>
+    <hyperlink ref="V144" location="Concepts!L45" display="ERTMS-Versie" xr:uid="{00000000-0004-0000-0200-00003C010000}"/>
+    <hyperlink ref="W151" location="Concepts!L45" display="ERTMS-Versie" xr:uid="{00000000-0004-0000-0200-00003D010000}"/>
+    <hyperlink ref="V155" location="Concepts!L45" display="ERTMS-Versie" xr:uid="{00000000-0004-0000-0200-00003E010000}"/>
+    <hyperlink ref="V146" location="Concepts!L47" display="ERTMS-Dangerpoint" xr:uid="{00000000-0004-0000-0200-00003F010000}"/>
+    <hyperlink ref="V142" location="Concepts!L47" display="ERTMS-Dangerpoint" xr:uid="{00000000-0004-0000-0200-000040010000}"/>
+    <hyperlink ref="W145" location="Concepts!L47" display="ERTMS-Dangerpoint" xr:uid="{00000000-0004-0000-0200-000041010000}"/>
+    <hyperlink ref="S158" r:id="rId162" xr:uid="{00000000-0004-0000-0200-000042010000}"/>
+    <hyperlink ref="V154" location="Concepts!L60" display="ERTMS-Overlap" xr:uid="{00000000-0004-0000-0200-000043010000}"/>
+    <hyperlink ref="V153" location="Concepts!L60" display="ERTMS-Overlap" xr:uid="{00000000-0004-0000-0200-000044010000}"/>
+    <hyperlink ref="V156" location="Concepts!L60" display="ERTMS-Overlap" xr:uid="{00000000-0004-0000-0200-000045010000}"/>
+    <hyperlink ref="S159" r:id="rId163" xr:uid="{00000000-0004-0000-0200-000046010000}"/>
+    <hyperlink ref="V159" location="Concepts!L60" display="ERTMS-Overlap" xr:uid="{00000000-0004-0000-0200-000047010000}"/>
+    <hyperlink ref="S160" r:id="rId164" xr:uid="{00000000-0004-0000-0200-000048010000}"/>
+    <hyperlink ref="V160" location="Concepts!L60" display="ERTMS-Overlap" xr:uid="{00000000-0004-0000-0200-000049010000}"/>
+    <hyperlink ref="S161" r:id="rId165" xr:uid="{00000000-0004-0000-0200-00004A010000}"/>
+    <hyperlink ref="V161" location="Concepts!L60" display="ERTMS-Overlap" xr:uid="{00000000-0004-0000-0200-00004B010000}"/>
+    <hyperlink ref="S162" r:id="rId166" xr:uid="{00000000-0004-0000-0200-00004C010000}"/>
+    <hyperlink ref="V162" location="Concepts!L60" display="ERTMS-Overlap" xr:uid="{00000000-0004-0000-0200-00004D010000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId167"/>
@@ -9267,13 +9750,13 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4750793-B303-413E-BDB0-197FD5388E6B}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="f8ebb3c5-ac80-4109-9e6b-e221331335e4"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="6890e2ac-6063-4770-9461-fef3a0141546"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>

--- a/QualitativeComparisonMatrix.xlsx
+++ b/QualitativeComparisonMatrix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nextcloud\Personal\Documents\ProjectsOngoing\ERA\GitHubJulian\era-models-mindmap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nextcloud\Personal\Documents\ProjectsOngoing\ERA\GitHubJulian\era-models-mindmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABC7E3FF-A54D-4FEA-A325-3430BBB6847A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8914FED-DA14-42E3-B608-04FED699A71F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General specs" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Properties" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Concepts!$A$1:$Y$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Concepts!$A$1:$Y$42</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Properties!$A$1:$X$23</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="838">
   <si>
     <t>Prorail IMSpoor XML</t>
   </si>
@@ -2346,6 +2346,231 @@
   </si>
   <si>
     <t xml:space="preserve"> A Track is a pair of rails over which rail borne vehicles can run. Relationships: • A track has various parameters relevant for scheduling the train services. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://ontology.tno.nl/smart-rail#Vehicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DIRECTIVE 2008/57/EC, Art. 2: 'a railway vehicle that runs on its own wheels on railway lines, with or without traction. </t>
+  </si>
+  <si>
+    <t>Stakeholder</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://ontology.tno.nl/smart-rail#Stakeholder</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Entity (phisiycal person, organization, etc.) inovolved in and/or affected to some extent by the Smart Rail project </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://ontology.tno.nl/smart-rail#VehicleKeeper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The person or entity that, being the owner of a vehicle or having the right to use it, exploits the vehicle as a means of transport and is registered as such; a Leasing Company or a Railway Undertaking can be a vehicle keeper. Even in the case of a rental the RU is the vehicle keeper. Relationships: • A vehicle keeper is responsible for handling the vehicle towards the IM and for its technical condition • A vehicle keeper is providing the vehicle to its customers to realise the business services </t>
+  </si>
+  <si>
+    <t>Racoon short</t>
+  </si>
+  <si>
+    <t>Racoon FQN</t>
+  </si>
+  <si>
+    <t>Racoon  Description</t>
+  </si>
+  <si>
+    <t>RouteGraph</t>
+  </si>
+  <si>
+    <t>http://purl.org/rail/core/vocab/RouteGraph</t>
+  </si>
+  <si>
+    <t>RouteNode</t>
+  </si>
+  <si>
+    <t>http://purl.org/rail/core/vocab/RouteNode</t>
+  </si>
+  <si>
+    <t>RouteArc</t>
+  </si>
+  <si>
+    <t>http://purl.org/rail/core/vocab/RouteArc</t>
+  </si>
+  <si>
+    <t>IndependentThing</t>
+  </si>
+  <si>
+    <t>http://purl.org/ub/upper/IndependentThing</t>
+  </si>
+  <si>
+    <t>An entity that does not depend on something else in the ontology to exist. Real world objects are independent things, a location is not</t>
+  </si>
+  <si>
+    <t>DomainSpecificThing</t>
+  </si>
+  <si>
+    <t>http://purl.org/ub/upper/DomainSpecificThing</t>
+  </si>
+  <si>
+    <t>A domain (as opposed to upper-level) concept</t>
+  </si>
+  <si>
+    <t>3.1.1</t>
+  </si>
+  <si>
+    <t>RailwayDomainConcept</t>
+  </si>
+  <si>
+    <t>http://purl.org/rail/core/RailwayDomainConcept</t>
+  </si>
+  <si>
+    <t>Any concept that is domain-specific to the railway</t>
+  </si>
+  <si>
+    <t>3.1.1.1</t>
+  </si>
+  <si>
+    <t>InfrastructureConcept</t>
+  </si>
+  <si>
+    <t>http://purl.org/rail/core/InfrastructureConcept</t>
+  </si>
+  <si>
+    <t>Any infrastructure concept</t>
+  </si>
+  <si>
+    <t>3.1.1.1.1</t>
+  </si>
+  <si>
+    <t>http://purl.org/rail/core/Track</t>
+  </si>
+  <si>
+    <t>A physical piece of railway track, bounded in some way</t>
+  </si>
+  <si>
+    <t>3.1.1.1.2</t>
+  </si>
+  <si>
+    <t>CivilThing</t>
+  </si>
+  <si>
+    <t>http://purl.org/rail/core/CivilThing</t>
+  </si>
+  <si>
+    <t>Any civil engineering equipment or concept</t>
+  </si>
+  <si>
+    <t>3.1.1.1.2.1</t>
+  </si>
+  <si>
+    <t>http://purl.org/rail/core/Tunnel</t>
+  </si>
+  <si>
+    <t>Tunnel Function</t>
+  </si>
+  <si>
+    <t>3.1.1.2</t>
+  </si>
+  <si>
+    <t>http://purl.org/rail/core/RollingStockConcept</t>
+  </si>
+  <si>
+    <t>3.1.1.2.1</t>
+  </si>
+  <si>
+    <t>RailwayVehicle</t>
+  </si>
+  <si>
+    <t>RollingsStockConcept</t>
+  </si>
+  <si>
+    <t>http://purl.org/rail/core/RailwayVehicle</t>
+  </si>
+  <si>
+    <t>DependentThing</t>
+  </si>
+  <si>
+    <t>http://purl.org/ub/upper/DependentThing</t>
+  </si>
+  <si>
+    <t>A dependent thing is an entity which depends on something else in order to exist. Many properties of object fall into this category - colour, size, etc</t>
+  </si>
+  <si>
+    <t>DataConcept</t>
+  </si>
+  <si>
+    <t>http://purl.org/ub/upper/DataConcept</t>
+  </si>
+  <si>
+    <t>Class of all data construct concepts</t>
+  </si>
+  <si>
+    <t>4.1.1</t>
+  </si>
+  <si>
+    <t>IdentityConcept</t>
+  </si>
+  <si>
+    <t>The concept of Identity. In the event that an entity cannot be identified implicitly, this concept allows for the provision of an 'identity' object to associate with</t>
+  </si>
+  <si>
+    <t>http://purl.org/rail/core/IdentityConcept</t>
+  </si>
+  <si>
+    <t>4.1.1.1</t>
+  </si>
+  <si>
+    <t>IDOrganisation</t>
+  </si>
+  <si>
+    <t>http://purl.org/rail/core/IDOrganisation</t>
+  </si>
+  <si>
+    <t>The identity of an organisation</t>
+  </si>
+  <si>
+    <t>The identity of a particular organisation</t>
+  </si>
+  <si>
+    <t>IGR  Description</t>
+  </si>
+  <si>
+    <t>1.1.2.2</t>
+  </si>
+  <si>
+    <t>LineNetworkNode</t>
+  </si>
+  <si>
+    <t>http://www.integrail.info/ont/SP3ACore.owl#LineNetworkNode</t>
+  </si>
+  <si>
+    <t>1.1.2.1.1</t>
+  </si>
+  <si>
+    <t>NetworkNodeIOPoint</t>
+  </si>
+  <si>
+    <t>http://www.owl-ontologies.com/NetworkStatementCheckerOntology.owl#NetworkNodeIOPoint</t>
+  </si>
+  <si>
+    <t>For the NetworkStatementChecker, the Network Nodes have been modeled as Black Boxes with IOPoints (where trains go In and Out of the Black Box, which can be seen as the station area for instance).</t>
+  </si>
+  <si>
+    <t>http://www.integrail.info/ont/SP3ACore.owl#Tunnel</t>
+  </si>
+  <si>
+    <t>MovableSpatialThing</t>
+  </si>
+  <si>
+    <t>http://pervasive.semanticweb.org/ont/2004/06/space#MovableSpatialThing</t>
+  </si>
+  <si>
+    <t>RollingStockObject</t>
+  </si>
+  <si>
+    <t>http://www.integrail.info/ont/SP3A.owl#RollingStockObject</t>
+  </si>
+  <si>
+    <t>http://www.integrail.info/ont/SP3A.owl#Vehicle</t>
   </si>
 </sst>
 </file>
@@ -2557,7 +2782,7 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2618,6 +2843,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -3037,11 +3265,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AH72"/>
+  <dimension ref="A1:AZ98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI78" sqref="AI78"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W40" sqref="W40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -3061,19 +3289,33 @@
     <col min="14" max="15" width="63.28515625" customWidth="1"/>
     <col min="16" max="16" width="53.85546875" customWidth="1"/>
     <col min="17" max="17" width="10.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="3.140625" customWidth="1"/>
     <col min="21" max="21" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="63" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="63" customWidth="1"/>
+    <col min="22" max="22" width="90" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="53.85546875" customWidth="1"/>
     <col min="30" max="30" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="45.85546875" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="48.140625" customWidth="1"/>
+    <col min="35" max="35" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="37.28515625" customWidth="1"/>
+    <col min="44" max="44" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="9" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="33.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:52" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>110</v>
       </c>
@@ -3155,8 +3397,50 @@
       <c r="AH1" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="2" spans="1:34" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AI1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>770</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>771</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>561</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>748</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>772</v>
+      </c>
+      <c r="AR1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS1" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>561</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>748</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -3195,7 +3479,7 @@
       </c>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3" spans="1:34" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:52" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E3" s="1"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -3218,7 +3502,7 @@
       <c r="P3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4" spans="1:34" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:52" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E4" s="1"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -3243,7 +3527,7 @@
       </c>
       <c r="Y4" s="3"/>
     </row>
-    <row r="5" spans="1:34" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:52" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E5" s="1"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -3266,7 +3550,7 @@
       <c r="P5" s="3"/>
       <c r="Y5" s="3"/>
     </row>
-    <row r="6" spans="1:34" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:52" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E6" s="1"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -3289,7 +3573,7 @@
       <c r="P6" s="3"/>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7" spans="1:34" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:52" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E7" s="1"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -3316,7 +3600,7 @@
       </c>
       <c r="Y7" s="3"/>
     </row>
-    <row r="8" spans="1:34" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:52" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E8" s="1"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -3343,7 +3627,7 @@
       </c>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="1:34" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:52" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E9" s="1"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -3368,7 +3652,7 @@
       <c r="P9" s="3"/>
       <c r="Y9" s="3"/>
     </row>
-    <row r="10" spans="1:34" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:52" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10" s="1"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -3395,7 +3679,7 @@
       </c>
       <c r="Y10" s="3"/>
     </row>
-    <row r="11" spans="1:34" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:52" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E11" s="1"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -3422,7 +3706,7 @@
       </c>
       <c r="Y11" s="3"/>
     </row>
-    <row r="12" spans="1:34" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:52" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E12" s="1"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -3449,7 +3733,7 @@
       </c>
       <c r="Y12" s="3"/>
     </row>
-    <row r="13" spans="1:34" ht="241.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:52" ht="241.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E13" s="1"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -3476,7 +3760,7 @@
       </c>
       <c r="Y13" s="3"/>
     </row>
-    <row r="14" spans="1:34" ht="61.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:52" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E14" s="1"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -3502,7 +3786,7 @@
       </c>
       <c r="Y14" s="3"/>
     </row>
-    <row r="15" spans="1:34" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:52" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E15" s="1"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -3526,7 +3810,7 @@
       </c>
       <c r="Y15" s="3"/>
     </row>
-    <row r="16" spans="1:34" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:52" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E16" s="1"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -3553,7 +3837,7 @@
       </c>
       <c r="Y16" s="3"/>
     </row>
-    <row r="17" spans="1:25" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E17" s="1"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -3579,7 +3863,7 @@
       </c>
       <c r="Y17" s="3"/>
     </row>
-    <row r="18" spans="1:25" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>1</v>
       </c>
@@ -3602,7 +3886,7 @@
       <c r="P18" s="3"/>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19" spans="1:25" ht="76.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>1</v>
       </c>
@@ -3623,7 +3907,7 @@
       <c r="P19" s="3"/>
       <c r="Y19" s="3"/>
     </row>
-    <row r="20" spans="1:25" ht="76.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>1</v>
       </c>
@@ -3646,7 +3930,7 @@
       <c r="P20" s="3"/>
       <c r="Y20" s="3"/>
     </row>
-    <row r="21" spans="1:25" ht="409.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" ht="409.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="7"/>
       <c r="E21" s="1"/>
       <c r="F21" s="3"/>
@@ -3671,7 +3955,7 @@
       </c>
       <c r="Y21" s="3"/>
     </row>
-    <row r="22" spans="1:25" ht="409.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" ht="409.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="7"/>
       <c r="E22" s="1"/>
       <c r="F22" s="3"/>
@@ -3696,7 +3980,7 @@
       </c>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23" spans="1:25" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="7"/>
       <c r="E23" s="1"/>
       <c r="F23" s="3"/>
@@ -3719,7 +4003,7 @@
       </c>
       <c r="Y23" s="3"/>
     </row>
-    <row r="24" spans="1:25" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="7"/>
       <c r="E24" s="1"/>
       <c r="F24" s="3"/>
@@ -3744,7 +4028,7 @@
       </c>
       <c r="Y24" s="3"/>
     </row>
-    <row r="25" spans="1:25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H25" s="4">
         <v>2</v>
       </c>
@@ -3762,7 +4046,7 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H26" s="4">
         <v>2</v>
       </c>
@@ -3780,7 +4064,7 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q27" s="4">
         <v>4</v>
       </c>
@@ -3798,7 +4082,7 @@
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
     </row>
-    <row r="28" spans="1:25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q28" s="4">
         <v>4</v>
       </c>
@@ -3816,7 +4100,7 @@
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
     </row>
-    <row r="29" spans="1:25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H29" s="4">
         <v>2</v>
       </c>
@@ -3850,7 +4134,7 @@
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
     </row>
-    <row r="30" spans="1:25" ht="76.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>1</v>
       </c>
@@ -3909,7 +4193,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C31" s="7"/>
       <c r="E31" s="1"/>
       <c r="F31" s="3"/>
@@ -3940,7 +4224,7 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="3"/>
     </row>
-    <row r="32" spans="1:25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C32" s="7"/>
       <c r="E32" s="1"/>
       <c r="F32" s="3"/>
@@ -3969,7 +4253,7 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="3"/>
     </row>
-    <row r="33" spans="1:25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C33" s="7"/>
       <c r="E33" s="1"/>
       <c r="F33" s="3"/>
@@ -4008,7 +4292,7 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="3"/>
     </row>
-    <row r="34" spans="1:25" ht="121.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>1</v>
       </c>
@@ -4064,721 +4348,1205 @@
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
     </row>
-    <row r="35" spans="1:25" ht="181.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6">
-        <v>1</v>
-      </c>
-      <c r="B35" s="5">
+    <row r="35" spans="1:25" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="7"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="9"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="23"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="Q35" s="4">
         <v>4</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" t="s">
-        <v>78</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="6">
-        <v>1</v>
-      </c>
-      <c r="B36" s="5">
-        <v>5</v>
-      </c>
+      <c r="R35" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" t="s">
+        <v>829</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="3" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C36" s="7"/>
-      <c r="D36" t="s">
-        <v>100</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F36" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6">
-        <v>1</v>
-      </c>
-      <c r="B37" s="5">
-        <v>6</v>
-      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="9"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="23"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="Q36" s="4">
+        <v>4</v>
+      </c>
+      <c r="R36" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" t="s">
+        <v>826</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+    </row>
+    <row r="37" spans="1:25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C37" s="7"/>
-      <c r="D37" t="s">
+      <c r="E37" s="1"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="9"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="23"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="Q37" s="4">
+        <v>4</v>
+      </c>
+      <c r="R37" s="5">
+        <v>2</v>
+      </c>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" t="s">
         <v>103</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="6">
-        <v>1</v>
-      </c>
-      <c r="B38" s="5">
-        <v>7</v>
-      </c>
+      <c r="V37" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+    </row>
+    <row r="38" spans="1:25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C38" s="7"/>
-      <c r="D38" t="s">
-        <v>106</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6">
-        <v>1</v>
-      </c>
-      <c r="B39" s="5">
-        <v>8</v>
-      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="9"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="23"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="Q38" s="4">
+        <v>4</v>
+      </c>
+      <c r="R38" s="5">
+        <v>3</v>
+      </c>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" t="s">
+        <v>833</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+    </row>
+    <row r="39" spans="1:25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C39" s="7"/>
-      <c r="D39" t="s">
-        <v>206</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="6">
-        <v>1</v>
-      </c>
-      <c r="B40" s="5">
-        <v>9</v>
-      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="9"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="23"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="Q39" s="4">
+        <v>4</v>
+      </c>
+      <c r="R39" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" t="s">
+        <v>835</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+    </row>
+    <row r="40" spans="1:25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C40" s="7"/>
-      <c r="D40" t="s">
+      <c r="E40" s="1"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="9"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="23"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="Q40" s="4">
+        <v>4</v>
+      </c>
+      <c r="R40" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" t="s">
         <v>213</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V40" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+    </row>
+    <row r="41" spans="1:25" ht="181.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>1</v>
       </c>
       <c r="B41" s="5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" t="s">
+        <v>78</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="6">
+        <v>1</v>
+      </c>
+      <c r="B42" s="5">
+        <v>5</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F42" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="6">
+        <v>1</v>
+      </c>
+      <c r="B43" s="5">
+        <v>6</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" t="s">
+        <v>103</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="6">
+        <v>1</v>
+      </c>
+      <c r="B44" s="5">
+        <v>7</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" t="s">
+        <v>106</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="6">
+        <v>1</v>
+      </c>
+      <c r="B45" s="5">
+        <v>8</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" t="s">
+        <v>206</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="6">
+        <v>1</v>
+      </c>
+      <c r="B46" s="5">
+        <v>9</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" t="s">
+        <v>213</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="6">
+        <v>1</v>
+      </c>
+      <c r="B47" s="5">
+        <v>10</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" t="s">
         <v>263</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F47" s="3" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="42" spans="1:25" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H42" s="4">
-        <v>2</v>
-      </c>
-      <c r="I42" s="5">
-        <v>5</v>
-      </c>
-      <c r="J42" s="20"/>
-      <c r="K42" s="25"/>
-      <c r="L42" t="s">
-        <v>559</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="N42" t="s">
-        <v>562</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H43" s="4">
-        <v>2</v>
-      </c>
-      <c r="I43" s="5">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="J43" s="20"/>
-      <c r="K43" s="25"/>
-      <c r="L43" t="s">
-        <v>564</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H44" s="4">
-        <v>2</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="J44" s="20"/>
-      <c r="K44" s="25"/>
-      <c r="L44" t="s">
-        <v>567</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H45" s="4">
-        <v>2</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>569</v>
-      </c>
-      <c r="J45" s="20"/>
-      <c r="K45" s="25"/>
-      <c r="L45" t="s">
-        <v>570</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H46" s="4">
-        <v>2</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>572</v>
-      </c>
-      <c r="J46" s="20"/>
-      <c r="K46" s="25"/>
-      <c r="L46" t="s">
-        <v>573</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" ht="61.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H47" s="4">
-        <v>2</v>
-      </c>
-      <c r="I47" s="5">
-        <v>6</v>
-      </c>
-      <c r="J47" s="7"/>
-      <c r="K47" s="26" t="s">
-        <v>659</v>
-      </c>
-      <c r="L47" t="s">
-        <v>610</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="O47" s="11" t="s">
-        <v>661</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" ht="121.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H48" s="4">
         <v>2</v>
       </c>
       <c r="I48" s="5">
-        <v>6.1</v>
-      </c>
-      <c r="J48" s="7"/>
-      <c r="K48" s="21" t="s">
-        <v>603</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J48" s="20"/>
+      <c r="K48" s="25"/>
       <c r="L48" t="s">
-        <v>605</v>
+        <v>559</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>606</v>
+        <v>560</v>
       </c>
       <c r="N48" t="s">
-        <v>611</v>
-      </c>
-      <c r="O48" t="s">
-        <v>609</v>
+        <v>562</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="49" spans="8:16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="49" spans="8:16" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H49" s="4">
         <v>2</v>
       </c>
       <c r="I49" s="5">
-        <v>6.2</v>
-      </c>
-      <c r="J49" s="7"/>
-      <c r="K49" s="21" t="s">
-        <v>603</v>
-      </c>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J49" s="20"/>
+      <c r="K49" s="25"/>
       <c r="L49" t="s">
-        <v>612</v>
+        <v>564</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="N49" t="s">
-        <v>614</v>
-      </c>
-      <c r="O49" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="50" spans="8:16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="50" spans="8:16" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H50" s="4">
         <v>2</v>
       </c>
-      <c r="I50" s="5">
-        <v>6.3</v>
-      </c>
-      <c r="J50" s="7"/>
-      <c r="K50" s="21" t="s">
-        <v>603</v>
-      </c>
+      <c r="I50" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="J50" s="20"/>
+      <c r="K50" s="25"/>
       <c r="L50" t="s">
-        <v>652</v>
+        <v>567</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="N50" t="s">
-        <v>657</v>
-      </c>
-      <c r="O50" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="51" spans="8:16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="51" spans="8:16" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H51" s="4">
         <v>2</v>
       </c>
-      <c r="I51" s="5">
-        <v>6.4</v>
-      </c>
-      <c r="J51" s="7"/>
-      <c r="K51" s="21" t="s">
-        <v>603</v>
-      </c>
+      <c r="I51" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="J51" s="20"/>
+      <c r="K51" s="25"/>
       <c r="L51" t="s">
-        <v>608</v>
+        <v>570</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="O51" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="52" spans="8:16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="52" spans="8:16" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H52" s="4">
         <v>2</v>
       </c>
-      <c r="I52" s="5">
-        <v>7</v>
-      </c>
-      <c r="J52" s="7"/>
+      <c r="I52" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="J52" s="20"/>
+      <c r="K52" s="25"/>
       <c r="L52" t="s">
-        <v>618</v>
+        <v>573</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="53" spans="8:16" ht="151.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="53" spans="8:16" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H53" s="4">
         <v>2</v>
       </c>
       <c r="I53" s="5">
-        <v>7.1</v>
-      </c>
-      <c r="J53" s="8"/>
-      <c r="K53" s="21" t="s">
-        <v>603</v>
+        <v>6</v>
+      </c>
+      <c r="J53" s="7"/>
+      <c r="K53" s="26" t="s">
+        <v>659</v>
       </c>
       <c r="L53" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="O53" t="s">
-        <v>609</v>
+        <v>660</v>
+      </c>
+      <c r="O53" s="11" t="s">
+        <v>661</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="54" spans="8:16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="54" spans="8:16" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H54" s="4">
         <v>2</v>
       </c>
       <c r="I54" s="5">
-        <v>8</v>
-      </c>
-      <c r="J54" s="8"/>
+        <v>6.1</v>
+      </c>
+      <c r="J54" s="7"/>
       <c r="K54" s="21" t="s">
         <v>603</v>
       </c>
       <c r="L54" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>629</v>
+        <v>606</v>
+      </c>
+      <c r="N54" t="s">
+        <v>611</v>
       </c>
       <c r="O54" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="55" spans="8:16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P54" s="3" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="55" spans="8:16" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H55" s="4">
         <v>2</v>
       </c>
       <c r="I55" s="5">
-        <v>9</v>
-      </c>
-      <c r="J55" s="8"/>
-    </row>
-    <row r="56" spans="8:16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6.2</v>
+      </c>
+      <c r="J55" s="7"/>
+      <c r="K55" s="21" t="s">
+        <v>603</v>
+      </c>
+      <c r="L55" t="s">
+        <v>612</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="N55" t="s">
+        <v>614</v>
+      </c>
+      <c r="O55" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="56" spans="8:16" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H56" s="4">
         <v>2</v>
       </c>
       <c r="I56" s="5">
-        <v>9.1</v>
-      </c>
-      <c r="J56" s="8"/>
-    </row>
-    <row r="57" spans="8:16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6.3</v>
+      </c>
+      <c r="J56" s="7"/>
+      <c r="K56" s="21" t="s">
+        <v>603</v>
+      </c>
+      <c r="L56" t="s">
+        <v>652</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="N56" t="s">
+        <v>657</v>
+      </c>
+      <c r="O56" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="57" spans="8:16" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H57" s="4">
         <v>2</v>
       </c>
       <c r="I57" s="5">
-        <v>10</v>
-      </c>
-      <c r="J57" s="8"/>
-    </row>
-    <row r="58" spans="8:16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6.4</v>
+      </c>
+      <c r="J57" s="7"/>
+      <c r="K57" s="21" t="s">
+        <v>603</v>
+      </c>
+      <c r="L57" t="s">
+        <v>608</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="O57" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="58" spans="8:16" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H58" s="4">
         <v>2</v>
       </c>
       <c r="I58" s="5">
-        <v>10.1</v>
-      </c>
-      <c r="J58" s="8"/>
-    </row>
-    <row r="59" spans="8:16" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="J58" s="7"/>
+      <c r="L58" t="s">
+        <v>618</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="59" spans="8:16" ht="151.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H59" s="4">
         <v>2</v>
       </c>
       <c r="I59" s="5">
-        <v>11</v>
+        <v>7.1</v>
       </c>
       <c r="J59" s="8"/>
+      <c r="K59" s="21" t="s">
+        <v>603</v>
+      </c>
       <c r="L59" t="s">
-        <v>630</v>
+        <v>601</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="N59" t="s">
-        <v>635</v>
+        <v>615</v>
+      </c>
+      <c r="O59" t="s">
+        <v>609</v>
       </c>
       <c r="P59" s="3" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="60" spans="8:16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="60" spans="8:16" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H60" s="4">
         <v>2</v>
       </c>
       <c r="I60" s="5">
-        <v>11.1</v>
+        <v>8</v>
       </c>
       <c r="J60" s="8"/>
+      <c r="K60" s="21" t="s">
+        <v>603</v>
+      </c>
       <c r="L60" t="s">
-        <v>633</v>
+        <v>616</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="N60" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="61" spans="8:16" ht="61.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+      <c r="O60" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="61" spans="8:16" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H61" s="4">
         <v>2</v>
       </c>
-      <c r="I61" s="5" t="s">
-        <v>637</v>
+      <c r="I61" s="5">
+        <v>9</v>
       </c>
       <c r="J61" s="8"/>
-      <c r="L61" t="s">
-        <v>638</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="P61" s="3" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="62" spans="8:16" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="8:16" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H62" s="4">
         <v>2</v>
       </c>
-      <c r="I62" s="5" t="s">
-        <v>641</v>
+      <c r="I62" s="5">
+        <v>9.1</v>
       </c>
       <c r="J62" s="8"/>
-      <c r="L62" t="s">
-        <v>642</v>
-      </c>
-      <c r="M62" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="63" spans="8:16" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="8:16" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H63" s="4">
         <v>2</v>
       </c>
-      <c r="I63" s="5" t="s">
-        <v>645</v>
+      <c r="I63" s="5">
+        <v>10</v>
       </c>
       <c r="J63" s="8"/>
-      <c r="K63" s="21" t="s">
-        <v>603</v>
-      </c>
-      <c r="L63" t="s">
-        <v>646</v>
-      </c>
-      <c r="M63" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="O63" t="s">
-        <v>609</v>
-      </c>
-      <c r="P63" s="3" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="64" spans="8:16" ht="106.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="8:16" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H64" s="4">
         <v>2</v>
       </c>
       <c r="I64" s="5">
-        <v>12</v>
+        <v>10.1</v>
       </c>
       <c r="J64" s="8"/>
-      <c r="K64" s="21" t="s">
-        <v>603</v>
-      </c>
-      <c r="L64" t="s">
-        <v>662</v>
-      </c>
-      <c r="M64" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="O64" t="s">
-        <v>609</v>
-      </c>
-      <c r="P64" s="3" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="65" spans="8:34" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="8:34" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H65" s="4">
         <v>2</v>
       </c>
       <c r="I65" s="5">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J65" s="8"/>
-      <c r="K65" s="21" t="s">
-        <v>603</v>
-      </c>
       <c r="L65" t="s">
-        <v>698</v>
+        <v>630</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="O65" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="66" spans="8:34" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>631</v>
+      </c>
+      <c r="N65" t="s">
+        <v>635</v>
+      </c>
+      <c r="P65" s="3" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="66" spans="8:34" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H66" s="4">
         <v>2</v>
       </c>
       <c r="I66" s="5">
-        <v>14</v>
+        <v>11.1</v>
       </c>
       <c r="J66" s="8"/>
-      <c r="K66" s="21" t="s">
-        <v>603</v>
-      </c>
       <c r="L66" t="s">
-        <v>680</v>
+        <v>633</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="O66" t="s">
-        <v>609</v>
-      </c>
-      <c r="P66" s="3" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="67" spans="8:34" ht="61.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>634</v>
+      </c>
+      <c r="N66" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="67" spans="8:34" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H67" s="4">
         <v>2</v>
       </c>
-      <c r="I67" s="5">
-        <v>15</v>
-      </c>
+      <c r="I67" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="J67" s="8"/>
       <c r="L67" t="s">
-        <v>715</v>
+        <v>638</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="N67" t="s">
-        <v>717</v>
+        <v>639</v>
       </c>
       <c r="P67" s="3" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="68" spans="8:34" ht="76.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="68" spans="8:34" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H68" s="4">
         <v>2</v>
       </c>
-      <c r="I68" s="5">
+      <c r="I68" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="J68" s="8"/>
+      <c r="L68" t="s">
+        <v>642</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="P68" s="3" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="69" spans="8:34" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H69" s="4">
+        <v>2</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="J69" s="8"/>
+      <c r="K69" s="21" t="s">
+        <v>603</v>
+      </c>
+      <c r="L69" t="s">
+        <v>646</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="O69" t="s">
+        <v>609</v>
+      </c>
+      <c r="P69" s="3" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="70" spans="8:34" ht="106.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H70" s="4">
+        <v>2</v>
+      </c>
+      <c r="I70" s="5">
+        <v>12</v>
+      </c>
+      <c r="J70" s="8"/>
+      <c r="K70" s="21" t="s">
+        <v>603</v>
+      </c>
+      <c r="L70" t="s">
+        <v>662</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="O70" t="s">
+        <v>609</v>
+      </c>
+      <c r="P70" s="3" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="71" spans="8:34" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H71" s="4">
+        <v>2</v>
+      </c>
+      <c r="I71" s="5">
+        <v>13</v>
+      </c>
+      <c r="J71" s="8"/>
+      <c r="K71" s="21" t="s">
+        <v>603</v>
+      </c>
+      <c r="L71" t="s">
+        <v>698</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="O71" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="72" spans="8:34" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H72" s="4">
+        <v>2</v>
+      </c>
+      <c r="I72" s="5">
+        <v>14</v>
+      </c>
+      <c r="J72" s="8"/>
+      <c r="K72" s="21" t="s">
+        <v>603</v>
+      </c>
+      <c r="L72" t="s">
+        <v>680</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="O72" t="s">
+        <v>609</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="73" spans="8:34" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H73" s="4">
+        <v>2</v>
+      </c>
+      <c r="I73" s="5">
+        <v>15</v>
+      </c>
+      <c r="L73" t="s">
+        <v>715</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="N73" t="s">
+        <v>717</v>
+      </c>
+      <c r="P73" s="3" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="74" spans="8:34" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H74" s="4">
+        <v>2</v>
+      </c>
+      <c r="I74" s="5">
         <v>16</v>
       </c>
-      <c r="L68" t="s">
+      <c r="L74" t="s">
         <v>719</v>
       </c>
-      <c r="M68" s="1" t="s">
+      <c r="M74" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="N68" t="s">
+      <c r="N74" t="s">
         <v>723</v>
       </c>
-      <c r="O68" s="3" t="s">
+      <c r="O74" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="P68" s="3" t="s">
+      <c r="P74" s="3" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="69" spans="8:34" ht="106.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Z69">
+    <row r="75" spans="8:34" ht="106.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z75">
         <v>9</v>
       </c>
-      <c r="AA69">
-        <v>1</v>
-      </c>
-      <c r="AD69" t="s">
+      <c r="AA75">
+        <v>1</v>
+      </c>
+      <c r="AD75" t="s">
         <v>88</v>
       </c>
-      <c r="AE69" s="1" t="s">
+      <c r="AE75" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="AH69" s="3" t="s">
+      <c r="AH75" s="3" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="70" spans="8:34" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Z70">
+    <row r="76" spans="8:34" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z76">
         <v>9</v>
       </c>
-      <c r="AA70">
+      <c r="AA76">
         <v>2</v>
       </c>
-      <c r="AD70" t="s">
+      <c r="AD76" t="s">
         <v>759</v>
       </c>
-      <c r="AE70" s="1" t="s">
+      <c r="AE76" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="AF70" t="s">
+      <c r="AF76" t="s">
         <v>754</v>
       </c>
-      <c r="AH70" s="3" t="s">
+      <c r="AH76" s="3" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="71" spans="8:34" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Z71">
+    <row r="77" spans="8:34" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z77">
         <v>9</v>
       </c>
-      <c r="AA71">
+      <c r="AA77">
         <v>3</v>
       </c>
-      <c r="AD71" t="s">
+      <c r="AD77" t="s">
         <v>757</v>
       </c>
-      <c r="AE71" s="1" t="s">
+      <c r="AE77" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="AH71" s="3" t="s">
+      <c r="AH77" s="3" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="72" spans="8:34" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Z72">
+    <row r="78" spans="8:34" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z78">
         <v>9</v>
       </c>
-      <c r="AA72">
+      <c r="AA78">
+        <v>3.1</v>
+      </c>
+      <c r="AD78" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE78" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="AH78" s="3" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="79" spans="8:34" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z79">
+        <v>9</v>
+      </c>
+      <c r="AA79">
         <v>4</v>
       </c>
-      <c r="AD72" t="s">
+      <c r="AD79" t="s">
         <v>100</v>
       </c>
-      <c r="AE72" s="1" t="s">
+      <c r="AE79" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="AH72" s="3" t="s">
+      <c r="AH79" s="3" t="s">
         <v>762</v>
       </c>
     </row>
+    <row r="80" spans="8:34" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z80">
+        <v>9</v>
+      </c>
+      <c r="AA80">
+        <v>5</v>
+      </c>
+      <c r="AD80" t="s">
+        <v>765</v>
+      </c>
+      <c r="AE80" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="AH80" s="3" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="81" spans="26:43" ht="153" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z81">
+        <v>9</v>
+      </c>
+      <c r="AA81">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AD81" t="s">
+        <v>263</v>
+      </c>
+      <c r="AE81" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="AH81" s="3" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="82" spans="26:43" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AI82">
+        <v>10</v>
+      </c>
+      <c r="AJ82" s="27">
+        <v>1</v>
+      </c>
+      <c r="AM82" t="s">
+        <v>773</v>
+      </c>
+      <c r="AN82" s="1" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="83" spans="26:43" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AI83">
+        <v>10</v>
+      </c>
+      <c r="AJ83" s="27">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AM83" t="s">
+        <v>775</v>
+      </c>
+      <c r="AN83" s="1" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="84" spans="26:43" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AI84">
+        <v>10</v>
+      </c>
+      <c r="AJ84" s="27">
+        <v>2</v>
+      </c>
+      <c r="AM84" t="s">
+        <v>777</v>
+      </c>
+      <c r="AN84" s="1" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="85" spans="26:43" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AI85">
+        <v>10</v>
+      </c>
+      <c r="AJ85" s="27">
+        <v>3</v>
+      </c>
+      <c r="AM85" t="s">
+        <v>779</v>
+      </c>
+      <c r="AN85" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="AQ85" s="3" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="86" spans="26:43" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AI86">
+        <v>10</v>
+      </c>
+      <c r="AJ86" s="27">
+        <v>3.1</v>
+      </c>
+      <c r="AM86" t="s">
+        <v>782</v>
+      </c>
+      <c r="AN86" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="AQ86" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="87" spans="26:43" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AI87">
+        <v>10</v>
+      </c>
+      <c r="AJ87" s="27" t="s">
+        <v>785</v>
+      </c>
+      <c r="AM87" t="s">
+        <v>786</v>
+      </c>
+      <c r="AN87" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="AQ87" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="88" spans="26:43" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AI88">
+        <v>10</v>
+      </c>
+      <c r="AJ88" s="27" t="s">
+        <v>789</v>
+      </c>
+      <c r="AM88" t="s">
+        <v>790</v>
+      </c>
+      <c r="AN88" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="AQ88" s="3" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="89" spans="26:43" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AI89">
+        <v>10</v>
+      </c>
+      <c r="AJ89" s="27" t="s">
+        <v>793</v>
+      </c>
+      <c r="AM89" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN89" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="AQ89" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="90" spans="26:43" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AI90">
+        <v>10</v>
+      </c>
+      <c r="AJ90" s="27" t="s">
+        <v>796</v>
+      </c>
+      <c r="AM90" t="s">
+        <v>797</v>
+      </c>
+      <c r="AN90" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="AQ90" s="3" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="91" spans="26:43" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AI91">
+        <v>10</v>
+      </c>
+      <c r="AJ91" s="27" t="s">
+        <v>800</v>
+      </c>
+      <c r="AM91" t="s">
+        <v>103</v>
+      </c>
+      <c r="AN91" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="AO91" t="s">
+        <v>802</v>
+      </c>
+      <c r="AQ91" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="92" spans="26:43" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AI92">
+        <v>10</v>
+      </c>
+      <c r="AJ92" s="27" t="s">
+        <v>803</v>
+      </c>
+      <c r="AM92" t="s">
+        <v>807</v>
+      </c>
+      <c r="AN92" s="1" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="93" spans="26:43" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AI93">
+        <v>10</v>
+      </c>
+      <c r="AJ93" s="27" t="s">
+        <v>805</v>
+      </c>
+      <c r="AM93" t="s">
+        <v>806</v>
+      </c>
+      <c r="AN93" s="1" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="94" spans="26:43" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AI94">
+        <v>10</v>
+      </c>
+      <c r="AJ94" s="27">
+        <v>4</v>
+      </c>
+      <c r="AM94" t="s">
+        <v>809</v>
+      </c>
+      <c r="AN94" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="AQ94" s="3" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="95" spans="26:43" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AI95">
+        <v>10</v>
+      </c>
+      <c r="AJ95" s="27">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AM95" t="s">
+        <v>812</v>
+      </c>
+      <c r="AN95" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="AQ95" s="3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="96" spans="26:43" ht="62.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AI96">
+        <v>10</v>
+      </c>
+      <c r="AJ96" s="27" t="s">
+        <v>815</v>
+      </c>
+      <c r="AM96" t="s">
+        <v>816</v>
+      </c>
+      <c r="AN96" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="AQ96" s="3" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="97" spans="35:44" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AI97">
+        <v>10</v>
+      </c>
+      <c r="AJ97" s="27" t="s">
+        <v>819</v>
+      </c>
+      <c r="AM97" t="s">
+        <v>820</v>
+      </c>
+      <c r="AN97" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="AO97" t="s">
+        <v>822</v>
+      </c>
+      <c r="AQ97" s="3" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="98" spans="35:44" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AR98">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Y36" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:Y42" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <hyperlinks>
     <hyperlink ref="M2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="E2" r:id="rId2" location="SpatialThing" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
@@ -4796,64 +5564,88 @@
     <hyperlink ref="V29" r:id="rId14" location="NetworkTopologyEdge" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
     <hyperlink ref="M29" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
     <hyperlink ref="E34" r:id="rId16" location="MicroNode" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="E35" r:id="rId17" location="InternalNodeLink" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="E41" r:id="rId17" location="InternalNodeLink" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
     <hyperlink ref="V33" r:id="rId18" location="NetworkTopologyNode" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
     <hyperlink ref="V34" r:id="rId19" location="TrackNetworkNode" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
     <hyperlink ref="M31" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
     <hyperlink ref="M33" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
     <hyperlink ref="M34" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
     <hyperlink ref="M32" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="E36" r:id="rId24" location="Track" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="E37" r:id="rId25" location="Tunnel" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="E38" r:id="rId26" location="VehicleType" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="E39" r:id="rId27" location="Manufacturer" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="E40" r:id="rId28" location="Vehicle" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="E41" r:id="rId29" location="VehicleKeeper" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="M42" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="M43" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="M44" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="M45" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="M46" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="E42" r:id="rId24" location="Track" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="E43" r:id="rId25" location="Tunnel" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="E44" r:id="rId26" location="VehicleType" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="E45" r:id="rId27" location="Manufacturer" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="E46" r:id="rId28" location="Vehicle" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="E47" r:id="rId29" location="VehicleKeeper" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="M48" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="M49" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="M50" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="M51" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="M52" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
     <hyperlink ref="M8" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
     <hyperlink ref="M9" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
     <hyperlink ref="M10" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
     <hyperlink ref="M12" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
     <hyperlink ref="M13" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="M48" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="M49" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="M53" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink ref="M52" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="M54" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="M59" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="M60" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="M61" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink ref="M62" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="M63" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="M50" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="M47" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
-    <hyperlink ref="O47" r:id="rId52" location="string" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="M54" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="M55" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="M59" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="M58" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="M60" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="M65" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="M66" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="M67" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="M68" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="M69" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="M56" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="M53" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="O53" r:id="rId52" location="string" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
     <hyperlink ref="M14" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
     <hyperlink ref="M15" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
     <hyperlink ref="M16" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
-    <hyperlink ref="M51" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
-    <hyperlink ref="M64" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
-    <hyperlink ref="M65" r:id="rId58" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
-    <hyperlink ref="M66" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
-    <hyperlink ref="M67" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
-    <hyperlink ref="M68" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="M57" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="M70" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="M71" r:id="rId58" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="M72" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="M73" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="M74" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
     <hyperlink ref="M11" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
     <hyperlink ref="M17" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
     <hyperlink ref="M21" r:id="rId64" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
     <hyperlink ref="M22" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
     <hyperlink ref="M23" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
     <hyperlink ref="M24" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
-    <hyperlink ref="AE69" r:id="rId68" location="Node" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
-    <hyperlink ref="AE70" r:id="rId69" location="Line" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
-    <hyperlink ref="AE71" r:id="rId70" location="Resource" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
-    <hyperlink ref="AE72" r:id="rId71" location="Track" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
+    <hyperlink ref="AE75" r:id="rId68" location="Node" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
+    <hyperlink ref="AE76" r:id="rId69" location="Line" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
+    <hyperlink ref="AE77" r:id="rId70" location="Resource" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
+    <hyperlink ref="AE79" r:id="rId71" location="Track" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
+    <hyperlink ref="AE80" r:id="rId72" location="Stakeholder" xr:uid="{E5F415DC-5373-40E3-9C89-45D869E950A6}"/>
+    <hyperlink ref="AE81" r:id="rId73" location="VehicleKeeper" xr:uid="{4684CB0D-EE4E-499A-8A41-BE0A161F591D}"/>
+    <hyperlink ref="AN82" r:id="rId74" xr:uid="{FC42081C-05DF-475A-AFA5-F10FDCFD0685}"/>
+    <hyperlink ref="AN83" r:id="rId75" xr:uid="{60119FA0-5AFD-452C-ADB4-E997FB3918CE}"/>
+    <hyperlink ref="AN84" r:id="rId76" xr:uid="{5F89D747-F874-435C-8FBB-04D6ED645860}"/>
+    <hyperlink ref="AN85" r:id="rId77" xr:uid="{E7C91E26-DE00-42C6-86C5-5FAE77551399}"/>
+    <hyperlink ref="AN86" r:id="rId78" xr:uid="{30365121-FB10-466C-82A4-6DB7B91D359B}"/>
+    <hyperlink ref="AN87" r:id="rId79" xr:uid="{D80A3F81-A9D9-4855-B846-E3CCA0372CFC}"/>
+    <hyperlink ref="AN88" r:id="rId80" xr:uid="{7AD3D0CB-4B42-4B54-AFBB-B1E145267F72}"/>
+    <hyperlink ref="AN89" r:id="rId81" xr:uid="{EE274697-B6C1-4121-B789-BBF84F3811C2}"/>
+    <hyperlink ref="AN90" r:id="rId82" xr:uid="{65F5A999-66C6-46AC-9391-3EEF5C8121D8}"/>
+    <hyperlink ref="AN91" r:id="rId83" xr:uid="{8D82FB3B-2F0F-4D15-8343-EC442E2344C7}"/>
+    <hyperlink ref="AN92" r:id="rId84" xr:uid="{8FEE2688-7879-4D95-973C-CFEAA9A43385}"/>
+    <hyperlink ref="AN93" r:id="rId85" xr:uid="{DE5F0593-C96D-4002-9C88-D8E350BF762D}"/>
+    <hyperlink ref="AN94" r:id="rId86" xr:uid="{009FB359-E569-4D62-8A50-0F481C8AC467}"/>
+    <hyperlink ref="AN95" r:id="rId87" xr:uid="{5E9D8AEC-7AE6-4365-BE0F-026737F3C8F1}"/>
+    <hyperlink ref="AN96" r:id="rId88" xr:uid="{30FCD832-0A87-4965-8F67-95DAEBD10A77}"/>
+    <hyperlink ref="AN97" r:id="rId89" xr:uid="{6852294C-F710-4FEF-AC5E-65C60187B185}"/>
+    <hyperlink ref="V36" r:id="rId90" location="LineNetworkNode" xr:uid="{E877AE27-034A-4145-958E-75B814AE9497}"/>
+    <hyperlink ref="V35" r:id="rId91" location="NetworkNodeIOPoint" xr:uid="{25288DE1-C08F-47E7-9266-23AA5EC75B76}"/>
+    <hyperlink ref="V37" r:id="rId92" location="Tunnel" xr:uid="{74BB5D44-43D1-4090-A718-7195D0C702E2}"/>
+    <hyperlink ref="V38" r:id="rId93" location="MovableSpatialThing" xr:uid="{81C34A3A-9B28-44F5-A925-3ABF2D94D033}"/>
+    <hyperlink ref="V39" r:id="rId94" location="RollingStockObject" xr:uid="{99C967ED-62C7-4430-8850-C65D74495976}"/>
+    <hyperlink ref="V40" r:id="rId95" location="Vehicle" xr:uid="{81E1B385-F86F-4A2C-881F-5315E39C30B2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId72"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId96"/>
 </worksheet>
 </file>
 
@@ -9542,15 +10334,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100347300E79F3A9243906C3CEE0F5FEDEF" ma:contentTypeVersion="9" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="f16376871c3582f9657a6b711b88fdec">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f8ebb3c5-ac80-4109-9e6b-e221331335e4" xmlns:ns4="6890e2ac-6063-4770-9461-fef3a0141546" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="566d71f40dfe7da0602d6d3395c24190" ns3:_="" ns4:_="">
     <xsd:import namespace="f8ebb3c5-ac80-4109-9e6b-e221331335e4"/>
@@ -9747,6 +10530,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4750793-B303-413E-BDB0-197FD5388E6B}">
   <ds:schemaRefs>
@@ -9765,14 +10557,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29F0E12C-6420-473B-9150-6E3999EB0909}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15B58BC5-9D50-4AD7-95DE-D093B21BBB93}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9789,4 +10573,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29F0E12C-6420-473B-9150-6E3999EB0909}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/QualitativeComparisonMatrix.xlsx
+++ b/QualitativeComparisonMatrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nextcloud\Personal\Documents\ProjectsOngoing\ERA\GitHubJulian\era-models-mindmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8914FED-DA14-42E3-B608-04FED699A71F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50A3CA21-1B12-487F-931F-1E16A1223CD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-165" yWindow="-165" windowWidth="29130" windowHeight="17730" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General specs" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="872">
   <si>
     <t>Prorail IMSpoor XML</t>
   </si>
@@ -2571,6 +2571,109 @@
   </si>
   <si>
     <t>http://www.integrail.info/ont/SP3A.owl#Vehicle</t>
+  </si>
+  <si>
+    <t>1.1.</t>
+  </si>
+  <si>
+    <t>INSPIRE short</t>
+  </si>
+  <si>
+    <t>INSPIRE FQN</t>
+  </si>
+  <si>
+    <t>INSPIRE  Description</t>
+  </si>
+  <si>
+    <t>NetworkElement</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/ont/net#NetworkElement</t>
+  </si>
+  <si>
+    <t>Abstract base type representing an element in a network. Every element in a network provides some function that is of interest in the network.</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/ont/net#Node</t>
+  </si>
+  <si>
+    <t>NOTE if a topological representation of the network is used the road node is either a topological connection between two or more links or the termination of a ink. If a geometric representation of the network is used road nodes are represented by points or alternatively another geometric shape. [EuroRoadS]</t>
+  </si>
+  <si>
+    <t>Represents a significant position in the network that always occurs at the beginning or the end of a link.</t>
+  </si>
+  <si>
+    <t>1.2.</t>
+  </si>
+  <si>
+    <t>GeneralisedLink</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/ont/net#GeneralisedLink</t>
+  </si>
+  <si>
+    <t>Abstract base type representing a linear network element that may be used as a target in linear referencing.</t>
+  </si>
+  <si>
+    <t>1.2.1.</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/ont/net#Link</t>
+  </si>
+  <si>
+    <t>Curvilinear network element that connects two positions and represents a homogeneous path in the network. The connected positions may be represented as nodes.</t>
+  </si>
+  <si>
+    <t>TransportNode</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/ont/net#TransportNode</t>
+  </si>
+  <si>
+    <t>A point spatial object which is used for connectivity.</t>
+  </si>
+  <si>
+    <t>Nodes are found at either end of the TransportLink.</t>
+  </si>
+  <si>
+    <t>2.1.</t>
+  </si>
+  <si>
+    <t>RailwayNode</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/ont/net#RailwayNode</t>
+  </si>
+  <si>
+    <t>A point spatial object which represents a significant point along the railway network or defines an intersection of railway tracks used to describe its connectivity.</t>
+  </si>
+  <si>
+    <t>Not defined as part of the semantic model.</t>
+  </si>
+  <si>
+    <t>TransportLink</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/ont/net#TransportLink</t>
+  </si>
+  <si>
+    <t>A linear spatial object that describes the geometry and connectivity of a transport network between two points in the network.</t>
+  </si>
+  <si>
+    <t>3.1.</t>
+  </si>
+  <si>
+    <t>RailwayLink</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/ont/net#RailwayLink</t>
+  </si>
+  <si>
+    <t>A linear spatial object that describes the geometry and connectivity of a railway network between two points in the network.</t>
+  </si>
+  <si>
+    <t>NOTE Railway links can be used to represent stretches of railway with one or multiple tracks.
+Not defined as part of the semantic model.</t>
   </si>
 </sst>
 </file>
@@ -3172,7 +3275,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3246,10 +3349,10 @@
         <v>109</v>
       </c>
       <c r="B11">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="C11" s="10">
-        <v>44244</v>
+        <v>44249</v>
       </c>
     </row>
   </sheetData>
@@ -3265,57 +3368,67 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AZ98"/>
+  <dimension ref="A1:BI106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W40" sqref="W40"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BA107" sqref="BA107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="53.85546875" customWidth="1"/>
-    <col min="8" max="8" width="4.5703125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.28515625" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="73.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="63.28515625" customWidth="1"/>
-    <col min="16" max="16" width="53.85546875" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="3.140625" customWidth="1"/>
-    <col min="21" max="21" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="90" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="53.85546875" customWidth="1"/>
-    <col min="30" max="30" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="45.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="48.140625" customWidth="1"/>
-    <col min="35" max="35" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="37.28515625" customWidth="1"/>
-    <col min="44" max="44" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="9" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="33.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="6" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="5" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="3.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" hidden="1" customWidth="1"/>
+    <col min="5" max="7" width="53.85546875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5703125" style="4" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="3.28515625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" style="2" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="41.140625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="73.85546875" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="63.28515625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="53.85546875" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" style="4" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="8.28515625" style="5" hidden="1" customWidth="1"/>
+    <col min="19" max="20" width="3.140625" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="24.7109375" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="90" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="7.5703125" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="20.42578125" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="53.85546875" hidden="1" customWidth="1"/>
+    <col min="26" max="29" width="0" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="14.5703125" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="45.85546875" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="11.7109375" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="0" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="48.140625" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="6.28515625" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="9.85546875" style="27" hidden="1" customWidth="1"/>
+    <col min="37" max="38" width="0" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="22.42578125" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="45.42578125" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="28.5703125" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="18.140625" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="37.28515625" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="6.28515625" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="2.85546875" hidden="1" customWidth="1"/>
+    <col min="46" max="47" width="0" hidden="1" customWidth="1"/>
+    <col min="48" max="48" width="9" hidden="1" customWidth="1"/>
+    <col min="49" max="49" width="8.28515625" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="0" hidden="1" customWidth="1"/>
+    <col min="51" max="51" width="18.140625" hidden="1" customWidth="1"/>
+    <col min="52" max="52" width="33.5703125" hidden="1" customWidth="1"/>
+    <col min="53" max="53" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="5.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="54.85546875" customWidth="1"/>
+    <col min="61" max="61" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:61" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>110</v>
       </c>
@@ -3439,8 +3552,29 @@
       <c r="AZ1" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="2" spans="1:52" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BA1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="BB1" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>839</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>840</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>561</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>748</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="2" spans="1:61" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -3479,7 +3613,7 @@
       </c>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3" spans="1:52" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:61" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E3" s="1"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -3502,7 +3636,7 @@
       <c r="P3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4" spans="1:52" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:61" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E4" s="1"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -3527,7 +3661,7 @@
       </c>
       <c r="Y4" s="3"/>
     </row>
-    <row r="5" spans="1:52" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:61" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E5" s="1"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -3550,7 +3684,7 @@
       <c r="P5" s="3"/>
       <c r="Y5" s="3"/>
     </row>
-    <row r="6" spans="1:52" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:61" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E6" s="1"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -3573,7 +3707,7 @@
       <c r="P6" s="3"/>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7" spans="1:52" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:61" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E7" s="1"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -3600,7 +3734,7 @@
       </c>
       <c r="Y7" s="3"/>
     </row>
-    <row r="8" spans="1:52" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:61" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E8" s="1"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -3627,7 +3761,7 @@
       </c>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="1:52" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:61" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E9" s="1"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -3652,7 +3786,7 @@
       <c r="P9" s="3"/>
       <c r="Y9" s="3"/>
     </row>
-    <row r="10" spans="1:52" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:61" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10" s="1"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -3679,7 +3813,7 @@
       </c>
       <c r="Y10" s="3"/>
     </row>
-    <row r="11" spans="1:52" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:61" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E11" s="1"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -3706,7 +3840,7 @@
       </c>
       <c r="Y11" s="3"/>
     </row>
-    <row r="12" spans="1:52" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:61" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E12" s="1"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -3733,7 +3867,7 @@
       </c>
       <c r="Y12" s="3"/>
     </row>
-    <row r="13" spans="1:52" ht="241.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:61" ht="241.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E13" s="1"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -3760,7 +3894,7 @@
       </c>
       <c r="Y13" s="3"/>
     </row>
-    <row r="14" spans="1:52" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:61" ht="61.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E14" s="1"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -3786,7 +3920,7 @@
       </c>
       <c r="Y14" s="3"/>
     </row>
-    <row r="15" spans="1:52" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:61" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E15" s="1"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -3810,7 +3944,7 @@
       </c>
       <c r="Y15" s="3"/>
     </row>
-    <row r="16" spans="1:52" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:61" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E16" s="1"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -3837,7 +3971,7 @@
       </c>
       <c r="Y16" s="3"/>
     </row>
-    <row r="17" spans="1:25" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E17" s="1"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -3863,7 +3997,7 @@
       </c>
       <c r="Y17" s="3"/>
     </row>
-    <row r="18" spans="1:25" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>1</v>
       </c>
@@ -3886,7 +4020,7 @@
       <c r="P18" s="3"/>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19" spans="1:25" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" ht="76.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>1</v>
       </c>
@@ -3907,7 +4041,7 @@
       <c r="P19" s="3"/>
       <c r="Y19" s="3"/>
     </row>
-    <row r="20" spans="1:25" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" ht="76.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>1</v>
       </c>
@@ -3930,7 +4064,7 @@
       <c r="P20" s="3"/>
       <c r="Y20" s="3"/>
     </row>
-    <row r="21" spans="1:25" ht="409.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" ht="409.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="7"/>
       <c r="E21" s="1"/>
       <c r="F21" s="3"/>
@@ -3955,7 +4089,7 @@
       </c>
       <c r="Y21" s="3"/>
     </row>
-    <row r="22" spans="1:25" ht="409.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" ht="409.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="7"/>
       <c r="E22" s="1"/>
       <c r="F22" s="3"/>
@@ -3980,7 +4114,7 @@
       </c>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23" spans="1:25" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="7"/>
       <c r="E23" s="1"/>
       <c r="F23" s="3"/>
@@ -4003,7 +4137,7 @@
       </c>
       <c r="Y23" s="3"/>
     </row>
-    <row r="24" spans="1:25" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="7"/>
       <c r="E24" s="1"/>
       <c r="F24" s="3"/>
@@ -4028,7 +4162,7 @@
       </c>
       <c r="Y24" s="3"/>
     </row>
-    <row r="25" spans="1:25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H25" s="4">
         <v>2</v>
       </c>
@@ -4046,7 +4180,7 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H26" s="4">
         <v>2</v>
       </c>
@@ -4064,7 +4198,7 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q27" s="4">
         <v>4</v>
       </c>
@@ -4082,7 +4216,7 @@
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
     </row>
-    <row r="28" spans="1:25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q28" s="4">
         <v>4</v>
       </c>
@@ -4100,7 +4234,7 @@
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
     </row>
-    <row r="29" spans="1:25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H29" s="4">
         <v>2</v>
       </c>
@@ -4134,7 +4268,7 @@
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
     </row>
-    <row r="30" spans="1:25" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" ht="76.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>1</v>
       </c>
@@ -4193,7 +4327,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C31" s="7"/>
       <c r="E31" s="1"/>
       <c r="F31" s="3"/>
@@ -4224,7 +4358,7 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="3"/>
     </row>
-    <row r="32" spans="1:25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C32" s="7"/>
       <c r="E32" s="1"/>
       <c r="F32" s="3"/>
@@ -4253,7 +4387,7 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="3"/>
     </row>
-    <row r="33" spans="1:25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C33" s="7"/>
       <c r="E33" s="1"/>
       <c r="F33" s="3"/>
@@ -4292,7 +4426,7 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="3"/>
     </row>
-    <row r="34" spans="1:25" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" ht="121.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>1</v>
       </c>
@@ -4348,7 +4482,7 @@
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
     </row>
-    <row r="35" spans="1:25" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" ht="61.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C35" s="7"/>
       <c r="E35" s="1"/>
       <c r="F35" s="3"/>
@@ -4378,7 +4512,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="36" spans="1:25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C36" s="7"/>
       <c r="E36" s="1"/>
       <c r="F36" s="3"/>
@@ -4405,7 +4539,7 @@
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
     </row>
-    <row r="37" spans="1:25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C37" s="7"/>
       <c r="E37" s="1"/>
       <c r="F37" s="3"/>
@@ -4432,7 +4566,7 @@
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
     </row>
-    <row r="38" spans="1:25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C38" s="7"/>
       <c r="E38" s="1"/>
       <c r="F38" s="3"/>
@@ -4459,7 +4593,7 @@
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
     </row>
-    <row r="39" spans="1:25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C39" s="7"/>
       <c r="E39" s="1"/>
       <c r="F39" s="3"/>
@@ -4486,7 +4620,7 @@
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
     </row>
-    <row r="40" spans="1:25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C40" s="7"/>
       <c r="E40" s="1"/>
       <c r="F40" s="3"/>
@@ -4513,7 +4647,7 @@
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
     </row>
-    <row r="41" spans="1:25" ht="181.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" ht="181.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>1</v>
       </c>
@@ -4534,7 +4668,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>1</v>
       </c>
@@ -4552,7 +4686,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>1</v>
       </c>
@@ -4570,7 +4704,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="1:25" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>1</v>
       </c>
@@ -4588,7 +4722,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>1</v>
       </c>
@@ -4606,7 +4740,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="46" spans="1:25" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>1</v>
       </c>
@@ -4624,7 +4758,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="47" spans="1:25" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>1</v>
       </c>
@@ -4642,7 +4776,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="48" spans="1:25" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H48" s="4">
         <v>2</v>
       </c>
@@ -4664,7 +4798,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="49" spans="8:16" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="8:16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H49" s="4">
         <v>2</v>
       </c>
@@ -4680,7 +4814,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="50" spans="8:16" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="8:16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H50" s="4">
         <v>2</v>
       </c>
@@ -4696,7 +4830,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="51" spans="8:16" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="8:16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H51" s="4">
         <v>2</v>
       </c>
@@ -4712,7 +4846,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="52" spans="8:16" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="8:16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H52" s="4">
         <v>2</v>
       </c>
@@ -4728,7 +4862,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="53" spans="8:16" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="8:16" ht="61.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H53" s="4">
         <v>2</v>
       </c>
@@ -4752,7 +4886,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="54" spans="8:16" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="8:16" ht="121.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H54" s="4">
         <v>2</v>
       </c>
@@ -4779,7 +4913,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="55" spans="8:16" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="8:16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H55" s="4">
         <v>2</v>
       </c>
@@ -4803,7 +4937,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="56" spans="8:16" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="8:16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H56" s="4">
         <v>2</v>
       </c>
@@ -4827,7 +4961,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="57" spans="8:16" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="8:16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H57" s="4">
         <v>2</v>
       </c>
@@ -4848,7 +4982,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="58" spans="8:16" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="8:16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H58" s="4">
         <v>2</v>
       </c>
@@ -4863,7 +4997,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="59" spans="8:16" ht="151.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="8:16" ht="151.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H59" s="4">
         <v>2</v>
       </c>
@@ -4887,7 +5021,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="60" spans="8:16" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="8:16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H60" s="4">
         <v>2</v>
       </c>
@@ -4908,7 +5042,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="61" spans="8:16" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="8:16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H61" s="4">
         <v>2</v>
       </c>
@@ -4917,7 +5051,7 @@
       </c>
       <c r="J61" s="8"/>
     </row>
-    <row r="62" spans="8:16" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="8:16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H62" s="4">
         <v>2</v>
       </c>
@@ -4926,7 +5060,7 @@
       </c>
       <c r="J62" s="8"/>
     </row>
-    <row r="63" spans="8:16" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="8:16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H63" s="4">
         <v>2</v>
       </c>
@@ -4935,7 +5069,7 @@
       </c>
       <c r="J63" s="8"/>
     </row>
-    <row r="64" spans="8:16" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="8:16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H64" s="4">
         <v>2</v>
       </c>
@@ -4944,7 +5078,7 @@
       </c>
       <c r="J64" s="8"/>
     </row>
-    <row r="65" spans="8:34" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="8:34" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H65" s="4">
         <v>2</v>
       </c>
@@ -4965,7 +5099,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="66" spans="8:34" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="8:34" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H66" s="4">
         <v>2</v>
       </c>
@@ -4983,7 +5117,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="67" spans="8:34" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="8:34" ht="61.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H67" s="4">
         <v>2</v>
       </c>
@@ -5001,7 +5135,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="68" spans="8:34" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="8:34" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H68" s="4">
         <v>2</v>
       </c>
@@ -5019,7 +5153,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="69" spans="8:34" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="8:34" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H69" s="4">
         <v>2</v>
       </c>
@@ -5043,7 +5177,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="70" spans="8:34" ht="106.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="8:34" ht="106.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H70" s="4">
         <v>2</v>
       </c>
@@ -5067,7 +5201,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="71" spans="8:34" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="8:34" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H71" s="4">
         <v>2</v>
       </c>
@@ -5088,7 +5222,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="72" spans="8:34" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="8:34" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H72" s="4">
         <v>2</v>
       </c>
@@ -5112,7 +5246,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="73" spans="8:34" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="8:34" ht="61.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H73" s="4">
         <v>2</v>
       </c>
@@ -5132,7 +5266,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="74" spans="8:34" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="8:34" ht="76.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H74" s="4">
         <v>2</v>
       </c>
@@ -5155,7 +5289,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="75" spans="8:34" ht="106.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="8:34" ht="106.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Z75">
         <v>9</v>
       </c>
@@ -5172,7 +5306,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="76" spans="8:34" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="8:34" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Z76">
         <v>9</v>
       </c>
@@ -5192,7 +5326,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="77" spans="8:34" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="8:34" ht="108" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Z77">
         <v>9</v>
       </c>
@@ -5209,7 +5343,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="78" spans="8:34" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="8:34" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Z78">
         <v>9</v>
       </c>
@@ -5226,7 +5360,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="79" spans="8:34" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="8:34" ht="47.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Z79">
         <v>9</v>
       </c>
@@ -5243,7 +5377,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="80" spans="8:34" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="8:34" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Z80">
         <v>9</v>
       </c>
@@ -5260,7 +5394,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="81" spans="26:43" ht="153" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="26:43" ht="153" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Z81">
         <v>9</v>
       </c>
@@ -5277,7 +5411,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="82" spans="26:43" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="26:43" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AI82">
         <v>10</v>
       </c>
@@ -5291,7 +5425,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="83" spans="26:43" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="26:43" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AI83">
         <v>10</v>
       </c>
@@ -5305,7 +5439,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="84" spans="26:43" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="26:43" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AI84">
         <v>10</v>
       </c>
@@ -5319,7 +5453,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="85" spans="26:43" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="26:43" ht="61.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AI85">
         <v>10</v>
       </c>
@@ -5336,7 +5470,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="86" spans="26:43" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="26:43" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AI86">
         <v>10</v>
       </c>
@@ -5353,7 +5487,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="87" spans="26:43" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="26:43" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AI87">
         <v>10</v>
       </c>
@@ -5370,7 +5504,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="88" spans="26:43" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="26:43" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AI88">
         <v>10</v>
       </c>
@@ -5387,7 +5521,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="89" spans="26:43" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="26:43" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AI89">
         <v>10</v>
       </c>
@@ -5404,7 +5538,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="90" spans="26:43" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="26:43" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AI90">
         <v>10</v>
       </c>
@@ -5421,7 +5555,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="91" spans="26:43" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="26:43" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AI91">
         <v>10</v>
       </c>
@@ -5441,7 +5575,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="92" spans="26:43" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="26:43" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AI92">
         <v>10</v>
       </c>
@@ -5455,7 +5589,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="93" spans="26:43" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="26:43" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AI93">
         <v>10</v>
       </c>
@@ -5469,7 +5603,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="94" spans="26:43" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="26:43" ht="61.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AI94">
         <v>10</v>
       </c>
@@ -5486,7 +5620,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="95" spans="26:43" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="26:43" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AI95">
         <v>10</v>
       </c>
@@ -5503,7 +5637,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="96" spans="26:43" ht="62.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="26:43" ht="62.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AI96">
         <v>10</v>
       </c>
@@ -5520,7 +5654,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="97" spans="35:44" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="35:61" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AI97">
         <v>10</v>
       </c>
@@ -5540,9 +5674,157 @@
         <v>823</v>
       </c>
     </row>
-    <row r="98" spans="35:44" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="35:61" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AR98">
         <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="35:61" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BA99">
+        <v>11</v>
+      </c>
+      <c r="BB99" s="27">
+        <v>1</v>
+      </c>
+      <c r="BE99" t="s">
+        <v>842</v>
+      </c>
+      <c r="BF99" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="BI99" s="3" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="100" spans="35:61" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BA100">
+        <v>11</v>
+      </c>
+      <c r="BB100" s="27" t="s">
+        <v>838</v>
+      </c>
+      <c r="BE100" t="s">
+        <v>88</v>
+      </c>
+      <c r="BF100" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="BH100" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="BI100" s="3" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="101" spans="35:61" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BA101">
+        <v>11</v>
+      </c>
+      <c r="BB101" s="27" t="s">
+        <v>848</v>
+      </c>
+      <c r="BE101" t="s">
+        <v>849</v>
+      </c>
+      <c r="BF101" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="BI101" s="3" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="102" spans="35:61" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BA102">
+        <v>11</v>
+      </c>
+      <c r="BB102" s="27" t="s">
+        <v>852</v>
+      </c>
+      <c r="BE102" t="s">
+        <v>45</v>
+      </c>
+      <c r="BF102" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="BI102" s="3" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="103" spans="35:61" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BA103">
+        <v>11</v>
+      </c>
+      <c r="BB103" s="27">
+        <v>2</v>
+      </c>
+      <c r="BE103" t="s">
+        <v>855</v>
+      </c>
+      <c r="BF103" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="BH103" t="s">
+        <v>858</v>
+      </c>
+      <c r="BI103" s="3" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="104" spans="35:61" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BA104">
+        <v>11</v>
+      </c>
+      <c r="BB104" s="27" t="s">
+        <v>859</v>
+      </c>
+      <c r="BE104" t="s">
+        <v>860</v>
+      </c>
+      <c r="BF104" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="BH104" t="s">
+        <v>863</v>
+      </c>
+      <c r="BI104" s="3" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="105" spans="35:61" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BA105">
+        <v>11</v>
+      </c>
+      <c r="BB105" s="27">
+        <v>3</v>
+      </c>
+      <c r="BE105" t="s">
+        <v>864</v>
+      </c>
+      <c r="BF105" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="BI105" s="3" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="106" spans="35:61" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BA106">
+        <v>11</v>
+      </c>
+      <c r="BB106" s="27" t="s">
+        <v>867</v>
+      </c>
+      <c r="BE106" t="s">
+        <v>868</v>
+      </c>
+      <c r="BF106" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="BH106" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="BI106" s="3" t="s">
+        <v>870</v>
       </c>
     </row>
   </sheetData>
@@ -5643,9 +5925,17 @@
     <hyperlink ref="V38" r:id="rId93" location="MovableSpatialThing" xr:uid="{81C34A3A-9B28-44F5-A925-3ABF2D94D033}"/>
     <hyperlink ref="V39" r:id="rId94" location="RollingStockObject" xr:uid="{99C967ED-62C7-4430-8850-C65D74495976}"/>
     <hyperlink ref="V40" r:id="rId95" location="Vehicle" xr:uid="{81E1B385-F86F-4A2C-881F-5315E39C30B2}"/>
+    <hyperlink ref="BF99" r:id="rId96" location="NetworkElement" xr:uid="{B02747A4-8117-463B-A31E-2FD3ED212C62}"/>
+    <hyperlink ref="BF100" r:id="rId97" location="Node" xr:uid="{9AB95AAB-97D4-48C6-9683-80CA31366274}"/>
+    <hyperlink ref="BF101" r:id="rId98" location="GeneralisedLink" xr:uid="{B7971813-9634-4D5A-A4A8-E0689DF9DF4B}"/>
+    <hyperlink ref="BF102" r:id="rId99" location="Link" xr:uid="{B734B034-0E61-4312-A88E-C2E9D121C5AB}"/>
+    <hyperlink ref="BF103" r:id="rId100" location="TransportNode" xr:uid="{EE23911D-8B27-494D-A672-87B57C8453B7}"/>
+    <hyperlink ref="BF104" r:id="rId101" location="RailwayNode" xr:uid="{B0365CCE-F90A-4093-9427-994D5155D88E}"/>
+    <hyperlink ref="BF105" r:id="rId102" location="TransportLink" xr:uid="{6F5A2F15-01F8-4860-AB9D-4DE160A5D6B9}"/>
+    <hyperlink ref="BF106" r:id="rId103" location="RailwayLink" xr:uid="{AB8CAE8C-2CAF-4266-AC82-96D3B9CE5016}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId96"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId104"/>
 </worksheet>
 </file>
 

--- a/QualitativeComparisonMatrix.xlsx
+++ b/QualitativeComparisonMatrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nextcloud\Personal\Documents\ProjectsOngoing\ERA\GitHubJulian\era-models-mindmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50A3CA21-1B12-487F-931F-1E16A1223CD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B64D8C9-2968-4D3A-BFFF-CDEF7B0BBAA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-165" yWindow="-165" windowWidth="29130" windowHeight="17730" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General specs" sheetId="1" r:id="rId1"/>
@@ -21,17 +21,25 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Concepts!$A$1:$Y$42</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Properties!$A$1:$X$23</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="884">
   <si>
     <t>Prorail IMSpoor XML</t>
   </si>
@@ -2674,6 +2682,42 @@
   <si>
     <t>NOTE Railway links can be used to represent stretches of railway with one or multiple tracks.
 Not defined as part of the semantic model.</t>
+  </si>
+  <si>
+    <t>IMSpoorXML short</t>
+  </si>
+  <si>
+    <t>MicroNode</t>
+  </si>
+  <si>
+    <t>MicroLink</t>
+  </si>
+  <si>
+    <t>Jumper</t>
+  </si>
+  <si>
+    <t>OperationalPoint</t>
+  </si>
+  <si>
+    <t>RailTopoModel short</t>
+  </si>
+  <si>
+    <t>NetElement</t>
+  </si>
+  <si>
+    <t>Relation</t>
+  </si>
+  <si>
+    <t>RailML short</t>
+  </si>
+  <si>
+    <t>NetRelation</t>
+  </si>
+  <si>
+    <t>OverCrossing</t>
+  </si>
+  <si>
+    <t>VehicleManufacturer</t>
   </si>
 </sst>
 </file>
@@ -3275,7 +3319,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3349,10 +3393,10 @@
         <v>109</v>
       </c>
       <c r="B11">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="C11" s="10">
-        <v>44249</v>
+        <v>44252</v>
       </c>
     </row>
   </sheetData>
@@ -3368,11 +3412,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BI106"/>
+  <dimension ref="A1:BX120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BA107" sqref="BA107"/>
+    <sheetView tabSelected="1" topLeftCell="BG1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BT121" sqref="BT121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -3426,9 +3470,18 @@
     <col min="58" max="58" width="50.7109375" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="54.85546875" customWidth="1"/>
     <col min="61" max="61" width="36.5703125" customWidth="1"/>
+    <col min="62" max="62" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:76" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>110</v>
       </c>
@@ -3573,8 +3626,35 @@
       <c r="BI1" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="2" spans="1:61" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BJ1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK1" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>872</v>
+      </c>
+      <c r="BO1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="BP1" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>877</v>
+      </c>
+      <c r="BT1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="BU1" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="2" spans="1:76" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -3613,7 +3693,7 @@
       </c>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3" spans="1:61" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:76" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E3" s="1"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -3636,7 +3716,7 @@
       <c r="P3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4" spans="1:61" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:76" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E4" s="1"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -3661,7 +3741,7 @@
       </c>
       <c r="Y4" s="3"/>
     </row>
-    <row r="5" spans="1:61" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:76" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E5" s="1"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -3684,7 +3764,7 @@
       <c r="P5" s="3"/>
       <c r="Y5" s="3"/>
     </row>
-    <row r="6" spans="1:61" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:76" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E6" s="1"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -3707,7 +3787,7 @@
       <c r="P6" s="3"/>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7" spans="1:61" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:76" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E7" s="1"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -3734,7 +3814,7 @@
       </c>
       <c r="Y7" s="3"/>
     </row>
-    <row r="8" spans="1:61" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:76" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E8" s="1"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -3761,7 +3841,7 @@
       </c>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="1:61" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:76" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E9" s="1"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -3786,7 +3866,7 @@
       <c r="P9" s="3"/>
       <c r="Y9" s="3"/>
     </row>
-    <row r="10" spans="1:61" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:76" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10" s="1"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -3813,7 +3893,7 @@
       </c>
       <c r="Y10" s="3"/>
     </row>
-    <row r="11" spans="1:61" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:76" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E11" s="1"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -3840,7 +3920,7 @@
       </c>
       <c r="Y11" s="3"/>
     </row>
-    <row r="12" spans="1:61" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:76" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E12" s="1"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -3867,7 +3947,7 @@
       </c>
       <c r="Y12" s="3"/>
     </row>
-    <row r="13" spans="1:61" ht="241.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:76" ht="241.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E13" s="1"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -3894,7 +3974,7 @@
       </c>
       <c r="Y13" s="3"/>
     </row>
-    <row r="14" spans="1:61" ht="61.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:76" ht="61.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E14" s="1"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -3920,7 +4000,7 @@
       </c>
       <c r="Y14" s="3"/>
     </row>
-    <row r="15" spans="1:61" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:76" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E15" s="1"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -3944,7 +4024,7 @@
       </c>
       <c r="Y15" s="3"/>
     </row>
-    <row r="16" spans="1:61" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:76" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E16" s="1"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -5654,7 +5734,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="97" spans="35:61" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="35:66" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AI97">
         <v>10</v>
       </c>
@@ -5674,12 +5754,12 @@
         <v>823</v>
       </c>
     </row>
-    <row r="98" spans="35:61" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="35:66" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AR98">
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="35:61" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="35:66" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="BA99">
         <v>11</v>
       </c>
@@ -5696,7 +5776,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="100" spans="35:61" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="35:66" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="BA100">
         <v>11</v>
       </c>
@@ -5716,7 +5796,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="101" spans="35:61" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="35:66" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="BA101">
         <v>11</v>
       </c>
@@ -5733,7 +5813,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="102" spans="35:61" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="35:66" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="BA102">
         <v>11</v>
       </c>
@@ -5750,7 +5830,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="103" spans="35:61" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="35:66" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="BA103">
         <v>11</v>
       </c>
@@ -5770,7 +5850,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="104" spans="35:61" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="35:66" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="BA104">
         <v>11</v>
       </c>
@@ -5790,7 +5870,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="105" spans="35:61" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="35:66" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="BA105">
         <v>11</v>
       </c>
@@ -5807,7 +5887,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="106" spans="35:61" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="35:66" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="BA106">
         <v>11</v>
       </c>
@@ -5825,6 +5905,160 @@
       </c>
       <c r="BI106" s="3" t="s">
         <v>870</v>
+      </c>
+    </row>
+    <row r="107" spans="35:66" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BJ107">
+        <v>3</v>
+      </c>
+      <c r="BK107">
+        <v>1</v>
+      </c>
+      <c r="BN107" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="108" spans="35:66" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BJ108">
+        <v>3</v>
+      </c>
+      <c r="BK108">
+        <v>2</v>
+      </c>
+      <c r="BN108" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="109" spans="35:66" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BJ109">
+        <v>3</v>
+      </c>
+      <c r="BK109">
+        <v>3</v>
+      </c>
+      <c r="BN109" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="110" spans="35:66" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BJ110">
+        <v>3</v>
+      </c>
+      <c r="BK110">
+        <v>4</v>
+      </c>
+      <c r="BN110" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="111" spans="35:66" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BJ111">
+        <v>3</v>
+      </c>
+      <c r="BK111">
+        <v>5</v>
+      </c>
+      <c r="BN111" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="35:66" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BJ112">
+        <v>3</v>
+      </c>
+      <c r="BK112">
+        <v>6</v>
+      </c>
+      <c r="BN112" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="113" spans="67:76" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BO113">
+        <v>4</v>
+      </c>
+      <c r="BP113">
+        <v>1</v>
+      </c>
+      <c r="BS113" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="114" spans="67:76" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BO114">
+        <v>4</v>
+      </c>
+      <c r="BP114">
+        <v>2</v>
+      </c>
+      <c r="BS114" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="115" spans="67:76" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BT115">
+        <v>6</v>
+      </c>
+      <c r="BU115">
+        <v>1</v>
+      </c>
+      <c r="BX115" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="116" spans="67:76" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BT116">
+        <v>6</v>
+      </c>
+      <c r="BU116">
+        <v>2</v>
+      </c>
+      <c r="BX116" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="117" spans="67:76" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BT117">
+        <v>6</v>
+      </c>
+      <c r="BU117">
+        <v>3</v>
+      </c>
+      <c r="BX117" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="118" spans="67:76" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BT118">
+        <v>6</v>
+      </c>
+      <c r="BU118">
+        <v>4</v>
+      </c>
+      <c r="BX118" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" spans="67:76" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BT119">
+        <v>6</v>
+      </c>
+      <c r="BU119">
+        <v>5</v>
+      </c>
+      <c r="BX119" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="120" spans="67:76" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BT120">
+        <v>6</v>
+      </c>
+      <c r="BU120">
+        <v>6</v>
+      </c>
+      <c r="BX120" t="s">
+        <v>883</v>
       </c>
     </row>
   </sheetData>

--- a/QualitativeComparisonMatrix.xlsx
+++ b/QualitativeComparisonMatrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nextcloud\Personal\Documents\ProjectsOngoing\ERA\GitHubJulian\era-models-mindmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B64D8C9-2968-4D3A-BFFF-CDEF7B0BBAA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{341B0AB8-18A6-4012-B558-9118FB88C6C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="886">
   <si>
     <t>Prorail IMSpoor XML</t>
   </si>
@@ -2718,6 +2718,12 @@
   </si>
   <si>
     <t>VehicleManufacturer</t>
+  </si>
+  <si>
+    <t>EULYNX short</t>
+  </si>
+  <si>
+    <t>Entity</t>
   </si>
 </sst>
 </file>
@@ -3319,7 +3325,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3393,10 +3399,10 @@
         <v>109</v>
       </c>
       <c r="B11">
-        <v>2.12</v>
+        <v>2.13</v>
       </c>
       <c r="C11" s="10">
-        <v>44252</v>
+        <v>44256</v>
       </c>
     </row>
   </sheetData>
@@ -3412,58 +3418,58 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BX120"/>
+  <dimension ref="A1:CC124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BG1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BT121" sqref="BT121"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="6" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" style="5" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" hidden="1" customWidth="1"/>
-    <col min="5" max="7" width="53.85546875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="4.5703125" style="4" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="3.28515625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" style="2" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="41.140625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="73.85546875" hidden="1" customWidth="1"/>
-    <col min="14" max="15" width="63.28515625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="53.85546875" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" style="4" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="8.28515625" style="5" hidden="1" customWidth="1"/>
-    <col min="19" max="20" width="3.140625" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="24.7109375" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="90" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="7.5703125" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="20.42578125" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="53.85546875" hidden="1" customWidth="1"/>
-    <col min="26" max="29" width="0" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="14.5703125" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="45.85546875" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="11.7109375" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="0" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="48.140625" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="6.28515625" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="9.85546875" style="27" hidden="1" customWidth="1"/>
-    <col min="37" max="38" width="0" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="22.42578125" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="45.42578125" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="28.5703125" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="18.140625" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="37.28515625" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="6.28515625" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="2.85546875" hidden="1" customWidth="1"/>
-    <col min="46" max="47" width="0" hidden="1" customWidth="1"/>
-    <col min="48" max="48" width="9" hidden="1" customWidth="1"/>
-    <col min="49" max="49" width="8.28515625" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="0" hidden="1" customWidth="1"/>
-    <col min="51" max="51" width="18.140625" hidden="1" customWidth="1"/>
-    <col min="52" max="52" width="33.5703125" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="3.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="7" width="53.85546875" customWidth="1"/>
+    <col min="8" max="8" width="4.5703125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="3.28515625" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="41.140625" customWidth="1"/>
+    <col min="13" max="13" width="73.85546875" customWidth="1"/>
+    <col min="14" max="15" width="63.28515625" customWidth="1"/>
+    <col min="16" max="16" width="53.85546875" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="8.28515625" style="5" customWidth="1"/>
+    <col min="19" max="20" width="3.140625" customWidth="1"/>
+    <col min="21" max="21" width="24.7109375" customWidth="1"/>
+    <col min="22" max="22" width="90" customWidth="1"/>
+    <col min="23" max="23" width="7.5703125" customWidth="1"/>
+    <col min="24" max="24" width="20.42578125" customWidth="1"/>
+    <col min="25" max="25" width="53.85546875" customWidth="1"/>
+    <col min="26" max="29" width="9.140625" customWidth="1"/>
+    <col min="30" max="30" width="14.5703125" customWidth="1"/>
+    <col min="31" max="31" width="45.85546875" customWidth="1"/>
+    <col min="32" max="32" width="11.7109375" customWidth="1"/>
+    <col min="33" max="33" width="9.140625" customWidth="1"/>
+    <col min="34" max="34" width="48.140625" customWidth="1"/>
+    <col min="35" max="35" width="6.28515625" customWidth="1"/>
+    <col min="36" max="36" width="9.85546875" style="27" customWidth="1"/>
+    <col min="37" max="38" width="9.140625" customWidth="1"/>
+    <col min="39" max="39" width="22.42578125" customWidth="1"/>
+    <col min="40" max="40" width="45.42578125" customWidth="1"/>
+    <col min="41" max="41" width="28.5703125" customWidth="1"/>
+    <col min="42" max="42" width="18.140625" customWidth="1"/>
+    <col min="43" max="43" width="37.28515625" customWidth="1"/>
+    <col min="44" max="44" width="6.28515625" customWidth="1"/>
+    <col min="45" max="45" width="2.85546875" customWidth="1"/>
+    <col min="46" max="47" width="9.140625" customWidth="1"/>
+    <col min="48" max="48" width="9" customWidth="1"/>
+    <col min="49" max="49" width="8.28515625" customWidth="1"/>
+    <col min="50" max="50" width="9.140625" customWidth="1"/>
+    <col min="51" max="51" width="18.140625" customWidth="1"/>
+    <col min="52" max="52" width="33.5703125" customWidth="1"/>
     <col min="53" max="53" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="5.7109375" style="27" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="16.28515625" bestFit="1" customWidth="1"/>
@@ -3479,9 +3485,12 @@
     <col min="72" max="72" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="73" max="73" width="2.85546875" bestFit="1" customWidth="1"/>
     <col min="76" max="76" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:76" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:81" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>110</v>
       </c>
@@ -3653,8 +3662,17 @@
       <c r="BX1" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="2" spans="1:76" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BY1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="BZ1" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="2" spans="1:81" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -3693,7 +3711,7 @@
       </c>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3" spans="1:76" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:81" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E3" s="1"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -3716,7 +3734,7 @@
       <c r="P3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4" spans="1:76" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:81" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E4" s="1"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -3741,7 +3759,7 @@
       </c>
       <c r="Y4" s="3"/>
     </row>
-    <row r="5" spans="1:76" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:81" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E5" s="1"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -3764,7 +3782,7 @@
       <c r="P5" s="3"/>
       <c r="Y5" s="3"/>
     </row>
-    <row r="6" spans="1:76" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:81" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E6" s="1"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -3787,7 +3805,7 @@
       <c r="P6" s="3"/>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7" spans="1:76" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:81" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E7" s="1"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -3814,7 +3832,7 @@
       </c>
       <c r="Y7" s="3"/>
     </row>
-    <row r="8" spans="1:76" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:81" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E8" s="1"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -3841,7 +3859,7 @@
       </c>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="1:76" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:81" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E9" s="1"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -3866,7 +3884,7 @@
       <c r="P9" s="3"/>
       <c r="Y9" s="3"/>
     </row>
-    <row r="10" spans="1:76" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:81" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10" s="1"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -3893,7 +3911,7 @@
       </c>
       <c r="Y10" s="3"/>
     </row>
-    <row r="11" spans="1:76" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:81" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E11" s="1"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -3920,7 +3938,7 @@
       </c>
       <c r="Y11" s="3"/>
     </row>
-    <row r="12" spans="1:76" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:81" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E12" s="1"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -3947,7 +3965,7 @@
       </c>
       <c r="Y12" s="3"/>
     </row>
-    <row r="13" spans="1:76" ht="241.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:81" ht="241.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E13" s="1"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -3974,7 +3992,7 @@
       </c>
       <c r="Y13" s="3"/>
     </row>
-    <row r="14" spans="1:76" ht="61.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:81" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E14" s="1"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -4000,7 +4018,7 @@
       </c>
       <c r="Y14" s="3"/>
     </row>
-    <row r="15" spans="1:76" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:81" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E15" s="1"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -4024,7 +4042,7 @@
       </c>
       <c r="Y15" s="3"/>
     </row>
-    <row r="16" spans="1:76" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:81" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E16" s="1"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -4051,7 +4069,7 @@
       </c>
       <c r="Y16" s="3"/>
     </row>
-    <row r="17" spans="1:25" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E17" s="1"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -4077,7 +4095,7 @@
       </c>
       <c r="Y17" s="3"/>
     </row>
-    <row r="18" spans="1:25" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>1</v>
       </c>
@@ -4100,7 +4118,7 @@
       <c r="P18" s="3"/>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19" spans="1:25" ht="76.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>1</v>
       </c>
@@ -4121,7 +4139,7 @@
       <c r="P19" s="3"/>
       <c r="Y19" s="3"/>
     </row>
-    <row r="20" spans="1:25" ht="76.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>1</v>
       </c>
@@ -4144,7 +4162,7 @@
       <c r="P20" s="3"/>
       <c r="Y20" s="3"/>
     </row>
-    <row r="21" spans="1:25" ht="409.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" ht="409.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="7"/>
       <c r="E21" s="1"/>
       <c r="F21" s="3"/>
@@ -4169,7 +4187,7 @@
       </c>
       <c r="Y21" s="3"/>
     </row>
-    <row r="22" spans="1:25" ht="409.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" ht="409.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="7"/>
       <c r="E22" s="1"/>
       <c r="F22" s="3"/>
@@ -4194,7 +4212,7 @@
       </c>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23" spans="1:25" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="7"/>
       <c r="E23" s="1"/>
       <c r="F23" s="3"/>
@@ -4217,7 +4235,7 @@
       </c>
       <c r="Y23" s="3"/>
     </row>
-    <row r="24" spans="1:25" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="7"/>
       <c r="E24" s="1"/>
       <c r="F24" s="3"/>
@@ -4242,7 +4260,7 @@
       </c>
       <c r="Y24" s="3"/>
     </row>
-    <row r="25" spans="1:25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H25" s="4">
         <v>2</v>
       </c>
@@ -4260,7 +4278,7 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H26" s="4">
         <v>2</v>
       </c>
@@ -4278,7 +4296,7 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q27" s="4">
         <v>4</v>
       </c>
@@ -4296,7 +4314,7 @@
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
     </row>
-    <row r="28" spans="1:25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q28" s="4">
         <v>4</v>
       </c>
@@ -4314,7 +4332,7 @@
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
     </row>
-    <row r="29" spans="1:25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H29" s="4">
         <v>2</v>
       </c>
@@ -4348,7 +4366,7 @@
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
     </row>
-    <row r="30" spans="1:25" ht="76.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>1</v>
       </c>
@@ -4407,7 +4425,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C31" s="7"/>
       <c r="E31" s="1"/>
       <c r="F31" s="3"/>
@@ -4438,7 +4456,7 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="3"/>
     </row>
-    <row r="32" spans="1:25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C32" s="7"/>
       <c r="E32" s="1"/>
       <c r="F32" s="3"/>
@@ -4467,7 +4485,7 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="3"/>
     </row>
-    <row r="33" spans="1:25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C33" s="7"/>
       <c r="E33" s="1"/>
       <c r="F33" s="3"/>
@@ -4506,7 +4524,7 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="3"/>
     </row>
-    <row r="34" spans="1:25" ht="121.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>1</v>
       </c>
@@ -4562,7 +4580,7 @@
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
     </row>
-    <row r="35" spans="1:25" ht="61.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C35" s="7"/>
       <c r="E35" s="1"/>
       <c r="F35" s="3"/>
@@ -4592,7 +4610,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="36" spans="1:25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C36" s="7"/>
       <c r="E36" s="1"/>
       <c r="F36" s="3"/>
@@ -4619,7 +4637,7 @@
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
     </row>
-    <row r="37" spans="1:25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C37" s="7"/>
       <c r="E37" s="1"/>
       <c r="F37" s="3"/>
@@ -4646,7 +4664,7 @@
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
     </row>
-    <row r="38" spans="1:25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C38" s="7"/>
       <c r="E38" s="1"/>
       <c r="F38" s="3"/>
@@ -4673,7 +4691,7 @@
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
     </row>
-    <row r="39" spans="1:25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C39" s="7"/>
       <c r="E39" s="1"/>
       <c r="F39" s="3"/>
@@ -4700,7 +4718,7 @@
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
     </row>
-    <row r="40" spans="1:25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C40" s="7"/>
       <c r="E40" s="1"/>
       <c r="F40" s="3"/>
@@ -4727,7 +4745,7 @@
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
     </row>
-    <row r="41" spans="1:25" ht="181.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" ht="181.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>1</v>
       </c>
@@ -4748,7 +4766,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>1</v>
       </c>
@@ -4766,7 +4784,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>1</v>
       </c>
@@ -4784,7 +4802,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="1:25" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>1</v>
       </c>
@@ -4802,7 +4820,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>1</v>
       </c>
@@ -4820,7 +4838,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="46" spans="1:25" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>1</v>
       </c>
@@ -4838,7 +4856,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="47" spans="1:25" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>1</v>
       </c>
@@ -4856,7 +4874,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="48" spans="1:25" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H48" s="4">
         <v>2</v>
       </c>
@@ -4878,7 +4896,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="49" spans="8:16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="8:16" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H49" s="4">
         <v>2</v>
       </c>
@@ -4894,7 +4912,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="50" spans="8:16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="8:16" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H50" s="4">
         <v>2</v>
       </c>
@@ -4910,7 +4928,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="51" spans="8:16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="8:16" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H51" s="4">
         <v>2</v>
       </c>
@@ -4926,7 +4944,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="52" spans="8:16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="8:16" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H52" s="4">
         <v>2</v>
       </c>
@@ -4942,7 +4960,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="53" spans="8:16" ht="61.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="8:16" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H53" s="4">
         <v>2</v>
       </c>
@@ -4966,7 +4984,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="54" spans="8:16" ht="121.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="8:16" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H54" s="4">
         <v>2</v>
       </c>
@@ -4993,7 +5011,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="55" spans="8:16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="8:16" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H55" s="4">
         <v>2</v>
       </c>
@@ -5017,7 +5035,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="56" spans="8:16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="8:16" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H56" s="4">
         <v>2</v>
       </c>
@@ -5041,7 +5059,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="57" spans="8:16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="8:16" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H57" s="4">
         <v>2</v>
       </c>
@@ -5062,7 +5080,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="58" spans="8:16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="8:16" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H58" s="4">
         <v>2</v>
       </c>
@@ -5077,7 +5095,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="59" spans="8:16" ht="151.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="8:16" ht="151.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H59" s="4">
         <v>2</v>
       </c>
@@ -5101,7 +5119,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="60" spans="8:16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="8:16" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H60" s="4">
         <v>2</v>
       </c>
@@ -5122,7 +5140,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="61" spans="8:16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="8:16" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H61" s="4">
         <v>2</v>
       </c>
@@ -5131,7 +5149,7 @@
       </c>
       <c r="J61" s="8"/>
     </row>
-    <row r="62" spans="8:16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="8:16" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H62" s="4">
         <v>2</v>
       </c>
@@ -5140,7 +5158,7 @@
       </c>
       <c r="J62" s="8"/>
     </row>
-    <row r="63" spans="8:16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="8:16" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H63" s="4">
         <v>2</v>
       </c>
@@ -5149,7 +5167,7 @@
       </c>
       <c r="J63" s="8"/>
     </row>
-    <row r="64" spans="8:16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="8:16" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H64" s="4">
         <v>2</v>
       </c>
@@ -5158,7 +5176,7 @@
       </c>
       <c r="J64" s="8"/>
     </row>
-    <row r="65" spans="8:34" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="8:34" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H65" s="4">
         <v>2</v>
       </c>
@@ -5179,7 +5197,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="66" spans="8:34" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="8:34" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H66" s="4">
         <v>2</v>
       </c>
@@ -5197,7 +5215,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="67" spans="8:34" ht="61.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="8:34" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H67" s="4">
         <v>2</v>
       </c>
@@ -5215,7 +5233,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="68" spans="8:34" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="8:34" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H68" s="4">
         <v>2</v>
       </c>
@@ -5233,7 +5251,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="69" spans="8:34" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="8:34" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H69" s="4">
         <v>2</v>
       </c>
@@ -5257,7 +5275,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="70" spans="8:34" ht="106.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="8:34" ht="106.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H70" s="4">
         <v>2</v>
       </c>
@@ -5281,7 +5299,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="71" spans="8:34" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="8:34" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H71" s="4">
         <v>2</v>
       </c>
@@ -5302,7 +5320,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="72" spans="8:34" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="8:34" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H72" s="4">
         <v>2</v>
       </c>
@@ -5326,7 +5344,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="73" spans="8:34" ht="61.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="8:34" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H73" s="4">
         <v>2</v>
       </c>
@@ -5346,7 +5364,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="74" spans="8:34" ht="76.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="8:34" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H74" s="4">
         <v>2</v>
       </c>
@@ -5369,7 +5387,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="75" spans="8:34" ht="106.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="8:34" ht="106.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Z75">
         <v>9</v>
       </c>
@@ -5386,7 +5404,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="76" spans="8:34" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="8:34" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Z76">
         <v>9</v>
       </c>
@@ -5406,7 +5424,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="77" spans="8:34" ht="108" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="8:34" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Z77">
         <v>9</v>
       </c>
@@ -5423,7 +5441,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="78" spans="8:34" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="8:34" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Z78">
         <v>9</v>
       </c>
@@ -5440,7 +5458,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="79" spans="8:34" ht="47.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="8:34" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Z79">
         <v>9</v>
       </c>
@@ -5457,7 +5475,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="80" spans="8:34" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="8:34" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Z80">
         <v>9</v>
       </c>
@@ -5474,7 +5492,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="81" spans="26:43" ht="153" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="26:43" ht="153" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Z81">
         <v>9</v>
       </c>
@@ -5491,7 +5509,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="82" spans="26:43" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="26:43" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AI82">
         <v>10</v>
       </c>
@@ -5505,7 +5523,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="83" spans="26:43" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="26:43" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AI83">
         <v>10</v>
       </c>
@@ -5519,7 +5537,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="84" spans="26:43" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="26:43" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AI84">
         <v>10</v>
       </c>
@@ -5533,7 +5551,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="85" spans="26:43" ht="61.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="26:43" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AI85">
         <v>10</v>
       </c>
@@ -5550,7 +5568,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="86" spans="26:43" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="26:43" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AI86">
         <v>10</v>
       </c>
@@ -5567,7 +5585,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="87" spans="26:43" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="26:43" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AI87">
         <v>10</v>
       </c>
@@ -5584,7 +5602,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="88" spans="26:43" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="26:43" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AI88">
         <v>10</v>
       </c>
@@ -5601,7 +5619,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="89" spans="26:43" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="26:43" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AI89">
         <v>10</v>
       </c>
@@ -5618,7 +5636,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="90" spans="26:43" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="26:43" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AI90">
         <v>10</v>
       </c>
@@ -5635,7 +5653,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="91" spans="26:43" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="26:43" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AI91">
         <v>10</v>
       </c>
@@ -5655,7 +5673,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="92" spans="26:43" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="26:43" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AI92">
         <v>10</v>
       </c>
@@ -5669,7 +5687,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="93" spans="26:43" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="26:43" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AI93">
         <v>10</v>
       </c>
@@ -5683,7 +5701,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="94" spans="26:43" ht="61.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="26:43" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AI94">
         <v>10</v>
       </c>
@@ -5700,7 +5718,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="95" spans="26:43" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="26:43" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AI95">
         <v>10</v>
       </c>
@@ -5717,7 +5735,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="96" spans="26:43" ht="62.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="26:43" ht="62.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AI96">
         <v>10</v>
       </c>
@@ -5734,7 +5752,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="97" spans="35:66" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="35:66" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AI97">
         <v>10</v>
       </c>
@@ -5754,7 +5772,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="98" spans="35:66" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="35:66" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AR98">
         <v>11</v>
       </c>
@@ -5973,7 +5991,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="113" spans="67:76" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="67:81" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="BO113">
         <v>4</v>
       </c>
@@ -5984,7 +6002,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="114" spans="67:76" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="67:81" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="BO114">
         <v>4</v>
       </c>
@@ -5995,7 +6013,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="115" spans="67:76" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="67:81" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="BT115">
         <v>6</v>
       </c>
@@ -6006,7 +6024,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="116" spans="67:76" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="67:81" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="BT116">
         <v>6</v>
       </c>
@@ -6017,7 +6035,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="117" spans="67:76" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="67:81" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="BT117">
         <v>6</v>
       </c>
@@ -6028,7 +6046,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="118" spans="67:76" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="67:81" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="BT118">
         <v>6</v>
       </c>
@@ -6039,7 +6057,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="119" spans="67:76" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="67:81" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="BT119">
         <v>6</v>
       </c>
@@ -6050,7 +6068,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="120" spans="67:76" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="67:81" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="BT120">
         <v>6</v>
       </c>
@@ -6059,6 +6077,50 @@
       </c>
       <c r="BX120" t="s">
         <v>883</v>
+      </c>
+    </row>
+    <row r="121" spans="67:81" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BY121">
+        <v>7</v>
+      </c>
+      <c r="BZ121">
+        <v>1</v>
+      </c>
+      <c r="CC121" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="122" spans="67:81" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BY122">
+        <v>7</v>
+      </c>
+      <c r="BZ122">
+        <v>2</v>
+      </c>
+      <c r="CC122" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="123" spans="67:81" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BY123">
+        <v>7</v>
+      </c>
+      <c r="BZ123">
+        <v>3</v>
+      </c>
+      <c r="CC123" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="124" spans="67:81" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BY124">
+        <v>7</v>
+      </c>
+      <c r="BZ124">
+        <v>4</v>
+      </c>
+      <c r="CC124" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -6177,9 +6239,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X162"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V143" sqref="V143"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -10858,6 +10920,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100347300E79F3A9243906C3CEE0F5FEDEF" ma:contentTypeVersion="9" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="f16376871c3582f9657a6b711b88fdec">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f8ebb3c5-ac80-4109-9e6b-e221331335e4" xmlns:ns4="6890e2ac-6063-4770-9461-fef3a0141546" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="566d71f40dfe7da0602d6d3395c24190" ns3:_="" ns4:_="">
     <xsd:import namespace="f8ebb3c5-ac80-4109-9e6b-e221331335e4"/>
@@ -11054,15 +11125,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4750793-B303-413E-BDB0-197FD5388E6B}">
   <ds:schemaRefs>
@@ -11081,6 +11143,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29F0E12C-6420-473B-9150-6E3999EB0909}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15B58BC5-9D50-4AD7-95DE-D093B21BBB93}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11097,12 +11167,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29F0E12C-6420-473B-9150-6E3999EB0909}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>